--- a/design/Y_英雄.xlsx
+++ b/design/Y_英雄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="英雄" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>file_name</t>
   </si>
@@ -167,30 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[800, 1650, 2800]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[40, 40, 40]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.65, 0.65, 0.65]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[65, 75, 105]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[60,60,60]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[25,25,25]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +272,62 @@
   </si>
   <si>
     <t>{2:[1,3],3:[2,3]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[950, 1710, 3078]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.8, 0.8, 0.8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70, 105, 158]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,100,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50,50,50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120, 120, 120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_map(array)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 60, 60, 60 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impl(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaSuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY648"/>
+  <dimension ref="A1:BZ648"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="U11" activeCellId="1" sqref="U10 U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,23 +729,23 @@
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
-    <col min="11" max="11" width="23.125" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="17" width="15.75" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="15.75" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,14 +797,14 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -786,49 +818,58 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" t="s">
-        <v>65</v>
+      <c r="R8" t="s">
+        <v>59</v>
       </c>
-      <c r="R8" t="s">
-        <v>67</v>
+      <c r="S8" t="s">
+        <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -839,52 +880,61 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" t="s">
-        <v>66</v>
+      <c r="R9" t="s">
+        <v>60</v>
       </c>
-      <c r="R9" t="s">
-        <v>68</v>
+      <c r="S9" t="s">
+        <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -895,52 +945,61 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
-        <v>58</v>
+      <c r="S10" t="s">
+        <v>63</v>
       </c>
-      <c r="H10" t="s">
-        <v>57</v>
+      <c r="T10" t="s">
+        <v>75</v>
       </c>
-      <c r="I10" t="s">
-        <v>55</v>
+      <c r="U10" t="s">
+        <v>77</v>
       </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -948,56 +1007,62 @@
         <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>3</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>70</v>
+      <c r="S11" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="T11" s="7">
+        <v>4</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -1054,8 +1119,9 @@
       <c r="BW11" s="7"/>
       <c r="BX11" s="7"/>
       <c r="BY11" s="7"/>
-    </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ11" s="7"/>
+    </row>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1133,8 +1199,9 @@
       <c r="BW12" s="7"/>
       <c r="BX12" s="7"/>
       <c r="BY12" s="7"/>
-    </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ12" s="7"/>
+    </row>
+    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1212,8 +1279,9 @@
       <c r="BW13" s="7"/>
       <c r="BX13" s="7"/>
       <c r="BY13" s="7"/>
-    </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ13" s="7"/>
+    </row>
+    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1291,8 +1359,9 @@
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
       <c r="BY14" s="7"/>
-    </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ14" s="7"/>
+    </row>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1370,8 +1439,9 @@
       <c r="BW15" s="7"/>
       <c r="BX15" s="7"/>
       <c r="BY15" s="7"/>
-    </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ15" s="7"/>
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1449,8 +1519,9 @@
       <c r="BW16" s="7"/>
       <c r="BX16" s="7"/>
       <c r="BY16" s="7"/>
-    </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ16" s="7"/>
+    </row>
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1528,8 +1599,9 @@
       <c r="BW17" s="7"/>
       <c r="BX17" s="7"/>
       <c r="BY17" s="7"/>
-    </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ17" s="7"/>
+    </row>
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1607,8 +1679,9 @@
       <c r="BW18" s="7"/>
       <c r="BX18" s="7"/>
       <c r="BY18" s="7"/>
-    </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ18" s="7"/>
+    </row>
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1686,8 +1759,9 @@
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
       <c r="BY19" s="7"/>
-    </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ19" s="7"/>
+    </row>
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1765,8 +1839,9 @@
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
       <c r="BY20" s="7"/>
-    </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ20" s="7"/>
+    </row>
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1844,8 +1919,9 @@
       <c r="BW21" s="7"/>
       <c r="BX21" s="7"/>
       <c r="BY21" s="7"/>
-    </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ21" s="7"/>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1923,8 +1999,9 @@
       <c r="BW22" s="7"/>
       <c r="BX22" s="7"/>
       <c r="BY22" s="7"/>
-    </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ22" s="7"/>
+    </row>
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2002,8 +2079,9 @@
       <c r="BW23" s="7"/>
       <c r="BX23" s="7"/>
       <c r="BY23" s="7"/>
-    </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ23" s="7"/>
+    </row>
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2081,8 +2159,9 @@
       <c r="BW24" s="7"/>
       <c r="BX24" s="7"/>
       <c r="BY24" s="7"/>
-    </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ24" s="7"/>
+    </row>
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2160,8 +2239,9 @@
       <c r="BW25" s="7"/>
       <c r="BX25" s="7"/>
       <c r="BY25" s="7"/>
-    </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ25" s="7"/>
+    </row>
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2239,8 +2319,9 @@
       <c r="BW26" s="7"/>
       <c r="BX26" s="7"/>
       <c r="BY26" s="7"/>
-    </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ26" s="7"/>
+    </row>
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2318,8 +2399,9 @@
       <c r="BW27" s="7"/>
       <c r="BX27" s="7"/>
       <c r="BY27" s="7"/>
-    </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ27" s="7"/>
+    </row>
+    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2397,8 +2479,9 @@
       <c r="BW28" s="7"/>
       <c r="BX28" s="7"/>
       <c r="BY28" s="7"/>
-    </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ28" s="7"/>
+    </row>
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2476,8 +2559,9 @@
       <c r="BW29" s="7"/>
       <c r="BX29" s="7"/>
       <c r="BY29" s="7"/>
-    </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ29" s="7"/>
+    </row>
+    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2555,8 +2639,9 @@
       <c r="BW30" s="7"/>
       <c r="BX30" s="7"/>
       <c r="BY30" s="7"/>
-    </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ30" s="7"/>
+    </row>
+    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2634,8 +2719,9 @@
       <c r="BW31" s="7"/>
       <c r="BX31" s="7"/>
       <c r="BY31" s="7"/>
-    </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ31" s="7"/>
+    </row>
+    <row r="32" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2713,8 +2799,9 @@
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
       <c r="BY32" s="7"/>
-    </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ32" s="7"/>
+    </row>
+    <row r="33" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2792,8 +2879,9 @@
       <c r="BW33" s="7"/>
       <c r="BX33" s="7"/>
       <c r="BY33" s="7"/>
-    </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ33" s="7"/>
+    </row>
+    <row r="34" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2871,8 +2959,9 @@
       <c r="BW34" s="7"/>
       <c r="BX34" s="7"/>
       <c r="BY34" s="7"/>
-    </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ34" s="7"/>
+    </row>
+    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2950,8 +3039,9 @@
       <c r="BW35" s="7"/>
       <c r="BX35" s="7"/>
       <c r="BY35" s="7"/>
-    </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ35" s="7"/>
+    </row>
+    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3029,8 +3119,9 @@
       <c r="BW36" s="7"/>
       <c r="BX36" s="7"/>
       <c r="BY36" s="7"/>
-    </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ36" s="7"/>
+    </row>
+    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3108,8 +3199,9 @@
       <c r="BW37" s="7"/>
       <c r="BX37" s="7"/>
       <c r="BY37" s="7"/>
-    </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ37" s="7"/>
+    </row>
+    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3187,8 +3279,9 @@
       <c r="BW38" s="7"/>
       <c r="BX38" s="7"/>
       <c r="BY38" s="7"/>
-    </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ38" s="7"/>
+    </row>
+    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3266,8 +3359,9 @@
       <c r="BW39" s="7"/>
       <c r="BX39" s="7"/>
       <c r="BY39" s="7"/>
-    </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ39" s="7"/>
+    </row>
+    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3345,8 +3439,9 @@
       <c r="BW40" s="7"/>
       <c r="BX40" s="7"/>
       <c r="BY40" s="7"/>
-    </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ40" s="7"/>
+    </row>
+    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3424,8 +3519,9 @@
       <c r="BW41" s="7"/>
       <c r="BX41" s="7"/>
       <c r="BY41" s="7"/>
-    </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ41" s="7"/>
+    </row>
+    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3503,8 +3599,9 @@
       <c r="BW42" s="7"/>
       <c r="BX42" s="7"/>
       <c r="BY42" s="7"/>
-    </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ42" s="7"/>
+    </row>
+    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3582,8 +3679,9 @@
       <c r="BW43" s="7"/>
       <c r="BX43" s="7"/>
       <c r="BY43" s="7"/>
-    </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ43" s="7"/>
+    </row>
+    <row r="44" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3661,8 +3759,9 @@
       <c r="BW44" s="7"/>
       <c r="BX44" s="7"/>
       <c r="BY44" s="7"/>
-    </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ44" s="7"/>
+    </row>
+    <row r="45" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3740,8 +3839,9 @@
       <c r="BW45" s="7"/>
       <c r="BX45" s="7"/>
       <c r="BY45" s="7"/>
-    </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ45" s="7"/>
+    </row>
+    <row r="46" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3819,8 +3919,9 @@
       <c r="BW46" s="7"/>
       <c r="BX46" s="7"/>
       <c r="BY46" s="7"/>
-    </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ46" s="7"/>
+    </row>
+    <row r="47" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3898,8 +3999,9 @@
       <c r="BW47" s="7"/>
       <c r="BX47" s="7"/>
       <c r="BY47" s="7"/>
-    </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ47" s="7"/>
+    </row>
+    <row r="48" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3977,8 +4079,9 @@
       <c r="BW48" s="7"/>
       <c r="BX48" s="7"/>
       <c r="BY48" s="7"/>
-    </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ48" s="7"/>
+    </row>
+    <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4056,8 +4159,9 @@
       <c r="BW49" s="7"/>
       <c r="BX49" s="7"/>
       <c r="BY49" s="7"/>
-    </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ49" s="7"/>
+    </row>
+    <row r="50" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4135,8 +4239,9 @@
       <c r="BW50" s="7"/>
       <c r="BX50" s="7"/>
       <c r="BY50" s="7"/>
-    </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ50" s="7"/>
+    </row>
+    <row r="51" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4214,8 +4319,9 @@
       <c r="BW51" s="7"/>
       <c r="BX51" s="7"/>
       <c r="BY51" s="7"/>
-    </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ51" s="7"/>
+    </row>
+    <row r="52" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4293,8 +4399,9 @@
       <c r="BW52" s="7"/>
       <c r="BX52" s="7"/>
       <c r="BY52" s="7"/>
-    </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ52" s="7"/>
+    </row>
+    <row r="53" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4372,8 +4479,9 @@
       <c r="BW53" s="7"/>
       <c r="BX53" s="7"/>
       <c r="BY53" s="7"/>
-    </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ53" s="7"/>
+    </row>
+    <row r="54" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4451,8 +4559,9 @@
       <c r="BW54" s="7"/>
       <c r="BX54" s="7"/>
       <c r="BY54" s="7"/>
-    </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ54" s="7"/>
+    </row>
+    <row r="55" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4530,8 +4639,9 @@
       <c r="BW55" s="7"/>
       <c r="BX55" s="7"/>
       <c r="BY55" s="7"/>
-    </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ55" s="7"/>
+    </row>
+    <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4609,8 +4719,9 @@
       <c r="BW56" s="7"/>
       <c r="BX56" s="7"/>
       <c r="BY56" s="7"/>
-    </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ56" s="7"/>
+    </row>
+    <row r="57" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4688,8 +4799,9 @@
       <c r="BW57" s="7"/>
       <c r="BX57" s="7"/>
       <c r="BY57" s="7"/>
-    </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ57" s="7"/>
+    </row>
+    <row r="58" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4767,8 +4879,9 @@
       <c r="BW58" s="7"/>
       <c r="BX58" s="7"/>
       <c r="BY58" s="7"/>
-    </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ58" s="7"/>
+    </row>
+    <row r="59" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4846,8 +4959,9 @@
       <c r="BW59" s="7"/>
       <c r="BX59" s="7"/>
       <c r="BY59" s="7"/>
-    </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ59" s="7"/>
+    </row>
+    <row r="60" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4925,8 +5039,9 @@
       <c r="BW60" s="7"/>
       <c r="BX60" s="7"/>
       <c r="BY60" s="7"/>
-    </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ60" s="7"/>
+    </row>
+    <row r="61" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5004,8 +5119,9 @@
       <c r="BW61" s="7"/>
       <c r="BX61" s="7"/>
       <c r="BY61" s="7"/>
-    </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ61" s="7"/>
+    </row>
+    <row r="62" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5083,8 +5199,9 @@
       <c r="BW62" s="7"/>
       <c r="BX62" s="7"/>
       <c r="BY62" s="7"/>
-    </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ62" s="7"/>
+    </row>
+    <row r="63" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5162,8 +5279,9 @@
       <c r="BW63" s="7"/>
       <c r="BX63" s="7"/>
       <c r="BY63" s="7"/>
-    </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ63" s="7"/>
+    </row>
+    <row r="64" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5241,8 +5359,9 @@
       <c r="BW64" s="7"/>
       <c r="BX64" s="7"/>
       <c r="BY64" s="7"/>
-    </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ64" s="7"/>
+    </row>
+    <row r="65" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5320,8 +5439,9 @@
       <c r="BW65" s="7"/>
       <c r="BX65" s="7"/>
       <c r="BY65" s="7"/>
-    </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ65" s="7"/>
+    </row>
+    <row r="66" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -5399,8 +5519,9 @@
       <c r="BW66" s="7"/>
       <c r="BX66" s="7"/>
       <c r="BY66" s="7"/>
-    </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ66" s="7"/>
+    </row>
+    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5478,8 +5599,9 @@
       <c r="BW67" s="7"/>
       <c r="BX67" s="7"/>
       <c r="BY67" s="7"/>
-    </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ67" s="7"/>
+    </row>
+    <row r="68" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5557,8 +5679,9 @@
       <c r="BW68" s="7"/>
       <c r="BX68" s="7"/>
       <c r="BY68" s="7"/>
-    </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ68" s="7"/>
+    </row>
+    <row r="69" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5636,8 +5759,9 @@
       <c r="BW69" s="7"/>
       <c r="BX69" s="7"/>
       <c r="BY69" s="7"/>
-    </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ69" s="7"/>
+    </row>
+    <row r="70" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5715,8 +5839,9 @@
       <c r="BW70" s="7"/>
       <c r="BX70" s="7"/>
       <c r="BY70" s="7"/>
-    </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ70" s="7"/>
+    </row>
+    <row r="71" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5794,8 +5919,9 @@
       <c r="BW71" s="7"/>
       <c r="BX71" s="7"/>
       <c r="BY71" s="7"/>
-    </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ71" s="7"/>
+    </row>
+    <row r="72" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5873,8 +5999,9 @@
       <c r="BW72" s="7"/>
       <c r="BX72" s="7"/>
       <c r="BY72" s="7"/>
-    </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ72" s="7"/>
+    </row>
+    <row r="73" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5952,8 +6079,9 @@
       <c r="BW73" s="7"/>
       <c r="BX73" s="7"/>
       <c r="BY73" s="7"/>
-    </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ73" s="7"/>
+    </row>
+    <row r="74" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6031,8 +6159,9 @@
       <c r="BW74" s="7"/>
       <c r="BX74" s="7"/>
       <c r="BY74" s="7"/>
-    </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ74" s="7"/>
+    </row>
+    <row r="75" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6110,8 +6239,9 @@
       <c r="BW75" s="7"/>
       <c r="BX75" s="7"/>
       <c r="BY75" s="7"/>
-    </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ75" s="7"/>
+    </row>
+    <row r="76" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6189,8 +6319,9 @@
       <c r="BW76" s="7"/>
       <c r="BX76" s="7"/>
       <c r="BY76" s="7"/>
-    </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ76" s="7"/>
+    </row>
+    <row r="77" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6268,8 +6399,9 @@
       <c r="BW77" s="7"/>
       <c r="BX77" s="7"/>
       <c r="BY77" s="7"/>
-    </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ77" s="7"/>
+    </row>
+    <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6347,8 +6479,9 @@
       <c r="BW78" s="7"/>
       <c r="BX78" s="7"/>
       <c r="BY78" s="7"/>
-    </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ78" s="7"/>
+    </row>
+    <row r="79" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6426,8 +6559,9 @@
       <c r="BW79" s="7"/>
       <c r="BX79" s="7"/>
       <c r="BY79" s="7"/>
-    </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ79" s="7"/>
+    </row>
+    <row r="80" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6505,8 +6639,9 @@
       <c r="BW80" s="7"/>
       <c r="BX80" s="7"/>
       <c r="BY80" s="7"/>
-    </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ80" s="7"/>
+    </row>
+    <row r="81" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6584,8 +6719,9 @@
       <c r="BW81" s="7"/>
       <c r="BX81" s="7"/>
       <c r="BY81" s="7"/>
-    </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ81" s="7"/>
+    </row>
+    <row r="82" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6663,8 +6799,9 @@
       <c r="BW82" s="7"/>
       <c r="BX82" s="7"/>
       <c r="BY82" s="7"/>
-    </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ82" s="7"/>
+    </row>
+    <row r="83" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6742,8 +6879,9 @@
       <c r="BW83" s="7"/>
       <c r="BX83" s="7"/>
       <c r="BY83" s="7"/>
-    </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ83" s="7"/>
+    </row>
+    <row r="84" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6821,8 +6959,9 @@
       <c r="BW84" s="7"/>
       <c r="BX84" s="7"/>
       <c r="BY84" s="7"/>
-    </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ84" s="7"/>
+    </row>
+    <row r="85" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6900,8 +7039,9 @@
       <c r="BW85" s="7"/>
       <c r="BX85" s="7"/>
       <c r="BY85" s="7"/>
-    </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ85" s="7"/>
+    </row>
+    <row r="86" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -6979,8 +7119,9 @@
       <c r="BW86" s="7"/>
       <c r="BX86" s="7"/>
       <c r="BY86" s="7"/>
-    </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ86" s="7"/>
+    </row>
+    <row r="87" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7058,8 +7199,9 @@
       <c r="BW87" s="7"/>
       <c r="BX87" s="7"/>
       <c r="BY87" s="7"/>
-    </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ87" s="7"/>
+    </row>
+    <row r="88" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7137,8 +7279,9 @@
       <c r="BW88" s="7"/>
       <c r="BX88" s="7"/>
       <c r="BY88" s="7"/>
-    </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ88" s="7"/>
+    </row>
+    <row r="89" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7216,8 +7359,9 @@
       <c r="BW89" s="7"/>
       <c r="BX89" s="7"/>
       <c r="BY89" s="7"/>
-    </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ89" s="7"/>
+    </row>
+    <row r="90" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7295,8 +7439,9 @@
       <c r="BW90" s="7"/>
       <c r="BX90" s="7"/>
       <c r="BY90" s="7"/>
-    </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ90" s="7"/>
+    </row>
+    <row r="91" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7374,8 +7519,9 @@
       <c r="BW91" s="7"/>
       <c r="BX91" s="7"/>
       <c r="BY91" s="7"/>
-    </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ91" s="7"/>
+    </row>
+    <row r="92" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7453,8 +7599,9 @@
       <c r="BW92" s="7"/>
       <c r="BX92" s="7"/>
       <c r="BY92" s="7"/>
-    </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ92" s="7"/>
+    </row>
+    <row r="93" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7532,8 +7679,9 @@
       <c r="BW93" s="7"/>
       <c r="BX93" s="7"/>
       <c r="BY93" s="7"/>
-    </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ93" s="7"/>
+    </row>
+    <row r="94" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7611,8 +7759,9 @@
       <c r="BW94" s="7"/>
       <c r="BX94" s="7"/>
       <c r="BY94" s="7"/>
-    </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ94" s="7"/>
+    </row>
+    <row r="95" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7690,8 +7839,9 @@
       <c r="BW95" s="7"/>
       <c r="BX95" s="7"/>
       <c r="BY95" s="7"/>
-    </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ95" s="7"/>
+    </row>
+    <row r="96" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7769,8 +7919,9 @@
       <c r="BW96" s="7"/>
       <c r="BX96" s="7"/>
       <c r="BY96" s="7"/>
-    </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ96" s="7"/>
+    </row>
+    <row r="97" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -7848,8 +7999,9 @@
       <c r="BW97" s="7"/>
       <c r="BX97" s="7"/>
       <c r="BY97" s="7"/>
-    </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ97" s="7"/>
+    </row>
+    <row r="98" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -7927,8 +8079,9 @@
       <c r="BW98" s="7"/>
       <c r="BX98" s="7"/>
       <c r="BY98" s="7"/>
-    </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ98" s="7"/>
+    </row>
+    <row r="99" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -8006,8 +8159,9 @@
       <c r="BW99" s="7"/>
       <c r="BX99" s="7"/>
       <c r="BY99" s="7"/>
-    </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ99" s="7"/>
+    </row>
+    <row r="100" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -8085,8 +8239,9 @@
       <c r="BW100" s="7"/>
       <c r="BX100" s="7"/>
       <c r="BY100" s="7"/>
-    </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ100" s="7"/>
+    </row>
+    <row r="101" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -8164,8 +8319,9 @@
       <c r="BW101" s="7"/>
       <c r="BX101" s="7"/>
       <c r="BY101" s="7"/>
-    </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ101" s="7"/>
+    </row>
+    <row r="102" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -8243,8 +8399,9 @@
       <c r="BW102" s="7"/>
       <c r="BX102" s="7"/>
       <c r="BY102" s="7"/>
-    </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ102" s="7"/>
+    </row>
+    <row r="103" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -8322,8 +8479,9 @@
       <c r="BW103" s="7"/>
       <c r="BX103" s="7"/>
       <c r="BY103" s="7"/>
-    </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ103" s="7"/>
+    </row>
+    <row r="104" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -8401,8 +8559,9 @@
       <c r="BW104" s="7"/>
       <c r="BX104" s="7"/>
       <c r="BY104" s="7"/>
-    </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ104" s="7"/>
+    </row>
+    <row r="105" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -8480,8 +8639,9 @@
       <c r="BW105" s="7"/>
       <c r="BX105" s="7"/>
       <c r="BY105" s="7"/>
-    </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ105" s="7"/>
+    </row>
+    <row r="106" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -8559,8 +8719,9 @@
       <c r="BW106" s="7"/>
       <c r="BX106" s="7"/>
       <c r="BY106" s="7"/>
-    </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ106" s="7"/>
+    </row>
+    <row r="107" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8638,8 +8799,9 @@
       <c r="BW107" s="7"/>
       <c r="BX107" s="7"/>
       <c r="BY107" s="7"/>
-    </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ107" s="7"/>
+    </row>
+    <row r="108" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -8717,8 +8879,9 @@
       <c r="BW108" s="7"/>
       <c r="BX108" s="7"/>
       <c r="BY108" s="7"/>
-    </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ108" s="7"/>
+    </row>
+    <row r="109" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -8796,8 +8959,9 @@
       <c r="BW109" s="7"/>
       <c r="BX109" s="7"/>
       <c r="BY109" s="7"/>
-    </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ109" s="7"/>
+    </row>
+    <row r="110" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -8875,8 +9039,9 @@
       <c r="BW110" s="7"/>
       <c r="BX110" s="7"/>
       <c r="BY110" s="7"/>
-    </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ110" s="7"/>
+    </row>
+    <row r="111" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -8954,8 +9119,9 @@
       <c r="BW111" s="7"/>
       <c r="BX111" s="7"/>
       <c r="BY111" s="7"/>
-    </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ111" s="7"/>
+    </row>
+    <row r="112" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -9033,8 +9199,9 @@
       <c r="BW112" s="7"/>
       <c r="BX112" s="7"/>
       <c r="BY112" s="7"/>
-    </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ112" s="7"/>
+    </row>
+    <row r="113" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -9112,8 +9279,9 @@
       <c r="BW113" s="7"/>
       <c r="BX113" s="7"/>
       <c r="BY113" s="7"/>
-    </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ113" s="7"/>
+    </row>
+    <row r="114" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -9191,8 +9359,9 @@
       <c r="BW114" s="7"/>
       <c r="BX114" s="7"/>
       <c r="BY114" s="7"/>
-    </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ114" s="7"/>
+    </row>
+    <row r="115" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -9270,8 +9439,9 @@
       <c r="BW115" s="7"/>
       <c r="BX115" s="7"/>
       <c r="BY115" s="7"/>
-    </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ115" s="7"/>
+    </row>
+    <row r="116" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -9349,8 +9519,9 @@
       <c r="BW116" s="7"/>
       <c r="BX116" s="7"/>
       <c r="BY116" s="7"/>
-    </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ116" s="7"/>
+    </row>
+    <row r="117" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -9428,8 +9599,9 @@
       <c r="BW117" s="7"/>
       <c r="BX117" s="7"/>
       <c r="BY117" s="7"/>
-    </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ117" s="7"/>
+    </row>
+    <row r="118" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -9507,8 +9679,9 @@
       <c r="BW118" s="7"/>
       <c r="BX118" s="7"/>
       <c r="BY118" s="7"/>
-    </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ118" s="7"/>
+    </row>
+    <row r="119" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -9586,8 +9759,9 @@
       <c r="BW119" s="7"/>
       <c r="BX119" s="7"/>
       <c r="BY119" s="7"/>
-    </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ119" s="7"/>
+    </row>
+    <row r="120" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -9665,8 +9839,9 @@
       <c r="BW120" s="7"/>
       <c r="BX120" s="7"/>
       <c r="BY120" s="7"/>
-    </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ120" s="7"/>
+    </row>
+    <row r="121" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -9744,8 +9919,9 @@
       <c r="BW121" s="7"/>
       <c r="BX121" s="7"/>
       <c r="BY121" s="7"/>
-    </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ121" s="7"/>
+    </row>
+    <row r="122" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -9823,8 +9999,9 @@
       <c r="BW122" s="7"/>
       <c r="BX122" s="7"/>
       <c r="BY122" s="7"/>
-    </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ122" s="7"/>
+    </row>
+    <row r="123" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -9902,8 +10079,9 @@
       <c r="BW123" s="7"/>
       <c r="BX123" s="7"/>
       <c r="BY123" s="7"/>
-    </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ123" s="7"/>
+    </row>
+    <row r="124" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -9981,8 +10159,9 @@
       <c r="BW124" s="7"/>
       <c r="BX124" s="7"/>
       <c r="BY124" s="7"/>
-    </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ124" s="7"/>
+    </row>
+    <row r="125" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -10060,8 +10239,9 @@
       <c r="BW125" s="7"/>
       <c r="BX125" s="7"/>
       <c r="BY125" s="7"/>
-    </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ125" s="7"/>
+    </row>
+    <row r="126" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -10139,8 +10319,9 @@
       <c r="BW126" s="7"/>
       <c r="BX126" s="7"/>
       <c r="BY126" s="7"/>
-    </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ126" s="7"/>
+    </row>
+    <row r="127" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -10218,8 +10399,9 @@
       <c r="BW127" s="7"/>
       <c r="BX127" s="7"/>
       <c r="BY127" s="7"/>
-    </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ127" s="7"/>
+    </row>
+    <row r="128" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -10297,8 +10479,9 @@
       <c r="BW128" s="7"/>
       <c r="BX128" s="7"/>
       <c r="BY128" s="7"/>
-    </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ128" s="7"/>
+    </row>
+    <row r="129" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -10376,8 +10559,9 @@
       <c r="BW129" s="7"/>
       <c r="BX129" s="7"/>
       <c r="BY129" s="7"/>
-    </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ129" s="7"/>
+    </row>
+    <row r="130" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -10455,8 +10639,9 @@
       <c r="BW130" s="7"/>
       <c r="BX130" s="7"/>
       <c r="BY130" s="7"/>
-    </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ130" s="7"/>
+    </row>
+    <row r="131" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -10534,8 +10719,9 @@
       <c r="BW131" s="7"/>
       <c r="BX131" s="7"/>
       <c r="BY131" s="7"/>
-    </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ131" s="7"/>
+    </row>
+    <row r="132" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -10613,8 +10799,9 @@
       <c r="BW132" s="7"/>
       <c r="BX132" s="7"/>
       <c r="BY132" s="7"/>
-    </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ132" s="7"/>
+    </row>
+    <row r="133" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -10692,8 +10879,9 @@
       <c r="BW133" s="7"/>
       <c r="BX133" s="7"/>
       <c r="BY133" s="7"/>
-    </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ133" s="7"/>
+    </row>
+    <row r="134" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -10771,8 +10959,9 @@
       <c r="BW134" s="7"/>
       <c r="BX134" s="7"/>
       <c r="BY134" s="7"/>
-    </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ134" s="7"/>
+    </row>
+    <row r="135" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -10850,8 +11039,9 @@
       <c r="BW135" s="7"/>
       <c r="BX135" s="7"/>
       <c r="BY135" s="7"/>
-    </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ135" s="7"/>
+    </row>
+    <row r="136" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -10929,8 +11119,9 @@
       <c r="BW136" s="7"/>
       <c r="BX136" s="7"/>
       <c r="BY136" s="7"/>
-    </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ136" s="7"/>
+    </row>
+    <row r="137" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -11008,8 +11199,9 @@
       <c r="BW137" s="7"/>
       <c r="BX137" s="7"/>
       <c r="BY137" s="7"/>
-    </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ137" s="7"/>
+    </row>
+    <row r="138" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -11087,8 +11279,9 @@
       <c r="BW138" s="7"/>
       <c r="BX138" s="7"/>
       <c r="BY138" s="7"/>
-    </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ138" s="7"/>
+    </row>
+    <row r="139" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -11166,8 +11359,9 @@
       <c r="BW139" s="7"/>
       <c r="BX139" s="7"/>
       <c r="BY139" s="7"/>
-    </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ139" s="7"/>
+    </row>
+    <row r="140" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -11245,8 +11439,9 @@
       <c r="BW140" s="7"/>
       <c r="BX140" s="7"/>
       <c r="BY140" s="7"/>
-    </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ140" s="7"/>
+    </row>
+    <row r="141" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -11324,8 +11519,9 @@
       <c r="BW141" s="7"/>
       <c r="BX141" s="7"/>
       <c r="BY141" s="7"/>
-    </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ141" s="7"/>
+    </row>
+    <row r="142" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -11403,8 +11599,9 @@
       <c r="BW142" s="7"/>
       <c r="BX142" s="7"/>
       <c r="BY142" s="7"/>
-    </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ142" s="7"/>
+    </row>
+    <row r="143" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -11482,8 +11679,9 @@
       <c r="BW143" s="7"/>
       <c r="BX143" s="7"/>
       <c r="BY143" s="7"/>
-    </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ143" s="7"/>
+    </row>
+    <row r="144" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -11561,8 +11759,9 @@
       <c r="BW144" s="7"/>
       <c r="BX144" s="7"/>
       <c r="BY144" s="7"/>
-    </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ144" s="7"/>
+    </row>
+    <row r="145" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -11640,8 +11839,9 @@
       <c r="BW145" s="7"/>
       <c r="BX145" s="7"/>
       <c r="BY145" s="7"/>
-    </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ145" s="7"/>
+    </row>
+    <row r="146" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -11719,8 +11919,9 @@
       <c r="BW146" s="7"/>
       <c r="BX146" s="7"/>
       <c r="BY146" s="7"/>
-    </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ146" s="7"/>
+    </row>
+    <row r="147" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -11798,8 +11999,9 @@
       <c r="BW147" s="7"/>
       <c r="BX147" s="7"/>
       <c r="BY147" s="7"/>
-    </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ147" s="7"/>
+    </row>
+    <row r="148" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -11877,8 +12079,9 @@
       <c r="BW148" s="7"/>
       <c r="BX148" s="7"/>
       <c r="BY148" s="7"/>
-    </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ148" s="7"/>
+    </row>
+    <row r="149" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -11956,8 +12159,9 @@
       <c r="BW149" s="7"/>
       <c r="BX149" s="7"/>
       <c r="BY149" s="7"/>
-    </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ149" s="7"/>
+    </row>
+    <row r="150" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -12035,8 +12239,9 @@
       <c r="BW150" s="7"/>
       <c r="BX150" s="7"/>
       <c r="BY150" s="7"/>
-    </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ150" s="7"/>
+    </row>
+    <row r="151" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -12114,8 +12319,9 @@
       <c r="BW151" s="7"/>
       <c r="BX151" s="7"/>
       <c r="BY151" s="7"/>
-    </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ151" s="7"/>
+    </row>
+    <row r="152" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -12193,8 +12399,9 @@
       <c r="BW152" s="7"/>
       <c r="BX152" s="7"/>
       <c r="BY152" s="7"/>
-    </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ152" s="7"/>
+    </row>
+    <row r="153" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -12272,8 +12479,9 @@
       <c r="BW153" s="7"/>
       <c r="BX153" s="7"/>
       <c r="BY153" s="7"/>
-    </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ153" s="7"/>
+    </row>
+    <row r="154" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -12351,8 +12559,9 @@
       <c r="BW154" s="7"/>
       <c r="BX154" s="7"/>
       <c r="BY154" s="7"/>
-    </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ154" s="7"/>
+    </row>
+    <row r="155" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -12430,8 +12639,9 @@
       <c r="BW155" s="7"/>
       <c r="BX155" s="7"/>
       <c r="BY155" s="7"/>
-    </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ155" s="7"/>
+    </row>
+    <row r="156" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -12509,8 +12719,9 @@
       <c r="BW156" s="7"/>
       <c r="BX156" s="7"/>
       <c r="BY156" s="7"/>
-    </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ156" s="7"/>
+    </row>
+    <row r="157" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -12588,8 +12799,9 @@
       <c r="BW157" s="7"/>
       <c r="BX157" s="7"/>
       <c r="BY157" s="7"/>
-    </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ157" s="7"/>
+    </row>
+    <row r="158" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -12667,8 +12879,9 @@
       <c r="BW158" s="7"/>
       <c r="BX158" s="7"/>
       <c r="BY158" s="7"/>
-    </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ158" s="7"/>
+    </row>
+    <row r="159" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -12746,8 +12959,9 @@
       <c r="BW159" s="7"/>
       <c r="BX159" s="7"/>
       <c r="BY159" s="7"/>
-    </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ159" s="7"/>
+    </row>
+    <row r="160" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -12825,8 +13039,9 @@
       <c r="BW160" s="7"/>
       <c r="BX160" s="7"/>
       <c r="BY160" s="7"/>
-    </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ160" s="7"/>
+    </row>
+    <row r="161" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -12904,8 +13119,9 @@
       <c r="BW161" s="7"/>
       <c r="BX161" s="7"/>
       <c r="BY161" s="7"/>
-    </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ161" s="7"/>
+    </row>
+    <row r="162" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -12983,8 +13199,9 @@
       <c r="BW162" s="7"/>
       <c r="BX162" s="7"/>
       <c r="BY162" s="7"/>
-    </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ162" s="7"/>
+    </row>
+    <row r="163" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -13062,8 +13279,9 @@
       <c r="BW163" s="7"/>
       <c r="BX163" s="7"/>
       <c r="BY163" s="7"/>
-    </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ163" s="7"/>
+    </row>
+    <row r="164" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -13141,8 +13359,9 @@
       <c r="BW164" s="7"/>
       <c r="BX164" s="7"/>
       <c r="BY164" s="7"/>
-    </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ164" s="7"/>
+    </row>
+    <row r="165" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -13220,8 +13439,9 @@
       <c r="BW165" s="7"/>
       <c r="BX165" s="7"/>
       <c r="BY165" s="7"/>
-    </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ165" s="7"/>
+    </row>
+    <row r="166" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -13299,8 +13519,9 @@
       <c r="BW166" s="7"/>
       <c r="BX166" s="7"/>
       <c r="BY166" s="7"/>
-    </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ166" s="7"/>
+    </row>
+    <row r="167" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -13378,8 +13599,9 @@
       <c r="BW167" s="7"/>
       <c r="BX167" s="7"/>
       <c r="BY167" s="7"/>
-    </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ167" s="7"/>
+    </row>
+    <row r="168" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -13457,8 +13679,9 @@
       <c r="BW168" s="7"/>
       <c r="BX168" s="7"/>
       <c r="BY168" s="7"/>
-    </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ168" s="7"/>
+    </row>
+    <row r="169" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -13536,8 +13759,9 @@
       <c r="BW169" s="7"/>
       <c r="BX169" s="7"/>
       <c r="BY169" s="7"/>
-    </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ169" s="7"/>
+    </row>
+    <row r="170" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -13615,8 +13839,9 @@
       <c r="BW170" s="7"/>
       <c r="BX170" s="7"/>
       <c r="BY170" s="7"/>
-    </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ170" s="7"/>
+    </row>
+    <row r="171" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -13694,8 +13919,9 @@
       <c r="BW171" s="7"/>
       <c r="BX171" s="7"/>
       <c r="BY171" s="7"/>
-    </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ171" s="7"/>
+    </row>
+    <row r="172" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -13773,8 +13999,9 @@
       <c r="BW172" s="7"/>
       <c r="BX172" s="7"/>
       <c r="BY172" s="7"/>
-    </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ172" s="7"/>
+    </row>
+    <row r="173" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -13852,8 +14079,9 @@
       <c r="BW173" s="7"/>
       <c r="BX173" s="7"/>
       <c r="BY173" s="7"/>
-    </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ173" s="7"/>
+    </row>
+    <row r="174" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -13931,8 +14159,9 @@
       <c r="BW174" s="7"/>
       <c r="BX174" s="7"/>
       <c r="BY174" s="7"/>
-    </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ174" s="7"/>
+    </row>
+    <row r="175" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -14010,8 +14239,9 @@
       <c r="BW175" s="7"/>
       <c r="BX175" s="7"/>
       <c r="BY175" s="7"/>
-    </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ175" s="7"/>
+    </row>
+    <row r="176" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -14089,8 +14319,9 @@
       <c r="BW176" s="7"/>
       <c r="BX176" s="7"/>
       <c r="BY176" s="7"/>
-    </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ176" s="7"/>
+    </row>
+    <row r="177" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -14168,8 +14399,9 @@
       <c r="BW177" s="7"/>
       <c r="BX177" s="7"/>
       <c r="BY177" s="7"/>
-    </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ177" s="7"/>
+    </row>
+    <row r="178" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -14247,8 +14479,9 @@
       <c r="BW178" s="7"/>
       <c r="BX178" s="7"/>
       <c r="BY178" s="7"/>
-    </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ178" s="7"/>
+    </row>
+    <row r="179" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -14326,8 +14559,9 @@
       <c r="BW179" s="7"/>
       <c r="BX179" s="7"/>
       <c r="BY179" s="7"/>
-    </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ179" s="7"/>
+    </row>
+    <row r="180" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -14405,8 +14639,9 @@
       <c r="BW180" s="7"/>
       <c r="BX180" s="7"/>
       <c r="BY180" s="7"/>
-    </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ180" s="7"/>
+    </row>
+    <row r="181" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -14484,8 +14719,9 @@
       <c r="BW181" s="7"/>
       <c r="BX181" s="7"/>
       <c r="BY181" s="7"/>
-    </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ181" s="7"/>
+    </row>
+    <row r="182" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -14563,8 +14799,9 @@
       <c r="BW182" s="7"/>
       <c r="BX182" s="7"/>
       <c r="BY182" s="7"/>
-    </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ182" s="7"/>
+    </row>
+    <row r="183" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -14642,8 +14879,9 @@
       <c r="BW183" s="7"/>
       <c r="BX183" s="7"/>
       <c r="BY183" s="7"/>
-    </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ183" s="7"/>
+    </row>
+    <row r="184" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -14721,8 +14959,9 @@
       <c r="BW184" s="7"/>
       <c r="BX184" s="7"/>
       <c r="BY184" s="7"/>
-    </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ184" s="7"/>
+    </row>
+    <row r="185" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -14800,8 +15039,9 @@
       <c r="BW185" s="7"/>
       <c r="BX185" s="7"/>
       <c r="BY185" s="7"/>
-    </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ185" s="7"/>
+    </row>
+    <row r="186" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -14879,8 +15119,9 @@
       <c r="BW186" s="7"/>
       <c r="BX186" s="7"/>
       <c r="BY186" s="7"/>
-    </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ186" s="7"/>
+    </row>
+    <row r="187" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -14958,8 +15199,9 @@
       <c r="BW187" s="7"/>
       <c r="BX187" s="7"/>
       <c r="BY187" s="7"/>
-    </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ187" s="7"/>
+    </row>
+    <row r="188" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -15037,8 +15279,9 @@
       <c r="BW188" s="7"/>
       <c r="BX188" s="7"/>
       <c r="BY188" s="7"/>
-    </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ188" s="7"/>
+    </row>
+    <row r="189" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -15116,8 +15359,9 @@
       <c r="BW189" s="7"/>
       <c r="BX189" s="7"/>
       <c r="BY189" s="7"/>
-    </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ189" s="7"/>
+    </row>
+    <row r="190" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -15195,8 +15439,9 @@
       <c r="BW190" s="7"/>
       <c r="BX190" s="7"/>
       <c r="BY190" s="7"/>
-    </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ190" s="7"/>
+    </row>
+    <row r="191" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -15274,8 +15519,9 @@
       <c r="BW191" s="7"/>
       <c r="BX191" s="7"/>
       <c r="BY191" s="7"/>
-    </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ191" s="7"/>
+    </row>
+    <row r="192" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -15353,8 +15599,9 @@
       <c r="BW192" s="7"/>
       <c r="BX192" s="7"/>
       <c r="BY192" s="7"/>
-    </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ192" s="7"/>
+    </row>
+    <row r="193" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -15432,8 +15679,9 @@
       <c r="BW193" s="7"/>
       <c r="BX193" s="7"/>
       <c r="BY193" s="7"/>
-    </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ193" s="7"/>
+    </row>
+    <row r="194" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -15511,8 +15759,9 @@
       <c r="BW194" s="7"/>
       <c r="BX194" s="7"/>
       <c r="BY194" s="7"/>
-    </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ194" s="7"/>
+    </row>
+    <row r="195" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -15590,8 +15839,9 @@
       <c r="BW195" s="7"/>
       <c r="BX195" s="7"/>
       <c r="BY195" s="7"/>
-    </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ195" s="7"/>
+    </row>
+    <row r="196" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -15669,8 +15919,9 @@
       <c r="BW196" s="7"/>
       <c r="BX196" s="7"/>
       <c r="BY196" s="7"/>
-    </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ196" s="7"/>
+    </row>
+    <row r="197" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -15748,8 +15999,9 @@
       <c r="BW197" s="7"/>
       <c r="BX197" s="7"/>
       <c r="BY197" s="7"/>
-    </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ197" s="7"/>
+    </row>
+    <row r="198" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -15827,8 +16079,9 @@
       <c r="BW198" s="7"/>
       <c r="BX198" s="7"/>
       <c r="BY198" s="7"/>
-    </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ198" s="7"/>
+    </row>
+    <row r="199" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -15906,8 +16159,9 @@
       <c r="BW199" s="7"/>
       <c r="BX199" s="7"/>
       <c r="BY199" s="7"/>
-    </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ199" s="7"/>
+    </row>
+    <row r="200" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -15985,8 +16239,9 @@
       <c r="BW200" s="7"/>
       <c r="BX200" s="7"/>
       <c r="BY200" s="7"/>
-    </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ200" s="7"/>
+    </row>
+    <row r="201" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -16064,8 +16319,9 @@
       <c r="BW201" s="7"/>
       <c r="BX201" s="7"/>
       <c r="BY201" s="7"/>
-    </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ201" s="7"/>
+    </row>
+    <row r="202" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -16143,8 +16399,9 @@
       <c r="BW202" s="7"/>
       <c r="BX202" s="7"/>
       <c r="BY202" s="7"/>
-    </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ202" s="7"/>
+    </row>
+    <row r="203" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -16222,8 +16479,9 @@
       <c r="BW203" s="7"/>
       <c r="BX203" s="7"/>
       <c r="BY203" s="7"/>
-    </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ203" s="7"/>
+    </row>
+    <row r="204" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -16301,8 +16559,9 @@
       <c r="BW204" s="7"/>
       <c r="BX204" s="7"/>
       <c r="BY204" s="7"/>
-    </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ204" s="7"/>
+    </row>
+    <row r="205" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -16380,8 +16639,9 @@
       <c r="BW205" s="7"/>
       <c r="BX205" s="7"/>
       <c r="BY205" s="7"/>
-    </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ205" s="7"/>
+    </row>
+    <row r="206" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -16459,8 +16719,9 @@
       <c r="BW206" s="7"/>
       <c r="BX206" s="7"/>
       <c r="BY206" s="7"/>
-    </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ206" s="7"/>
+    </row>
+    <row r="207" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -16538,8 +16799,9 @@
       <c r="BW207" s="7"/>
       <c r="BX207" s="7"/>
       <c r="BY207" s="7"/>
-    </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ207" s="7"/>
+    </row>
+    <row r="208" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -16617,8 +16879,9 @@
       <c r="BW208" s="7"/>
       <c r="BX208" s="7"/>
       <c r="BY208" s="7"/>
-    </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ208" s="7"/>
+    </row>
+    <row r="209" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -16696,8 +16959,9 @@
       <c r="BW209" s="7"/>
       <c r="BX209" s="7"/>
       <c r="BY209" s="7"/>
-    </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ209" s="7"/>
+    </row>
+    <row r="210" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -16775,8 +17039,9 @@
       <c r="BW210" s="7"/>
       <c r="BX210" s="7"/>
       <c r="BY210" s="7"/>
-    </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ210" s="7"/>
+    </row>
+    <row r="211" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -16854,8 +17119,9 @@
       <c r="BW211" s="7"/>
       <c r="BX211" s="7"/>
       <c r="BY211" s="7"/>
-    </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ211" s="7"/>
+    </row>
+    <row r="212" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -16933,8 +17199,9 @@
       <c r="BW212" s="7"/>
       <c r="BX212" s="7"/>
       <c r="BY212" s="7"/>
-    </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ212" s="7"/>
+    </row>
+    <row r="213" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -17012,8 +17279,9 @@
       <c r="BW213" s="7"/>
       <c r="BX213" s="7"/>
       <c r="BY213" s="7"/>
-    </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ213" s="7"/>
+    </row>
+    <row r="214" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -17091,8 +17359,9 @@
       <c r="BW214" s="7"/>
       <c r="BX214" s="7"/>
       <c r="BY214" s="7"/>
-    </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ214" s="7"/>
+    </row>
+    <row r="215" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -17170,8 +17439,9 @@
       <c r="BW215" s="7"/>
       <c r="BX215" s="7"/>
       <c r="BY215" s="7"/>
-    </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ215" s="7"/>
+    </row>
+    <row r="216" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -17249,8 +17519,9 @@
       <c r="BW216" s="7"/>
       <c r="BX216" s="7"/>
       <c r="BY216" s="7"/>
-    </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ216" s="7"/>
+    </row>
+    <row r="217" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -17328,8 +17599,9 @@
       <c r="BW217" s="7"/>
       <c r="BX217" s="7"/>
       <c r="BY217" s="7"/>
-    </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ217" s="7"/>
+    </row>
+    <row r="218" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -17407,8 +17679,9 @@
       <c r="BW218" s="7"/>
       <c r="BX218" s="7"/>
       <c r="BY218" s="7"/>
-    </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ218" s="7"/>
+    </row>
+    <row r="219" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -17486,8 +17759,9 @@
       <c r="BW219" s="7"/>
       <c r="BX219" s="7"/>
       <c r="BY219" s="7"/>
-    </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ219" s="7"/>
+    </row>
+    <row r="220" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -17565,8 +17839,9 @@
       <c r="BW220" s="7"/>
       <c r="BX220" s="7"/>
       <c r="BY220" s="7"/>
-    </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ220" s="7"/>
+    </row>
+    <row r="221" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -17644,8 +17919,9 @@
       <c r="BW221" s="7"/>
       <c r="BX221" s="7"/>
       <c r="BY221" s="7"/>
-    </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ221" s="7"/>
+    </row>
+    <row r="222" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -17723,8 +17999,9 @@
       <c r="BW222" s="7"/>
       <c r="BX222" s="7"/>
       <c r="BY222" s="7"/>
-    </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ222" s="7"/>
+    </row>
+    <row r="223" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -17802,8 +18079,9 @@
       <c r="BW223" s="7"/>
       <c r="BX223" s="7"/>
       <c r="BY223" s="7"/>
-    </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ223" s="7"/>
+    </row>
+    <row r="224" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -17881,8 +18159,9 @@
       <c r="BW224" s="7"/>
       <c r="BX224" s="7"/>
       <c r="BY224" s="7"/>
-    </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ224" s="7"/>
+    </row>
+    <row r="225" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -17960,8 +18239,9 @@
       <c r="BW225" s="7"/>
       <c r="BX225" s="7"/>
       <c r="BY225" s="7"/>
-    </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ225" s="7"/>
+    </row>
+    <row r="226" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -18039,8 +18319,9 @@
       <c r="BW226" s="7"/>
       <c r="BX226" s="7"/>
       <c r="BY226" s="7"/>
-    </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ226" s="7"/>
+    </row>
+    <row r="227" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -18118,8 +18399,9 @@
       <c r="BW227" s="7"/>
       <c r="BX227" s="7"/>
       <c r="BY227" s="7"/>
-    </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ227" s="7"/>
+    </row>
+    <row r="228" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -18197,8 +18479,9 @@
       <c r="BW228" s="7"/>
       <c r="BX228" s="7"/>
       <c r="BY228" s="7"/>
-    </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ228" s="7"/>
+    </row>
+    <row r="229" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -18276,8 +18559,9 @@
       <c r="BW229" s="7"/>
       <c r="BX229" s="7"/>
       <c r="BY229" s="7"/>
-    </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ229" s="7"/>
+    </row>
+    <row r="230" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -18355,8 +18639,9 @@
       <c r="BW230" s="7"/>
       <c r="BX230" s="7"/>
       <c r="BY230" s="7"/>
-    </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ230" s="7"/>
+    </row>
+    <row r="231" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -18434,8 +18719,9 @@
       <c r="BW231" s="7"/>
       <c r="BX231" s="7"/>
       <c r="BY231" s="7"/>
-    </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ231" s="7"/>
+    </row>
+    <row r="232" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -18513,8 +18799,9 @@
       <c r="BW232" s="7"/>
       <c r="BX232" s="7"/>
       <c r="BY232" s="7"/>
-    </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ232" s="7"/>
+    </row>
+    <row r="233" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -18592,8 +18879,9 @@
       <c r="BW233" s="7"/>
       <c r="BX233" s="7"/>
       <c r="BY233" s="7"/>
-    </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ233" s="7"/>
+    </row>
+    <row r="234" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -18671,8 +18959,9 @@
       <c r="BW234" s="7"/>
       <c r="BX234" s="7"/>
       <c r="BY234" s="7"/>
-    </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ234" s="7"/>
+    </row>
+    <row r="235" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -18750,8 +19039,9 @@
       <c r="BW235" s="7"/>
       <c r="BX235" s="7"/>
       <c r="BY235" s="7"/>
-    </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ235" s="7"/>
+    </row>
+    <row r="236" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -18829,8 +19119,9 @@
       <c r="BW236" s="7"/>
       <c r="BX236" s="7"/>
       <c r="BY236" s="7"/>
-    </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ236" s="7"/>
+    </row>
+    <row r="237" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -18908,8 +19199,9 @@
       <c r="BW237" s="7"/>
       <c r="BX237" s="7"/>
       <c r="BY237" s="7"/>
-    </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ237" s="7"/>
+    </row>
+    <row r="238" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -18987,8 +19279,9 @@
       <c r="BW238" s="7"/>
       <c r="BX238" s="7"/>
       <c r="BY238" s="7"/>
-    </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ238" s="7"/>
+    </row>
+    <row r="239" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -19066,8 +19359,9 @@
       <c r="BW239" s="7"/>
       <c r="BX239" s="7"/>
       <c r="BY239" s="7"/>
-    </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ239" s="7"/>
+    </row>
+    <row r="240" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -19145,8 +19439,9 @@
       <c r="BW240" s="7"/>
       <c r="BX240" s="7"/>
       <c r="BY240" s="7"/>
-    </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ240" s="7"/>
+    </row>
+    <row r="241" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -19224,8 +19519,9 @@
       <c r="BW241" s="7"/>
       <c r="BX241" s="7"/>
       <c r="BY241" s="7"/>
-    </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ241" s="7"/>
+    </row>
+    <row r="242" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -19303,8 +19599,9 @@
       <c r="BW242" s="7"/>
       <c r="BX242" s="7"/>
       <c r="BY242" s="7"/>
-    </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ242" s="7"/>
+    </row>
+    <row r="243" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -19382,8 +19679,9 @@
       <c r="BW243" s="7"/>
       <c r="BX243" s="7"/>
       <c r="BY243" s="7"/>
-    </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ243" s="7"/>
+    </row>
+    <row r="244" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -19461,8 +19759,9 @@
       <c r="BW244" s="7"/>
       <c r="BX244" s="7"/>
       <c r="BY244" s="7"/>
-    </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ244" s="7"/>
+    </row>
+    <row r="245" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -19540,8 +19839,9 @@
       <c r="BW245" s="7"/>
       <c r="BX245" s="7"/>
       <c r="BY245" s="7"/>
-    </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ245" s="7"/>
+    </row>
+    <row r="246" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -19619,8 +19919,9 @@
       <c r="BW246" s="7"/>
       <c r="BX246" s="7"/>
       <c r="BY246" s="7"/>
-    </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ246" s="7"/>
+    </row>
+    <row r="247" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -19698,8 +19999,9 @@
       <c r="BW247" s="7"/>
       <c r="BX247" s="7"/>
       <c r="BY247" s="7"/>
-    </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ247" s="7"/>
+    </row>
+    <row r="248" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -19777,8 +20079,9 @@
       <c r="BW248" s="7"/>
       <c r="BX248" s="7"/>
       <c r="BY248" s="7"/>
-    </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ248" s="7"/>
+    </row>
+    <row r="249" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -19856,8 +20159,9 @@
       <c r="BW249" s="7"/>
       <c r="BX249" s="7"/>
       <c r="BY249" s="7"/>
-    </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ249" s="7"/>
+    </row>
+    <row r="250" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -19935,8 +20239,9 @@
       <c r="BW250" s="7"/>
       <c r="BX250" s="7"/>
       <c r="BY250" s="7"/>
-    </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ250" s="7"/>
+    </row>
+    <row r="251" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -20014,8 +20319,9 @@
       <c r="BW251" s="7"/>
       <c r="BX251" s="7"/>
       <c r="BY251" s="7"/>
-    </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ251" s="7"/>
+    </row>
+    <row r="252" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -20093,8 +20399,9 @@
       <c r="BW252" s="7"/>
       <c r="BX252" s="7"/>
       <c r="BY252" s="7"/>
-    </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ252" s="7"/>
+    </row>
+    <row r="253" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -20172,8 +20479,9 @@
       <c r="BW253" s="7"/>
       <c r="BX253" s="7"/>
       <c r="BY253" s="7"/>
-    </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ253" s="7"/>
+    </row>
+    <row r="254" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -20251,8 +20559,9 @@
       <c r="BW254" s="7"/>
       <c r="BX254" s="7"/>
       <c r="BY254" s="7"/>
-    </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ254" s="7"/>
+    </row>
+    <row r="255" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -20330,8 +20639,9 @@
       <c r="BW255" s="7"/>
       <c r="BX255" s="7"/>
       <c r="BY255" s="7"/>
-    </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ255" s="7"/>
+    </row>
+    <row r="256" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -20409,8 +20719,9 @@
       <c r="BW256" s="7"/>
       <c r="BX256" s="7"/>
       <c r="BY256" s="7"/>
-    </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ256" s="7"/>
+    </row>
+    <row r="257" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -20488,8 +20799,9 @@
       <c r="BW257" s="7"/>
       <c r="BX257" s="7"/>
       <c r="BY257" s="7"/>
-    </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ257" s="7"/>
+    </row>
+    <row r="258" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -20567,8 +20879,9 @@
       <c r="BW258" s="7"/>
       <c r="BX258" s="7"/>
       <c r="BY258" s="7"/>
-    </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ258" s="7"/>
+    </row>
+    <row r="259" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -20646,8 +20959,9 @@
       <c r="BW259" s="7"/>
       <c r="BX259" s="7"/>
       <c r="BY259" s="7"/>
-    </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ259" s="7"/>
+    </row>
+    <row r="260" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -20725,8 +21039,9 @@
       <c r="BW260" s="7"/>
       <c r="BX260" s="7"/>
       <c r="BY260" s="7"/>
-    </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ260" s="7"/>
+    </row>
+    <row r="261" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -20804,8 +21119,9 @@
       <c r="BW261" s="7"/>
       <c r="BX261" s="7"/>
       <c r="BY261" s="7"/>
-    </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ261" s="7"/>
+    </row>
+    <row r="262" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -20883,8 +21199,9 @@
       <c r="BW262" s="7"/>
       <c r="BX262" s="7"/>
       <c r="BY262" s="7"/>
-    </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ262" s="7"/>
+    </row>
+    <row r="263" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -20962,8 +21279,9 @@
       <c r="BW263" s="7"/>
       <c r="BX263" s="7"/>
       <c r="BY263" s="7"/>
-    </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ263" s="7"/>
+    </row>
+    <row r="264" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -21041,8 +21359,9 @@
       <c r="BW264" s="7"/>
       <c r="BX264" s="7"/>
       <c r="BY264" s="7"/>
-    </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ264" s="7"/>
+    </row>
+    <row r="265" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -21120,8 +21439,9 @@
       <c r="BW265" s="7"/>
       <c r="BX265" s="7"/>
       <c r="BY265" s="7"/>
-    </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ265" s="7"/>
+    </row>
+    <row r="266" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -21199,8 +21519,9 @@
       <c r="BW266" s="7"/>
       <c r="BX266" s="7"/>
       <c r="BY266" s="7"/>
-    </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ266" s="7"/>
+    </row>
+    <row r="267" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -21278,8 +21599,9 @@
       <c r="BW267" s="7"/>
       <c r="BX267" s="7"/>
       <c r="BY267" s="7"/>
-    </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ267" s="7"/>
+    </row>
+    <row r="268" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -21357,8 +21679,9 @@
       <c r="BW268" s="7"/>
       <c r="BX268" s="7"/>
       <c r="BY268" s="7"/>
-    </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ268" s="7"/>
+    </row>
+    <row r="269" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -21436,8 +21759,9 @@
       <c r="BW269" s="7"/>
       <c r="BX269" s="7"/>
       <c r="BY269" s="7"/>
-    </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ269" s="7"/>
+    </row>
+    <row r="270" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -21515,8 +21839,9 @@
       <c r="BW270" s="7"/>
       <c r="BX270" s="7"/>
       <c r="BY270" s="7"/>
-    </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ270" s="7"/>
+    </row>
+    <row r="271" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -21594,8 +21919,9 @@
       <c r="BW271" s="7"/>
       <c r="BX271" s="7"/>
       <c r="BY271" s="7"/>
-    </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ271" s="7"/>
+    </row>
+    <row r="272" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -21673,8 +21999,9 @@
       <c r="BW272" s="7"/>
       <c r="BX272" s="7"/>
       <c r="BY272" s="7"/>
-    </row>
-    <row r="273" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ272" s="7"/>
+    </row>
+    <row r="273" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -21752,8 +22079,9 @@
       <c r="BW273" s="7"/>
       <c r="BX273" s="7"/>
       <c r="BY273" s="7"/>
-    </row>
-    <row r="274" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ273" s="7"/>
+    </row>
+    <row r="274" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -21831,8 +22159,9 @@
       <c r="BW274" s="7"/>
       <c r="BX274" s="7"/>
       <c r="BY274" s="7"/>
-    </row>
-    <row r="275" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ274" s="7"/>
+    </row>
+    <row r="275" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -21910,8 +22239,9 @@
       <c r="BW275" s="7"/>
       <c r="BX275" s="7"/>
       <c r="BY275" s="7"/>
-    </row>
-    <row r="276" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ275" s="7"/>
+    </row>
+    <row r="276" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -21989,8 +22319,9 @@
       <c r="BW276" s="7"/>
       <c r="BX276" s="7"/>
       <c r="BY276" s="7"/>
-    </row>
-    <row r="277" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ276" s="7"/>
+    </row>
+    <row r="277" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -22068,8 +22399,9 @@
       <c r="BW277" s="7"/>
       <c r="BX277" s="7"/>
       <c r="BY277" s="7"/>
-    </row>
-    <row r="278" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ277" s="7"/>
+    </row>
+    <row r="278" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -22147,8 +22479,9 @@
       <c r="BW278" s="7"/>
       <c r="BX278" s="7"/>
       <c r="BY278" s="7"/>
-    </row>
-    <row r="279" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ278" s="7"/>
+    </row>
+    <row r="279" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -22226,8 +22559,9 @@
       <c r="BW279" s="7"/>
       <c r="BX279" s="7"/>
       <c r="BY279" s="7"/>
-    </row>
-    <row r="280" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ279" s="7"/>
+    </row>
+    <row r="280" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -22305,8 +22639,9 @@
       <c r="BW280" s="7"/>
       <c r="BX280" s="7"/>
       <c r="BY280" s="7"/>
-    </row>
-    <row r="281" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ280" s="7"/>
+    </row>
+    <row r="281" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -22384,8 +22719,9 @@
       <c r="BW281" s="7"/>
       <c r="BX281" s="7"/>
       <c r="BY281" s="7"/>
-    </row>
-    <row r="282" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ281" s="7"/>
+    </row>
+    <row r="282" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -22463,8 +22799,9 @@
       <c r="BW282" s="7"/>
       <c r="BX282" s="7"/>
       <c r="BY282" s="7"/>
-    </row>
-    <row r="283" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ282" s="7"/>
+    </row>
+    <row r="283" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -22542,8 +22879,9 @@
       <c r="BW283" s="7"/>
       <c r="BX283" s="7"/>
       <c r="BY283" s="7"/>
-    </row>
-    <row r="284" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ283" s="7"/>
+    </row>
+    <row r="284" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -22621,8 +22959,9 @@
       <c r="BW284" s="7"/>
       <c r="BX284" s="7"/>
       <c r="BY284" s="7"/>
-    </row>
-    <row r="285" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ284" s="7"/>
+    </row>
+    <row r="285" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -22700,8 +23039,9 @@
       <c r="BW285" s="7"/>
       <c r="BX285" s="7"/>
       <c r="BY285" s="7"/>
-    </row>
-    <row r="286" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ285" s="7"/>
+    </row>
+    <row r="286" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -22779,8 +23119,9 @@
       <c r="BW286" s="7"/>
       <c r="BX286" s="7"/>
       <c r="BY286" s="7"/>
-    </row>
-    <row r="287" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ286" s="7"/>
+    </row>
+    <row r="287" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -22858,8 +23199,9 @@
       <c r="BW287" s="7"/>
       <c r="BX287" s="7"/>
       <c r="BY287" s="7"/>
-    </row>
-    <row r="288" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ287" s="7"/>
+    </row>
+    <row r="288" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -22937,8 +23279,9 @@
       <c r="BW288" s="7"/>
       <c r="BX288" s="7"/>
       <c r="BY288" s="7"/>
-    </row>
-    <row r="289" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ288" s="7"/>
+    </row>
+    <row r="289" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -23016,8 +23359,9 @@
       <c r="BW289" s="7"/>
       <c r="BX289" s="7"/>
       <c r="BY289" s="7"/>
-    </row>
-    <row r="290" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ289" s="7"/>
+    </row>
+    <row r="290" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -23095,8 +23439,9 @@
       <c r="BW290" s="7"/>
       <c r="BX290" s="7"/>
       <c r="BY290" s="7"/>
-    </row>
-    <row r="291" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ290" s="7"/>
+    </row>
+    <row r="291" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -23174,8 +23519,9 @@
       <c r="BW291" s="7"/>
       <c r="BX291" s="7"/>
       <c r="BY291" s="7"/>
-    </row>
-    <row r="292" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ291" s="7"/>
+    </row>
+    <row r="292" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -23253,8 +23599,9 @@
       <c r="BW292" s="7"/>
       <c r="BX292" s="7"/>
       <c r="BY292" s="7"/>
-    </row>
-    <row r="293" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ292" s="7"/>
+    </row>
+    <row r="293" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -23332,8 +23679,9 @@
       <c r="BW293" s="7"/>
       <c r="BX293" s="7"/>
       <c r="BY293" s="7"/>
-    </row>
-    <row r="294" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ293" s="7"/>
+    </row>
+    <row r="294" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -23411,8 +23759,9 @@
       <c r="BW294" s="7"/>
       <c r="BX294" s="7"/>
       <c r="BY294" s="7"/>
-    </row>
-    <row r="295" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ294" s="7"/>
+    </row>
+    <row r="295" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -23490,8 +23839,9 @@
       <c r="BW295" s="7"/>
       <c r="BX295" s="7"/>
       <c r="BY295" s="7"/>
-    </row>
-    <row r="296" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ295" s="7"/>
+    </row>
+    <row r="296" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -23569,8 +23919,9 @@
       <c r="BW296" s="7"/>
       <c r="BX296" s="7"/>
       <c r="BY296" s="7"/>
-    </row>
-    <row r="297" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ296" s="7"/>
+    </row>
+    <row r="297" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -23648,8 +23999,9 @@
       <c r="BW297" s="7"/>
       <c r="BX297" s="7"/>
       <c r="BY297" s="7"/>
-    </row>
-    <row r="298" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ297" s="7"/>
+    </row>
+    <row r="298" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -23727,8 +24079,9 @@
       <c r="BW298" s="7"/>
       <c r="BX298" s="7"/>
       <c r="BY298" s="7"/>
-    </row>
-    <row r="299" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ298" s="7"/>
+    </row>
+    <row r="299" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -23806,8 +24159,9 @@
       <c r="BW299" s="7"/>
       <c r="BX299" s="7"/>
       <c r="BY299" s="7"/>
-    </row>
-    <row r="300" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ299" s="7"/>
+    </row>
+    <row r="300" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -23885,8 +24239,9 @@
       <c r="BW300" s="7"/>
       <c r="BX300" s="7"/>
       <c r="BY300" s="7"/>
-    </row>
-    <row r="301" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ300" s="7"/>
+    </row>
+    <row r="301" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -23964,8 +24319,9 @@
       <c r="BW301" s="7"/>
       <c r="BX301" s="7"/>
       <c r="BY301" s="7"/>
-    </row>
-    <row r="302" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ301" s="7"/>
+    </row>
+    <row r="302" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -24043,8 +24399,9 @@
       <c r="BW302" s="7"/>
       <c r="BX302" s="7"/>
       <c r="BY302" s="7"/>
-    </row>
-    <row r="303" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ302" s="7"/>
+    </row>
+    <row r="303" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -24122,8 +24479,9 @@
       <c r="BW303" s="7"/>
       <c r="BX303" s="7"/>
       <c r="BY303" s="7"/>
-    </row>
-    <row r="304" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ303" s="7"/>
+    </row>
+    <row r="304" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -24201,8 +24559,9 @@
       <c r="BW304" s="7"/>
       <c r="BX304" s="7"/>
       <c r="BY304" s="7"/>
-    </row>
-    <row r="305" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ304" s="7"/>
+    </row>
+    <row r="305" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -24280,8 +24639,9 @@
       <c r="BW305" s="7"/>
       <c r="BX305" s="7"/>
       <c r="BY305" s="7"/>
-    </row>
-    <row r="306" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ305" s="7"/>
+    </row>
+    <row r="306" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -24359,8 +24719,9 @@
       <c r="BW306" s="7"/>
       <c r="BX306" s="7"/>
       <c r="BY306" s="7"/>
-    </row>
-    <row r="307" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ306" s="7"/>
+    </row>
+    <row r="307" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -24438,8 +24799,9 @@
       <c r="BW307" s="7"/>
       <c r="BX307" s="7"/>
       <c r="BY307" s="7"/>
-    </row>
-    <row r="308" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ307" s="7"/>
+    </row>
+    <row r="308" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -24517,8 +24879,9 @@
       <c r="BW308" s="7"/>
       <c r="BX308" s="7"/>
       <c r="BY308" s="7"/>
-    </row>
-    <row r="309" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ308" s="7"/>
+    </row>
+    <row r="309" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -24596,8 +24959,9 @@
       <c r="BW309" s="7"/>
       <c r="BX309" s="7"/>
       <c r="BY309" s="7"/>
-    </row>
-    <row r="310" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ309" s="7"/>
+    </row>
+    <row r="310" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -24675,8 +25039,9 @@
       <c r="BW310" s="7"/>
       <c r="BX310" s="7"/>
       <c r="BY310" s="7"/>
-    </row>
-    <row r="311" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ310" s="7"/>
+    </row>
+    <row r="311" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -24754,8 +25119,9 @@
       <c r="BW311" s="7"/>
       <c r="BX311" s="7"/>
       <c r="BY311" s="7"/>
-    </row>
-    <row r="312" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ311" s="7"/>
+    </row>
+    <row r="312" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -24833,8 +25199,9 @@
       <c r="BW312" s="7"/>
       <c r="BX312" s="7"/>
       <c r="BY312" s="7"/>
-    </row>
-    <row r="313" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ312" s="7"/>
+    </row>
+    <row r="313" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -24912,8 +25279,9 @@
       <c r="BW313" s="7"/>
       <c r="BX313" s="7"/>
       <c r="BY313" s="7"/>
-    </row>
-    <row r="314" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ313" s="7"/>
+    </row>
+    <row r="314" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -24991,8 +25359,9 @@
       <c r="BW314" s="7"/>
       <c r="BX314" s="7"/>
       <c r="BY314" s="7"/>
-    </row>
-    <row r="315" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ314" s="7"/>
+    </row>
+    <row r="315" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -25070,8 +25439,9 @@
       <c r="BW315" s="7"/>
       <c r="BX315" s="7"/>
       <c r="BY315" s="7"/>
-    </row>
-    <row r="316" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ315" s="7"/>
+    </row>
+    <row r="316" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -25149,8 +25519,9 @@
       <c r="BW316" s="7"/>
       <c r="BX316" s="7"/>
       <c r="BY316" s="7"/>
-    </row>
-    <row r="317" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ316" s="7"/>
+    </row>
+    <row r="317" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -25228,8 +25599,9 @@
       <c r="BW317" s="7"/>
       <c r="BX317" s="7"/>
       <c r="BY317" s="7"/>
-    </row>
-    <row r="318" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ317" s="7"/>
+    </row>
+    <row r="318" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -25307,8 +25679,9 @@
       <c r="BW318" s="7"/>
       <c r="BX318" s="7"/>
       <c r="BY318" s="7"/>
-    </row>
-    <row r="319" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ318" s="7"/>
+    </row>
+    <row r="319" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -25386,8 +25759,9 @@
       <c r="BW319" s="7"/>
       <c r="BX319" s="7"/>
       <c r="BY319" s="7"/>
-    </row>
-    <row r="320" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ319" s="7"/>
+    </row>
+    <row r="320" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -25465,8 +25839,9 @@
       <c r="BW320" s="7"/>
       <c r="BX320" s="7"/>
       <c r="BY320" s="7"/>
-    </row>
-    <row r="321" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ320" s="7"/>
+    </row>
+    <row r="321" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -25544,8 +25919,9 @@
       <c r="BW321" s="7"/>
       <c r="BX321" s="7"/>
       <c r="BY321" s="7"/>
-    </row>
-    <row r="322" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ321" s="7"/>
+    </row>
+    <row r="322" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -25623,8 +25999,9 @@
       <c r="BW322" s="7"/>
       <c r="BX322" s="7"/>
       <c r="BY322" s="7"/>
-    </row>
-    <row r="323" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ322" s="7"/>
+    </row>
+    <row r="323" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -25702,8 +26079,9 @@
       <c r="BW323" s="7"/>
       <c r="BX323" s="7"/>
       <c r="BY323" s="7"/>
-    </row>
-    <row r="324" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ323" s="7"/>
+    </row>
+    <row r="324" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -25781,8 +26159,9 @@
       <c r="BW324" s="7"/>
       <c r="BX324" s="7"/>
       <c r="BY324" s="7"/>
-    </row>
-    <row r="325" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ324" s="7"/>
+    </row>
+    <row r="325" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -25860,8 +26239,9 @@
       <c r="BW325" s="7"/>
       <c r="BX325" s="7"/>
       <c r="BY325" s="7"/>
-    </row>
-    <row r="326" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ325" s="7"/>
+    </row>
+    <row r="326" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -25939,8 +26319,9 @@
       <c r="BW326" s="7"/>
       <c r="BX326" s="7"/>
       <c r="BY326" s="7"/>
-    </row>
-    <row r="327" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ326" s="7"/>
+    </row>
+    <row r="327" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -26018,8 +26399,9 @@
       <c r="BW327" s="7"/>
       <c r="BX327" s="7"/>
       <c r="BY327" s="7"/>
-    </row>
-    <row r="328" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ327" s="7"/>
+    </row>
+    <row r="328" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -26097,8 +26479,9 @@
       <c r="BW328" s="7"/>
       <c r="BX328" s="7"/>
       <c r="BY328" s="7"/>
-    </row>
-    <row r="329" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ328" s="7"/>
+    </row>
+    <row r="329" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -26176,8 +26559,9 @@
       <c r="BW329" s="7"/>
       <c r="BX329" s="7"/>
       <c r="BY329" s="7"/>
-    </row>
-    <row r="330" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ329" s="7"/>
+    </row>
+    <row r="330" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -26255,8 +26639,9 @@
       <c r="BW330" s="7"/>
       <c r="BX330" s="7"/>
       <c r="BY330" s="7"/>
-    </row>
-    <row r="331" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ330" s="7"/>
+    </row>
+    <row r="331" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -26334,8 +26719,9 @@
       <c r="BW331" s="7"/>
       <c r="BX331" s="7"/>
       <c r="BY331" s="7"/>
-    </row>
-    <row r="332" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ331" s="7"/>
+    </row>
+    <row r="332" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -26413,8 +26799,9 @@
       <c r="BW332" s="7"/>
       <c r="BX332" s="7"/>
       <c r="BY332" s="7"/>
-    </row>
-    <row r="333" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ332" s="7"/>
+    </row>
+    <row r="333" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -26492,8 +26879,9 @@
       <c r="BW333" s="7"/>
       <c r="BX333" s="7"/>
       <c r="BY333" s="7"/>
-    </row>
-    <row r="334" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ333" s="7"/>
+    </row>
+    <row r="334" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -26571,8 +26959,9 @@
       <c r="BW334" s="7"/>
       <c r="BX334" s="7"/>
       <c r="BY334" s="7"/>
-    </row>
-    <row r="335" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ334" s="7"/>
+    </row>
+    <row r="335" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -26650,8 +27039,9 @@
       <c r="BW335" s="7"/>
       <c r="BX335" s="7"/>
       <c r="BY335" s="7"/>
-    </row>
-    <row r="336" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ335" s="7"/>
+    </row>
+    <row r="336" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -26729,8 +27119,9 @@
       <c r="BW336" s="7"/>
       <c r="BX336" s="7"/>
       <c r="BY336" s="7"/>
-    </row>
-    <row r="337" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ336" s="7"/>
+    </row>
+    <row r="337" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -26808,8 +27199,9 @@
       <c r="BW337" s="7"/>
       <c r="BX337" s="7"/>
       <c r="BY337" s="7"/>
-    </row>
-    <row r="338" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ337" s="7"/>
+    </row>
+    <row r="338" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -26887,8 +27279,9 @@
       <c r="BW338" s="7"/>
       <c r="BX338" s="7"/>
       <c r="BY338" s="7"/>
-    </row>
-    <row r="339" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ338" s="7"/>
+    </row>
+    <row r="339" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -26966,8 +27359,9 @@
       <c r="BW339" s="7"/>
       <c r="BX339" s="7"/>
       <c r="BY339" s="7"/>
-    </row>
-    <row r="340" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ339" s="7"/>
+    </row>
+    <row r="340" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -27045,8 +27439,9 @@
       <c r="BW340" s="7"/>
       <c r="BX340" s="7"/>
       <c r="BY340" s="7"/>
-    </row>
-    <row r="341" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ340" s="7"/>
+    </row>
+    <row r="341" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -27124,8 +27519,9 @@
       <c r="BW341" s="7"/>
       <c r="BX341" s="7"/>
       <c r="BY341" s="7"/>
-    </row>
-    <row r="342" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ341" s="7"/>
+    </row>
+    <row r="342" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -27203,8 +27599,9 @@
       <c r="BW342" s="7"/>
       <c r="BX342" s="7"/>
       <c r="BY342" s="7"/>
-    </row>
-    <row r="343" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ342" s="7"/>
+    </row>
+    <row r="343" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -27282,8 +27679,9 @@
       <c r="BW343" s="7"/>
       <c r="BX343" s="7"/>
       <c r="BY343" s="7"/>
-    </row>
-    <row r="344" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ343" s="7"/>
+    </row>
+    <row r="344" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -27361,8 +27759,9 @@
       <c r="BW344" s="7"/>
       <c r="BX344" s="7"/>
       <c r="BY344" s="7"/>
-    </row>
-    <row r="345" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ344" s="7"/>
+    </row>
+    <row r="345" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -27440,8 +27839,9 @@
       <c r="BW345" s="7"/>
       <c r="BX345" s="7"/>
       <c r="BY345" s="7"/>
-    </row>
-    <row r="346" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ345" s="7"/>
+    </row>
+    <row r="346" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -27519,8 +27919,9 @@
       <c r="BW346" s="7"/>
       <c r="BX346" s="7"/>
       <c r="BY346" s="7"/>
-    </row>
-    <row r="347" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ346" s="7"/>
+    </row>
+    <row r="347" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -27598,8 +27999,9 @@
       <c r="BW347" s="7"/>
       <c r="BX347" s="7"/>
       <c r="BY347" s="7"/>
-    </row>
-    <row r="348" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ347" s="7"/>
+    </row>
+    <row r="348" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -27677,8 +28079,9 @@
       <c r="BW348" s="7"/>
       <c r="BX348" s="7"/>
       <c r="BY348" s="7"/>
-    </row>
-    <row r="349" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ348" s="7"/>
+    </row>
+    <row r="349" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -27756,8 +28159,9 @@
       <c r="BW349" s="7"/>
       <c r="BX349" s="7"/>
       <c r="BY349" s="7"/>
-    </row>
-    <row r="350" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ349" s="7"/>
+    </row>
+    <row r="350" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -27835,8 +28239,9 @@
       <c r="BW350" s="7"/>
       <c r="BX350" s="7"/>
       <c r="BY350" s="7"/>
-    </row>
-    <row r="351" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ350" s="7"/>
+    </row>
+    <row r="351" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -27914,8 +28319,9 @@
       <c r="BW351" s="7"/>
       <c r="BX351" s="7"/>
       <c r="BY351" s="7"/>
-    </row>
-    <row r="352" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ351" s="7"/>
+    </row>
+    <row r="352" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -27993,8 +28399,9 @@
       <c r="BW352" s="7"/>
       <c r="BX352" s="7"/>
       <c r="BY352" s="7"/>
-    </row>
-    <row r="353" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ352" s="7"/>
+    </row>
+    <row r="353" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -28072,8 +28479,9 @@
       <c r="BW353" s="7"/>
       <c r="BX353" s="7"/>
       <c r="BY353" s="7"/>
-    </row>
-    <row r="354" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ353" s="7"/>
+    </row>
+    <row r="354" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -28151,8 +28559,9 @@
       <c r="BW354" s="7"/>
       <c r="BX354" s="7"/>
       <c r="BY354" s="7"/>
-    </row>
-    <row r="355" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ354" s="7"/>
+    </row>
+    <row r="355" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -28230,8 +28639,9 @@
       <c r="BW355" s="7"/>
       <c r="BX355" s="7"/>
       <c r="BY355" s="7"/>
-    </row>
-    <row r="356" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ355" s="7"/>
+    </row>
+    <row r="356" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -28309,8 +28719,9 @@
       <c r="BW356" s="7"/>
       <c r="BX356" s="7"/>
       <c r="BY356" s="7"/>
-    </row>
-    <row r="357" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ356" s="7"/>
+    </row>
+    <row r="357" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -28388,8 +28799,9 @@
       <c r="BW357" s="7"/>
       <c r="BX357" s="7"/>
       <c r="BY357" s="7"/>
-    </row>
-    <row r="358" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ357" s="7"/>
+    </row>
+    <row r="358" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -28467,8 +28879,9 @@
       <c r="BW358" s="7"/>
       <c r="BX358" s="7"/>
       <c r="BY358" s="7"/>
-    </row>
-    <row r="359" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ358" s="7"/>
+    </row>
+    <row r="359" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -28546,8 +28959,9 @@
       <c r="BW359" s="7"/>
       <c r="BX359" s="7"/>
       <c r="BY359" s="7"/>
-    </row>
-    <row r="360" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ359" s="7"/>
+    </row>
+    <row r="360" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -28625,8 +29039,9 @@
       <c r="BW360" s="7"/>
       <c r="BX360" s="7"/>
       <c r="BY360" s="7"/>
-    </row>
-    <row r="361" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ360" s="7"/>
+    </row>
+    <row r="361" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -28704,8 +29119,9 @@
       <c r="BW361" s="7"/>
       <c r="BX361" s="7"/>
       <c r="BY361" s="7"/>
-    </row>
-    <row r="362" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ361" s="7"/>
+    </row>
+    <row r="362" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -28783,8 +29199,9 @@
       <c r="BW362" s="7"/>
       <c r="BX362" s="7"/>
       <c r="BY362" s="7"/>
-    </row>
-    <row r="363" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ362" s="7"/>
+    </row>
+    <row r="363" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -28862,8 +29279,9 @@
       <c r="BW363" s="7"/>
       <c r="BX363" s="7"/>
       <c r="BY363" s="7"/>
-    </row>
-    <row r="364" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ363" s="7"/>
+    </row>
+    <row r="364" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -28941,8 +29359,9 @@
       <c r="BW364" s="7"/>
       <c r="BX364" s="7"/>
       <c r="BY364" s="7"/>
-    </row>
-    <row r="365" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ364" s="7"/>
+    </row>
+    <row r="365" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -29020,8 +29439,9 @@
       <c r="BW365" s="7"/>
       <c r="BX365" s="7"/>
       <c r="BY365" s="7"/>
-    </row>
-    <row r="366" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ365" s="7"/>
+    </row>
+    <row r="366" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -29099,8 +29519,9 @@
       <c r="BW366" s="7"/>
       <c r="BX366" s="7"/>
       <c r="BY366" s="7"/>
-    </row>
-    <row r="367" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ366" s="7"/>
+    </row>
+    <row r="367" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -29178,8 +29599,9 @@
       <c r="BW367" s="7"/>
       <c r="BX367" s="7"/>
       <c r="BY367" s="7"/>
-    </row>
-    <row r="368" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ367" s="7"/>
+    </row>
+    <row r="368" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -29257,8 +29679,9 @@
       <c r="BW368" s="7"/>
       <c r="BX368" s="7"/>
       <c r="BY368" s="7"/>
-    </row>
-    <row r="369" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ368" s="7"/>
+    </row>
+    <row r="369" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -29336,8 +29759,9 @@
       <c r="BW369" s="7"/>
       <c r="BX369" s="7"/>
       <c r="BY369" s="7"/>
-    </row>
-    <row r="370" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ369" s="7"/>
+    </row>
+    <row r="370" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -29415,8 +29839,9 @@
       <c r="BW370" s="7"/>
       <c r="BX370" s="7"/>
       <c r="BY370" s="7"/>
-    </row>
-    <row r="371" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ370" s="7"/>
+    </row>
+    <row r="371" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -29494,8 +29919,9 @@
       <c r="BW371" s="7"/>
       <c r="BX371" s="7"/>
       <c r="BY371" s="7"/>
-    </row>
-    <row r="372" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ371" s="7"/>
+    </row>
+    <row r="372" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -29573,8 +29999,9 @@
       <c r="BW372" s="7"/>
       <c r="BX372" s="7"/>
       <c r="BY372" s="7"/>
-    </row>
-    <row r="373" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ372" s="7"/>
+    </row>
+    <row r="373" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -29652,8 +30079,9 @@
       <c r="BW373" s="7"/>
       <c r="BX373" s="7"/>
       <c r="BY373" s="7"/>
-    </row>
-    <row r="374" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ373" s="7"/>
+    </row>
+    <row r="374" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -29731,8 +30159,9 @@
       <c r="BW374" s="7"/>
       <c r="BX374" s="7"/>
       <c r="BY374" s="7"/>
-    </row>
-    <row r="375" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ374" s="7"/>
+    </row>
+    <row r="375" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -29810,8 +30239,9 @@
       <c r="BW375" s="7"/>
       <c r="BX375" s="7"/>
       <c r="BY375" s="7"/>
-    </row>
-    <row r="376" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ375" s="7"/>
+    </row>
+    <row r="376" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -29889,8 +30319,9 @@
       <c r="BW376" s="7"/>
       <c r="BX376" s="7"/>
       <c r="BY376" s="7"/>
-    </row>
-    <row r="377" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ376" s="7"/>
+    </row>
+    <row r="377" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -29968,8 +30399,9 @@
       <c r="BW377" s="7"/>
       <c r="BX377" s="7"/>
       <c r="BY377" s="7"/>
-    </row>
-    <row r="378" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ377" s="7"/>
+    </row>
+    <row r="378" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -30047,8 +30479,9 @@
       <c r="BW378" s="7"/>
       <c r="BX378" s="7"/>
       <c r="BY378" s="7"/>
-    </row>
-    <row r="379" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ378" s="7"/>
+    </row>
+    <row r="379" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -30126,8 +30559,9 @@
       <c r="BW379" s="7"/>
       <c r="BX379" s="7"/>
       <c r="BY379" s="7"/>
-    </row>
-    <row r="380" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ379" s="7"/>
+    </row>
+    <row r="380" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -30205,8 +30639,9 @@
       <c r="BW380" s="7"/>
       <c r="BX380" s="7"/>
       <c r="BY380" s="7"/>
-    </row>
-    <row r="381" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ380" s="7"/>
+    </row>
+    <row r="381" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -30284,8 +30719,9 @@
       <c r="BW381" s="7"/>
       <c r="BX381" s="7"/>
       <c r="BY381" s="7"/>
-    </row>
-    <row r="382" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ381" s="7"/>
+    </row>
+    <row r="382" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -30363,8 +30799,9 @@
       <c r="BW382" s="7"/>
       <c r="BX382" s="7"/>
       <c r="BY382" s="7"/>
-    </row>
-    <row r="383" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ382" s="7"/>
+    </row>
+    <row r="383" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -30442,8 +30879,9 @@
       <c r="BW383" s="7"/>
       <c r="BX383" s="7"/>
       <c r="BY383" s="7"/>
-    </row>
-    <row r="384" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ383" s="7"/>
+    </row>
+    <row r="384" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -30521,8 +30959,9 @@
       <c r="BW384" s="7"/>
       <c r="BX384" s="7"/>
       <c r="BY384" s="7"/>
-    </row>
-    <row r="385" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ384" s="7"/>
+    </row>
+    <row r="385" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -30600,8 +31039,9 @@
       <c r="BW385" s="7"/>
       <c r="BX385" s="7"/>
       <c r="BY385" s="7"/>
-    </row>
-    <row r="386" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ385" s="7"/>
+    </row>
+    <row r="386" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -30679,8 +31119,9 @@
       <c r="BW386" s="7"/>
       <c r="BX386" s="7"/>
       <c r="BY386" s="7"/>
-    </row>
-    <row r="387" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ386" s="7"/>
+    </row>
+    <row r="387" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -30758,8 +31199,9 @@
       <c r="BW387" s="7"/>
       <c r="BX387" s="7"/>
       <c r="BY387" s="7"/>
-    </row>
-    <row r="388" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ387" s="7"/>
+    </row>
+    <row r="388" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -30837,8 +31279,9 @@
       <c r="BW388" s="7"/>
       <c r="BX388" s="7"/>
       <c r="BY388" s="7"/>
-    </row>
-    <row r="389" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ388" s="7"/>
+    </row>
+    <row r="389" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -30916,8 +31359,9 @@
       <c r="BW389" s="7"/>
       <c r="BX389" s="7"/>
       <c r="BY389" s="7"/>
-    </row>
-    <row r="390" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ389" s="7"/>
+    </row>
+    <row r="390" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -30995,8 +31439,9 @@
       <c r="BW390" s="7"/>
       <c r="BX390" s="7"/>
       <c r="BY390" s="7"/>
-    </row>
-    <row r="391" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ390" s="7"/>
+    </row>
+    <row r="391" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -31074,8 +31519,9 @@
       <c r="BW391" s="7"/>
       <c r="BX391" s="7"/>
       <c r="BY391" s="7"/>
-    </row>
-    <row r="392" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ391" s="7"/>
+    </row>
+    <row r="392" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -31153,8 +31599,9 @@
       <c r="BW392" s="7"/>
       <c r="BX392" s="7"/>
       <c r="BY392" s="7"/>
-    </row>
-    <row r="393" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ392" s="7"/>
+    </row>
+    <row r="393" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -31232,8 +31679,9 @@
       <c r="BW393" s="7"/>
       <c r="BX393" s="7"/>
       <c r="BY393" s="7"/>
-    </row>
-    <row r="394" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ393" s="7"/>
+    </row>
+    <row r="394" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -31311,8 +31759,9 @@
       <c r="BW394" s="7"/>
       <c r="BX394" s="7"/>
       <c r="BY394" s="7"/>
-    </row>
-    <row r="395" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ394" s="7"/>
+    </row>
+    <row r="395" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -31390,8 +31839,9 @@
       <c r="BW395" s="7"/>
       <c r="BX395" s="7"/>
       <c r="BY395" s="7"/>
-    </row>
-    <row r="396" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ395" s="7"/>
+    </row>
+    <row r="396" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -31469,8 +31919,9 @@
       <c r="BW396" s="7"/>
       <c r="BX396" s="7"/>
       <c r="BY396" s="7"/>
-    </row>
-    <row r="397" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ396" s="7"/>
+    </row>
+    <row r="397" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -31548,8 +31999,9 @@
       <c r="BW397" s="7"/>
       <c r="BX397" s="7"/>
       <c r="BY397" s="7"/>
-    </row>
-    <row r="398" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ397" s="7"/>
+    </row>
+    <row r="398" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -31627,8 +32079,9 @@
       <c r="BW398" s="7"/>
       <c r="BX398" s="7"/>
       <c r="BY398" s="7"/>
-    </row>
-    <row r="399" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ398" s="7"/>
+    </row>
+    <row r="399" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -31706,8 +32159,9 @@
       <c r="BW399" s="7"/>
       <c r="BX399" s="7"/>
       <c r="BY399" s="7"/>
-    </row>
-    <row r="400" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ399" s="7"/>
+    </row>
+    <row r="400" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -31785,8 +32239,9 @@
       <c r="BW400" s="7"/>
       <c r="BX400" s="7"/>
       <c r="BY400" s="7"/>
-    </row>
-    <row r="401" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ400" s="7"/>
+    </row>
+    <row r="401" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -31864,8 +32319,9 @@
       <c r="BW401" s="7"/>
       <c r="BX401" s="7"/>
       <c r="BY401" s="7"/>
-    </row>
-    <row r="402" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ401" s="7"/>
+    </row>
+    <row r="402" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -31943,8 +32399,9 @@
       <c r="BW402" s="7"/>
       <c r="BX402" s="7"/>
       <c r="BY402" s="7"/>
-    </row>
-    <row r="403" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ402" s="7"/>
+    </row>
+    <row r="403" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -32022,8 +32479,9 @@
       <c r="BW403" s="7"/>
       <c r="BX403" s="7"/>
       <c r="BY403" s="7"/>
-    </row>
-    <row r="404" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ403" s="7"/>
+    </row>
+    <row r="404" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -32101,8 +32559,9 @@
       <c r="BW404" s="7"/>
       <c r="BX404" s="7"/>
       <c r="BY404" s="7"/>
-    </row>
-    <row r="405" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ404" s="7"/>
+    </row>
+    <row r="405" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -32180,8 +32639,9 @@
       <c r="BW405" s="7"/>
       <c r="BX405" s="7"/>
       <c r="BY405" s="7"/>
-    </row>
-    <row r="406" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ405" s="7"/>
+    </row>
+    <row r="406" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -32259,8 +32719,9 @@
       <c r="BW406" s="7"/>
       <c r="BX406" s="7"/>
       <c r="BY406" s="7"/>
-    </row>
-    <row r="407" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ406" s="7"/>
+    </row>
+    <row r="407" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -32338,8 +32799,9 @@
       <c r="BW407" s="7"/>
       <c r="BX407" s="7"/>
       <c r="BY407" s="7"/>
-    </row>
-    <row r="408" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ407" s="7"/>
+    </row>
+    <row r="408" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -32417,8 +32879,9 @@
       <c r="BW408" s="7"/>
       <c r="BX408" s="7"/>
       <c r="BY408" s="7"/>
-    </row>
-    <row r="409" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ408" s="7"/>
+    </row>
+    <row r="409" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -32496,8 +32959,9 @@
       <c r="BW409" s="7"/>
       <c r="BX409" s="7"/>
       <c r="BY409" s="7"/>
-    </row>
-    <row r="410" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ409" s="7"/>
+    </row>
+    <row r="410" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -32575,8 +33039,9 @@
       <c r="BW410" s="7"/>
       <c r="BX410" s="7"/>
       <c r="BY410" s="7"/>
-    </row>
-    <row r="411" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ410" s="7"/>
+    </row>
+    <row r="411" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -32654,8 +33119,9 @@
       <c r="BW411" s="7"/>
       <c r="BX411" s="7"/>
       <c r="BY411" s="7"/>
-    </row>
-    <row r="412" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ411" s="7"/>
+    </row>
+    <row r="412" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -32733,8 +33199,9 @@
       <c r="BW412" s="7"/>
       <c r="BX412" s="7"/>
       <c r="BY412" s="7"/>
-    </row>
-    <row r="413" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ412" s="7"/>
+    </row>
+    <row r="413" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -32812,8 +33279,9 @@
       <c r="BW413" s="7"/>
       <c r="BX413" s="7"/>
       <c r="BY413" s="7"/>
-    </row>
-    <row r="414" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ413" s="7"/>
+    </row>
+    <row r="414" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -32891,8 +33359,9 @@
       <c r="BW414" s="7"/>
       <c r="BX414" s="7"/>
       <c r="BY414" s="7"/>
-    </row>
-    <row r="415" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ414" s="7"/>
+    </row>
+    <row r="415" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -32970,8 +33439,9 @@
       <c r="BW415" s="7"/>
       <c r="BX415" s="7"/>
       <c r="BY415" s="7"/>
-    </row>
-    <row r="416" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ415" s="7"/>
+    </row>
+    <row r="416" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -33049,8 +33519,9 @@
       <c r="BW416" s="7"/>
       <c r="BX416" s="7"/>
       <c r="BY416" s="7"/>
-    </row>
-    <row r="417" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ416" s="7"/>
+    </row>
+    <row r="417" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -33128,8 +33599,9 @@
       <c r="BW417" s="7"/>
       <c r="BX417" s="7"/>
       <c r="BY417" s="7"/>
-    </row>
-    <row r="418" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ417" s="7"/>
+    </row>
+    <row r="418" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -33207,8 +33679,9 @@
       <c r="BW418" s="7"/>
       <c r="BX418" s="7"/>
       <c r="BY418" s="7"/>
-    </row>
-    <row r="419" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ418" s="7"/>
+    </row>
+    <row r="419" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -33286,8 +33759,9 @@
       <c r="BW419" s="7"/>
       <c r="BX419" s="7"/>
       <c r="BY419" s="7"/>
-    </row>
-    <row r="420" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ419" s="7"/>
+    </row>
+    <row r="420" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -33365,8 +33839,9 @@
       <c r="BW420" s="7"/>
       <c r="BX420" s="7"/>
       <c r="BY420" s="7"/>
-    </row>
-    <row r="421" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ420" s="7"/>
+    </row>
+    <row r="421" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -33444,8 +33919,9 @@
       <c r="BW421" s="7"/>
       <c r="BX421" s="7"/>
       <c r="BY421" s="7"/>
-    </row>
-    <row r="422" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ421" s="7"/>
+    </row>
+    <row r="422" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -33523,8 +33999,9 @@
       <c r="BW422" s="7"/>
       <c r="BX422" s="7"/>
       <c r="BY422" s="7"/>
-    </row>
-    <row r="423" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ422" s="7"/>
+    </row>
+    <row r="423" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -33602,8 +34079,9 @@
       <c r="BW423" s="7"/>
       <c r="BX423" s="7"/>
       <c r="BY423" s="7"/>
-    </row>
-    <row r="424" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ423" s="7"/>
+    </row>
+    <row r="424" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -33681,8 +34159,9 @@
       <c r="BW424" s="7"/>
       <c r="BX424" s="7"/>
       <c r="BY424" s="7"/>
-    </row>
-    <row r="425" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ424" s="7"/>
+    </row>
+    <row r="425" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -33760,8 +34239,9 @@
       <c r="BW425" s="7"/>
       <c r="BX425" s="7"/>
       <c r="BY425" s="7"/>
-    </row>
-    <row r="426" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ425" s="7"/>
+    </row>
+    <row r="426" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -33839,8 +34319,9 @@
       <c r="BW426" s="7"/>
       <c r="BX426" s="7"/>
       <c r="BY426" s="7"/>
-    </row>
-    <row r="427" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ426" s="7"/>
+    </row>
+    <row r="427" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -33918,8 +34399,9 @@
       <c r="BW427" s="7"/>
       <c r="BX427" s="7"/>
       <c r="BY427" s="7"/>
-    </row>
-    <row r="428" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ427" s="7"/>
+    </row>
+    <row r="428" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -33997,8 +34479,9 @@
       <c r="BW428" s="7"/>
       <c r="BX428" s="7"/>
       <c r="BY428" s="7"/>
-    </row>
-    <row r="429" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ428" s="7"/>
+    </row>
+    <row r="429" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -34076,8 +34559,9 @@
       <c r="BW429" s="7"/>
       <c r="BX429" s="7"/>
       <c r="BY429" s="7"/>
-    </row>
-    <row r="430" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ429" s="7"/>
+    </row>
+    <row r="430" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -34155,8 +34639,9 @@
       <c r="BW430" s="7"/>
       <c r="BX430" s="7"/>
       <c r="BY430" s="7"/>
-    </row>
-    <row r="431" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ430" s="7"/>
+    </row>
+    <row r="431" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -34234,8 +34719,9 @@
       <c r="BW431" s="7"/>
       <c r="BX431" s="7"/>
       <c r="BY431" s="7"/>
-    </row>
-    <row r="432" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ431" s="7"/>
+    </row>
+    <row r="432" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -34313,8 +34799,9 @@
       <c r="BW432" s="7"/>
       <c r="BX432" s="7"/>
       <c r="BY432" s="7"/>
-    </row>
-    <row r="433" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ432" s="7"/>
+    </row>
+    <row r="433" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -34392,8 +34879,9 @@
       <c r="BW433" s="7"/>
       <c r="BX433" s="7"/>
       <c r="BY433" s="7"/>
-    </row>
-    <row r="434" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ433" s="7"/>
+    </row>
+    <row r="434" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -34471,8 +34959,9 @@
       <c r="BW434" s="7"/>
       <c r="BX434" s="7"/>
       <c r="BY434" s="7"/>
-    </row>
-    <row r="435" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ434" s="7"/>
+    </row>
+    <row r="435" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -34550,8 +35039,9 @@
       <c r="BW435" s="7"/>
       <c r="BX435" s="7"/>
       <c r="BY435" s="7"/>
-    </row>
-    <row r="436" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ435" s="7"/>
+    </row>
+    <row r="436" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -34629,8 +35119,9 @@
       <c r="BW436" s="7"/>
       <c r="BX436" s="7"/>
       <c r="BY436" s="7"/>
-    </row>
-    <row r="437" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ436" s="7"/>
+    </row>
+    <row r="437" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -34708,8 +35199,9 @@
       <c r="BW437" s="7"/>
       <c r="BX437" s="7"/>
       <c r="BY437" s="7"/>
-    </row>
-    <row r="438" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ437" s="7"/>
+    </row>
+    <row r="438" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -34787,8 +35279,9 @@
       <c r="BW438" s="7"/>
       <c r="BX438" s="7"/>
       <c r="BY438" s="7"/>
-    </row>
-    <row r="439" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ438" s="7"/>
+    </row>
+    <row r="439" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -34866,8 +35359,9 @@
       <c r="BW439" s="7"/>
       <c r="BX439" s="7"/>
       <c r="BY439" s="7"/>
-    </row>
-    <row r="440" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ439" s="7"/>
+    </row>
+    <row r="440" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -34945,8 +35439,9 @@
       <c r="BW440" s="7"/>
       <c r="BX440" s="7"/>
       <c r="BY440" s="7"/>
-    </row>
-    <row r="441" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ440" s="7"/>
+    </row>
+    <row r="441" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -35024,8 +35519,9 @@
       <c r="BW441" s="7"/>
       <c r="BX441" s="7"/>
       <c r="BY441" s="7"/>
-    </row>
-    <row r="442" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ441" s="7"/>
+    </row>
+    <row r="442" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -35103,8 +35599,9 @@
       <c r="BW442" s="7"/>
       <c r="BX442" s="7"/>
       <c r="BY442" s="7"/>
-    </row>
-    <row r="443" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ442" s="7"/>
+    </row>
+    <row r="443" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -35182,8 +35679,9 @@
       <c r="BW443" s="7"/>
       <c r="BX443" s="7"/>
       <c r="BY443" s="7"/>
-    </row>
-    <row r="444" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ443" s="7"/>
+    </row>
+    <row r="444" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -35261,8 +35759,9 @@
       <c r="BW444" s="7"/>
       <c r="BX444" s="7"/>
       <c r="BY444" s="7"/>
-    </row>
-    <row r="445" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ444" s="7"/>
+    </row>
+    <row r="445" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -35340,8 +35839,9 @@
       <c r="BW445" s="7"/>
       <c r="BX445" s="7"/>
       <c r="BY445" s="7"/>
-    </row>
-    <row r="446" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ445" s="7"/>
+    </row>
+    <row r="446" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -35419,8 +35919,9 @@
       <c r="BW446" s="7"/>
       <c r="BX446" s="7"/>
       <c r="BY446" s="7"/>
-    </row>
-    <row r="447" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ446" s="7"/>
+    </row>
+    <row r="447" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -35498,8 +35999,9 @@
       <c r="BW447" s="7"/>
       <c r="BX447" s="7"/>
       <c r="BY447" s="7"/>
-    </row>
-    <row r="448" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ447" s="7"/>
+    </row>
+    <row r="448" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -35577,8 +36079,9 @@
       <c r="BW448" s="7"/>
       <c r="BX448" s="7"/>
       <c r="BY448" s="7"/>
-    </row>
-    <row r="449" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ448" s="7"/>
+    </row>
+    <row r="449" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -35656,8 +36159,9 @@
       <c r="BW449" s="7"/>
       <c r="BX449" s="7"/>
       <c r="BY449" s="7"/>
-    </row>
-    <row r="450" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ449" s="7"/>
+    </row>
+    <row r="450" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -35735,8 +36239,9 @@
       <c r="BW450" s="7"/>
       <c r="BX450" s="7"/>
       <c r="BY450" s="7"/>
-    </row>
-    <row r="451" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ450" s="7"/>
+    </row>
+    <row r="451" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -35814,8 +36319,9 @@
       <c r="BW451" s="7"/>
       <c r="BX451" s="7"/>
       <c r="BY451" s="7"/>
-    </row>
-    <row r="452" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ451" s="7"/>
+    </row>
+    <row r="452" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -35893,8 +36399,9 @@
       <c r="BW452" s="7"/>
       <c r="BX452" s="7"/>
       <c r="BY452" s="7"/>
-    </row>
-    <row r="453" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ452" s="7"/>
+    </row>
+    <row r="453" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -35972,8 +36479,9 @@
       <c r="BW453" s="7"/>
       <c r="BX453" s="7"/>
       <c r="BY453" s="7"/>
-    </row>
-    <row r="454" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ453" s="7"/>
+    </row>
+    <row r="454" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -36051,8 +36559,9 @@
       <c r="BW454" s="7"/>
       <c r="BX454" s="7"/>
       <c r="BY454" s="7"/>
-    </row>
-    <row r="455" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ454" s="7"/>
+    </row>
+    <row r="455" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -36130,8 +36639,9 @@
       <c r="BW455" s="7"/>
       <c r="BX455" s="7"/>
       <c r="BY455" s="7"/>
-    </row>
-    <row r="456" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ455" s="7"/>
+    </row>
+    <row r="456" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -36209,8 +36719,9 @@
       <c r="BW456" s="7"/>
       <c r="BX456" s="7"/>
       <c r="BY456" s="7"/>
-    </row>
-    <row r="457" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ456" s="7"/>
+    </row>
+    <row r="457" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -36288,8 +36799,9 @@
       <c r="BW457" s="7"/>
       <c r="BX457" s="7"/>
       <c r="BY457" s="7"/>
-    </row>
-    <row r="458" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ457" s="7"/>
+    </row>
+    <row r="458" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -36367,8 +36879,9 @@
       <c r="BW458" s="7"/>
       <c r="BX458" s="7"/>
       <c r="BY458" s="7"/>
-    </row>
-    <row r="459" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ458" s="7"/>
+    </row>
+    <row r="459" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -36446,8 +36959,9 @@
       <c r="BW459" s="7"/>
       <c r="BX459" s="7"/>
       <c r="BY459" s="7"/>
-    </row>
-    <row r="460" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ459" s="7"/>
+    </row>
+    <row r="460" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -36525,8 +37039,9 @@
       <c r="BW460" s="7"/>
       <c r="BX460" s="7"/>
       <c r="BY460" s="7"/>
-    </row>
-    <row r="461" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ460" s="7"/>
+    </row>
+    <row r="461" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -36604,8 +37119,9 @@
       <c r="BW461" s="7"/>
       <c r="BX461" s="7"/>
       <c r="BY461" s="7"/>
-    </row>
-    <row r="462" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ461" s="7"/>
+    </row>
+    <row r="462" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -36683,8 +37199,9 @@
       <c r="BW462" s="7"/>
       <c r="BX462" s="7"/>
       <c r="BY462" s="7"/>
-    </row>
-    <row r="463" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ462" s="7"/>
+    </row>
+    <row r="463" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -36762,8 +37279,9 @@
       <c r="BW463" s="7"/>
       <c r="BX463" s="7"/>
       <c r="BY463" s="7"/>
-    </row>
-    <row r="464" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ463" s="7"/>
+    </row>
+    <row r="464" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -36841,8 +37359,9 @@
       <c r="BW464" s="7"/>
       <c r="BX464" s="7"/>
       <c r="BY464" s="7"/>
-    </row>
-    <row r="465" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ464" s="7"/>
+    </row>
+    <row r="465" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -36920,8 +37439,9 @@
       <c r="BW465" s="7"/>
       <c r="BX465" s="7"/>
       <c r="BY465" s="7"/>
-    </row>
-    <row r="466" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ465" s="7"/>
+    </row>
+    <row r="466" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -36999,8 +37519,9 @@
       <c r="BW466" s="7"/>
       <c r="BX466" s="7"/>
       <c r="BY466" s="7"/>
-    </row>
-    <row r="467" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ466" s="7"/>
+    </row>
+    <row r="467" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -37078,8 +37599,9 @@
       <c r="BW467" s="7"/>
       <c r="BX467" s="7"/>
       <c r="BY467" s="7"/>
-    </row>
-    <row r="468" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ467" s="7"/>
+    </row>
+    <row r="468" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -37157,8 +37679,9 @@
       <c r="BW468" s="7"/>
       <c r="BX468" s="7"/>
       <c r="BY468" s="7"/>
-    </row>
-    <row r="469" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ468" s="7"/>
+    </row>
+    <row r="469" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -37236,8 +37759,9 @@
       <c r="BW469" s="7"/>
       <c r="BX469" s="7"/>
       <c r="BY469" s="7"/>
-    </row>
-    <row r="470" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ469" s="7"/>
+    </row>
+    <row r="470" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -37315,8 +37839,9 @@
       <c r="BW470" s="7"/>
       <c r="BX470" s="7"/>
       <c r="BY470" s="7"/>
-    </row>
-    <row r="471" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ470" s="7"/>
+    </row>
+    <row r="471" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -37394,8 +37919,9 @@
       <c r="BW471" s="7"/>
       <c r="BX471" s="7"/>
       <c r="BY471" s="7"/>
-    </row>
-    <row r="472" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ471" s="7"/>
+    </row>
+    <row r="472" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -37473,8 +37999,9 @@
       <c r="BW472" s="7"/>
       <c r="BX472" s="7"/>
       <c r="BY472" s="7"/>
-    </row>
-    <row r="473" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ472" s="7"/>
+    </row>
+    <row r="473" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -37552,8 +38079,9 @@
       <c r="BW473" s="7"/>
       <c r="BX473" s="7"/>
       <c r="BY473" s="7"/>
-    </row>
-    <row r="474" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ473" s="7"/>
+    </row>
+    <row r="474" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -37631,8 +38159,9 @@
       <c r="BW474" s="7"/>
       <c r="BX474" s="7"/>
       <c r="BY474" s="7"/>
-    </row>
-    <row r="475" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ474" s="7"/>
+    </row>
+    <row r="475" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -37710,8 +38239,9 @@
       <c r="BW475" s="7"/>
       <c r="BX475" s="7"/>
       <c r="BY475" s="7"/>
-    </row>
-    <row r="476" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ475" s="7"/>
+    </row>
+    <row r="476" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -37789,8 +38319,9 @@
       <c r="BW476" s="7"/>
       <c r="BX476" s="7"/>
       <c r="BY476" s="7"/>
-    </row>
-    <row r="477" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ476" s="7"/>
+    </row>
+    <row r="477" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -37868,8 +38399,9 @@
       <c r="BW477" s="7"/>
       <c r="BX477" s="7"/>
       <c r="BY477" s="7"/>
-    </row>
-    <row r="478" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ477" s="7"/>
+    </row>
+    <row r="478" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -37947,8 +38479,9 @@
       <c r="BW478" s="7"/>
       <c r="BX478" s="7"/>
       <c r="BY478" s="7"/>
-    </row>
-    <row r="479" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ478" s="7"/>
+    </row>
+    <row r="479" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -38026,8 +38559,9 @@
       <c r="BW479" s="7"/>
       <c r="BX479" s="7"/>
       <c r="BY479" s="7"/>
-    </row>
-    <row r="480" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ479" s="7"/>
+    </row>
+    <row r="480" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -38105,8 +38639,9 @@
       <c r="BW480" s="7"/>
       <c r="BX480" s="7"/>
       <c r="BY480" s="7"/>
-    </row>
-    <row r="481" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ480" s="7"/>
+    </row>
+    <row r="481" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -38184,8 +38719,9 @@
       <c r="BW481" s="7"/>
       <c r="BX481" s="7"/>
       <c r="BY481" s="7"/>
-    </row>
-    <row r="482" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ481" s="7"/>
+    </row>
+    <row r="482" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -38263,8 +38799,9 @@
       <c r="BW482" s="7"/>
       <c r="BX482" s="7"/>
       <c r="BY482" s="7"/>
-    </row>
-    <row r="483" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ482" s="7"/>
+    </row>
+    <row r="483" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -38342,8 +38879,9 @@
       <c r="BW483" s="7"/>
       <c r="BX483" s="7"/>
       <c r="BY483" s="7"/>
-    </row>
-    <row r="484" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ483" s="7"/>
+    </row>
+    <row r="484" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -38421,8 +38959,9 @@
       <c r="BW484" s="7"/>
       <c r="BX484" s="7"/>
       <c r="BY484" s="7"/>
-    </row>
-    <row r="485" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ484" s="7"/>
+    </row>
+    <row r="485" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -38500,8 +39039,9 @@
       <c r="BW485" s="7"/>
       <c r="BX485" s="7"/>
       <c r="BY485" s="7"/>
-    </row>
-    <row r="486" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ485" s="7"/>
+    </row>
+    <row r="486" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -38579,8 +39119,9 @@
       <c r="BW486" s="7"/>
       <c r="BX486" s="7"/>
       <c r="BY486" s="7"/>
-    </row>
-    <row r="487" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ486" s="7"/>
+    </row>
+    <row r="487" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -38658,8 +39199,9 @@
       <c r="BW487" s="7"/>
       <c r="BX487" s="7"/>
       <c r="BY487" s="7"/>
-    </row>
-    <row r="488" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ487" s="7"/>
+    </row>
+    <row r="488" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -38737,8 +39279,9 @@
       <c r="BW488" s="7"/>
       <c r="BX488" s="7"/>
       <c r="BY488" s="7"/>
-    </row>
-    <row r="489" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ488" s="7"/>
+    </row>
+    <row r="489" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -38816,8 +39359,9 @@
       <c r="BW489" s="7"/>
       <c r="BX489" s="7"/>
       <c r="BY489" s="7"/>
-    </row>
-    <row r="490" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ489" s="7"/>
+    </row>
+    <row r="490" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -38895,8 +39439,9 @@
       <c r="BW490" s="7"/>
       <c r="BX490" s="7"/>
       <c r="BY490" s="7"/>
-    </row>
-    <row r="491" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ490" s="7"/>
+    </row>
+    <row r="491" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -38974,8 +39519,9 @@
       <c r="BW491" s="7"/>
       <c r="BX491" s="7"/>
       <c r="BY491" s="7"/>
-    </row>
-    <row r="492" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ491" s="7"/>
+    </row>
+    <row r="492" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -39053,8 +39599,9 @@
       <c r="BW492" s="7"/>
       <c r="BX492" s="7"/>
       <c r="BY492" s="7"/>
-    </row>
-    <row r="493" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ492" s="7"/>
+    </row>
+    <row r="493" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -39132,8 +39679,9 @@
       <c r="BW493" s="7"/>
       <c r="BX493" s="7"/>
       <c r="BY493" s="7"/>
-    </row>
-    <row r="494" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ493" s="7"/>
+    </row>
+    <row r="494" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -39211,8 +39759,9 @@
       <c r="BW494" s="7"/>
       <c r="BX494" s="7"/>
       <c r="BY494" s="7"/>
-    </row>
-    <row r="495" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ494" s="7"/>
+    </row>
+    <row r="495" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -39290,8 +39839,9 @@
       <c r="BW495" s="7"/>
       <c r="BX495" s="7"/>
       <c r="BY495" s="7"/>
-    </row>
-    <row r="496" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ495" s="7"/>
+    </row>
+    <row r="496" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -39369,8 +39919,9 @@
       <c r="BW496" s="7"/>
       <c r="BX496" s="7"/>
       <c r="BY496" s="7"/>
-    </row>
-    <row r="497" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ496" s="7"/>
+    </row>
+    <row r="497" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -39448,8 +39999,9 @@
       <c r="BW497" s="7"/>
       <c r="BX497" s="7"/>
       <c r="BY497" s="7"/>
-    </row>
-    <row r="498" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ497" s="7"/>
+    </row>
+    <row r="498" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -39527,8 +40079,9 @@
       <c r="BW498" s="7"/>
       <c r="BX498" s="7"/>
       <c r="BY498" s="7"/>
-    </row>
-    <row r="499" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ498" s="7"/>
+    </row>
+    <row r="499" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -39606,8 +40159,9 @@
       <c r="BW499" s="7"/>
       <c r="BX499" s="7"/>
       <c r="BY499" s="7"/>
-    </row>
-    <row r="500" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ499" s="7"/>
+    </row>
+    <row r="500" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -39685,8 +40239,9 @@
       <c r="BW500" s="7"/>
       <c r="BX500" s="7"/>
       <c r="BY500" s="7"/>
-    </row>
-    <row r="501" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ500" s="7"/>
+    </row>
+    <row r="501" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -39764,8 +40319,9 @@
       <c r="BW501" s="7"/>
       <c r="BX501" s="7"/>
       <c r="BY501" s="7"/>
-    </row>
-    <row r="502" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ501" s="7"/>
+    </row>
+    <row r="502" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -39843,8 +40399,9 @@
       <c r="BW502" s="7"/>
       <c r="BX502" s="7"/>
       <c r="BY502" s="7"/>
-    </row>
-    <row r="503" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ502" s="7"/>
+    </row>
+    <row r="503" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -39922,8 +40479,9 @@
       <c r="BW503" s="7"/>
       <c r="BX503" s="7"/>
       <c r="BY503" s="7"/>
-    </row>
-    <row r="504" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ503" s="7"/>
+    </row>
+    <row r="504" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -40001,8 +40559,9 @@
       <c r="BW504" s="7"/>
       <c r="BX504" s="7"/>
       <c r="BY504" s="7"/>
-    </row>
-    <row r="505" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ504" s="7"/>
+    </row>
+    <row r="505" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -40080,8 +40639,9 @@
       <c r="BW505" s="7"/>
       <c r="BX505" s="7"/>
       <c r="BY505" s="7"/>
-    </row>
-    <row r="506" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ505" s="7"/>
+    </row>
+    <row r="506" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -40159,8 +40719,9 @@
       <c r="BW506" s="7"/>
       <c r="BX506" s="7"/>
       <c r="BY506" s="7"/>
-    </row>
-    <row r="507" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ506" s="7"/>
+    </row>
+    <row r="507" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -40238,8 +40799,9 @@
       <c r="BW507" s="7"/>
       <c r="BX507" s="7"/>
       <c r="BY507" s="7"/>
-    </row>
-    <row r="508" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ507" s="7"/>
+    </row>
+    <row r="508" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -40317,8 +40879,9 @@
       <c r="BW508" s="7"/>
       <c r="BX508" s="7"/>
       <c r="BY508" s="7"/>
-    </row>
-    <row r="509" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ508" s="7"/>
+    </row>
+    <row r="509" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -40396,8 +40959,9 @@
       <c r="BW509" s="7"/>
       <c r="BX509" s="7"/>
       <c r="BY509" s="7"/>
-    </row>
-    <row r="510" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ509" s="7"/>
+    </row>
+    <row r="510" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -40475,8 +41039,9 @@
       <c r="BW510" s="7"/>
       <c r="BX510" s="7"/>
       <c r="BY510" s="7"/>
-    </row>
-    <row r="511" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ510" s="7"/>
+    </row>
+    <row r="511" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -40554,8 +41119,9 @@
       <c r="BW511" s="7"/>
       <c r="BX511" s="7"/>
       <c r="BY511" s="7"/>
-    </row>
-    <row r="512" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ511" s="7"/>
+    </row>
+    <row r="512" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -40633,8 +41199,9 @@
       <c r="BW512" s="7"/>
       <c r="BX512" s="7"/>
       <c r="BY512" s="7"/>
-    </row>
-    <row r="513" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ512" s="7"/>
+    </row>
+    <row r="513" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -40712,8 +41279,9 @@
       <c r="BW513" s="7"/>
       <c r="BX513" s="7"/>
       <c r="BY513" s="7"/>
-    </row>
-    <row r="514" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ513" s="7"/>
+    </row>
+    <row r="514" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -40791,8 +41359,9 @@
       <c r="BW514" s="7"/>
       <c r="BX514" s="7"/>
       <c r="BY514" s="7"/>
-    </row>
-    <row r="515" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ514" s="7"/>
+    </row>
+    <row r="515" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -40870,8 +41439,9 @@
       <c r="BW515" s="7"/>
       <c r="BX515" s="7"/>
       <c r="BY515" s="7"/>
-    </row>
-    <row r="516" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ515" s="7"/>
+    </row>
+    <row r="516" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -40949,8 +41519,9 @@
       <c r="BW516" s="7"/>
       <c r="BX516" s="7"/>
       <c r="BY516" s="7"/>
-    </row>
-    <row r="517" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ516" s="7"/>
+    </row>
+    <row r="517" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -41028,8 +41599,9 @@
       <c r="BW517" s="7"/>
       <c r="BX517" s="7"/>
       <c r="BY517" s="7"/>
-    </row>
-    <row r="518" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ517" s="7"/>
+    </row>
+    <row r="518" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -41107,8 +41679,9 @@
       <c r="BW518" s="7"/>
       <c r="BX518" s="7"/>
       <c r="BY518" s="7"/>
-    </row>
-    <row r="519" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ518" s="7"/>
+    </row>
+    <row r="519" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -41186,8 +41759,9 @@
       <c r="BW519" s="7"/>
       <c r="BX519" s="7"/>
       <c r="BY519" s="7"/>
-    </row>
-    <row r="520" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ519" s="7"/>
+    </row>
+    <row r="520" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -41265,8 +41839,9 @@
       <c r="BW520" s="7"/>
       <c r="BX520" s="7"/>
       <c r="BY520" s="7"/>
-    </row>
-    <row r="521" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ520" s="7"/>
+    </row>
+    <row r="521" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -41344,8 +41919,9 @@
       <c r="BW521" s="7"/>
       <c r="BX521" s="7"/>
       <c r="BY521" s="7"/>
-    </row>
-    <row r="522" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ521" s="7"/>
+    </row>
+    <row r="522" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -41423,8 +41999,9 @@
       <c r="BW522" s="7"/>
       <c r="BX522" s="7"/>
       <c r="BY522" s="7"/>
-    </row>
-    <row r="523" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ522" s="7"/>
+    </row>
+    <row r="523" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -41502,8 +42079,9 @@
       <c r="BW523" s="7"/>
       <c r="BX523" s="7"/>
       <c r="BY523" s="7"/>
-    </row>
-    <row r="524" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ523" s="7"/>
+    </row>
+    <row r="524" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -41581,8 +42159,9 @@
       <c r="BW524" s="7"/>
       <c r="BX524" s="7"/>
       <c r="BY524" s="7"/>
-    </row>
-    <row r="525" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ524" s="7"/>
+    </row>
+    <row r="525" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -41660,8 +42239,9 @@
       <c r="BW525" s="7"/>
       <c r="BX525" s="7"/>
       <c r="BY525" s="7"/>
-    </row>
-    <row r="526" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ525" s="7"/>
+    </row>
+    <row r="526" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -41739,8 +42319,9 @@
       <c r="BW526" s="7"/>
       <c r="BX526" s="7"/>
       <c r="BY526" s="7"/>
-    </row>
-    <row r="527" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ526" s="7"/>
+    </row>
+    <row r="527" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -41818,8 +42399,9 @@
       <c r="BW527" s="7"/>
       <c r="BX527" s="7"/>
       <c r="BY527" s="7"/>
-    </row>
-    <row r="528" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ527" s="7"/>
+    </row>
+    <row r="528" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -41897,8 +42479,9 @@
       <c r="BW528" s="7"/>
       <c r="BX528" s="7"/>
       <c r="BY528" s="7"/>
-    </row>
-    <row r="529" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ528" s="7"/>
+    </row>
+    <row r="529" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -41976,8 +42559,9 @@
       <c r="BW529" s="7"/>
       <c r="BX529" s="7"/>
       <c r="BY529" s="7"/>
-    </row>
-    <row r="530" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ529" s="7"/>
+    </row>
+    <row r="530" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -42055,8 +42639,9 @@
       <c r="BW530" s="7"/>
       <c r="BX530" s="7"/>
       <c r="BY530" s="7"/>
-    </row>
-    <row r="531" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ530" s="7"/>
+    </row>
+    <row r="531" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -42134,8 +42719,9 @@
       <c r="BW531" s="7"/>
       <c r="BX531" s="7"/>
       <c r="BY531" s="7"/>
-    </row>
-    <row r="532" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ531" s="7"/>
+    </row>
+    <row r="532" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -42213,8 +42799,9 @@
       <c r="BW532" s="7"/>
       <c r="BX532" s="7"/>
       <c r="BY532" s="7"/>
-    </row>
-    <row r="533" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ532" s="7"/>
+    </row>
+    <row r="533" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -42292,8 +42879,9 @@
       <c r="BW533" s="7"/>
       <c r="BX533" s="7"/>
       <c r="BY533" s="7"/>
-    </row>
-    <row r="534" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ533" s="7"/>
+    </row>
+    <row r="534" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -42371,8 +42959,9 @@
       <c r="BW534" s="7"/>
       <c r="BX534" s="7"/>
       <c r="BY534" s="7"/>
-    </row>
-    <row r="535" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ534" s="7"/>
+    </row>
+    <row r="535" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -42450,8 +43039,9 @@
       <c r="BW535" s="7"/>
       <c r="BX535" s="7"/>
       <c r="BY535" s="7"/>
-    </row>
-    <row r="536" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ535" s="7"/>
+    </row>
+    <row r="536" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -42529,8 +43119,9 @@
       <c r="BW536" s="7"/>
       <c r="BX536" s="7"/>
       <c r="BY536" s="7"/>
-    </row>
-    <row r="537" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ536" s="7"/>
+    </row>
+    <row r="537" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -42608,8 +43199,9 @@
       <c r="BW537" s="7"/>
       <c r="BX537" s="7"/>
       <c r="BY537" s="7"/>
-    </row>
-    <row r="538" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ537" s="7"/>
+    </row>
+    <row r="538" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -42687,8 +43279,9 @@
       <c r="BW538" s="7"/>
       <c r="BX538" s="7"/>
       <c r="BY538" s="7"/>
-    </row>
-    <row r="539" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ538" s="7"/>
+    </row>
+    <row r="539" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -42766,8 +43359,9 @@
       <c r="BW539" s="7"/>
       <c r="BX539" s="7"/>
       <c r="BY539" s="7"/>
-    </row>
-    <row r="540" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ539" s="7"/>
+    </row>
+    <row r="540" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -42845,8 +43439,9 @@
       <c r="BW540" s="7"/>
       <c r="BX540" s="7"/>
       <c r="BY540" s="7"/>
-    </row>
-    <row r="541" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ540" s="7"/>
+    </row>
+    <row r="541" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -42924,8 +43519,9 @@
       <c r="BW541" s="7"/>
       <c r="BX541" s="7"/>
       <c r="BY541" s="7"/>
-    </row>
-    <row r="542" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ541" s="7"/>
+    </row>
+    <row r="542" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -43003,8 +43599,9 @@
       <c r="BW542" s="7"/>
       <c r="BX542" s="7"/>
       <c r="BY542" s="7"/>
-    </row>
-    <row r="543" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ542" s="7"/>
+    </row>
+    <row r="543" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -43082,8 +43679,9 @@
       <c r="BW543" s="7"/>
       <c r="BX543" s="7"/>
       <c r="BY543" s="7"/>
-    </row>
-    <row r="544" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ543" s="7"/>
+    </row>
+    <row r="544" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -43161,8 +43759,9 @@
       <c r="BW544" s="7"/>
       <c r="BX544" s="7"/>
       <c r="BY544" s="7"/>
-    </row>
-    <row r="545" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ544" s="7"/>
+    </row>
+    <row r="545" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -43240,8 +43839,9 @@
       <c r="BW545" s="7"/>
       <c r="BX545" s="7"/>
       <c r="BY545" s="7"/>
-    </row>
-    <row r="546" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ545" s="7"/>
+    </row>
+    <row r="546" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -43319,8 +43919,9 @@
       <c r="BW546" s="7"/>
       <c r="BX546" s="7"/>
       <c r="BY546" s="7"/>
-    </row>
-    <row r="547" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ546" s="7"/>
+    </row>
+    <row r="547" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -43398,8 +43999,9 @@
       <c r="BW547" s="7"/>
       <c r="BX547" s="7"/>
       <c r="BY547" s="7"/>
-    </row>
-    <row r="548" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ547" s="7"/>
+    </row>
+    <row r="548" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -43477,8 +44079,9 @@
       <c r="BW548" s="7"/>
       <c r="BX548" s="7"/>
       <c r="BY548" s="7"/>
-    </row>
-    <row r="549" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ548" s="7"/>
+    </row>
+    <row r="549" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -43556,8 +44159,9 @@
       <c r="BW549" s="7"/>
       <c r="BX549" s="7"/>
       <c r="BY549" s="7"/>
-    </row>
-    <row r="550" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ549" s="7"/>
+    </row>
+    <row r="550" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -43635,8 +44239,9 @@
       <c r="BW550" s="7"/>
       <c r="BX550" s="7"/>
       <c r="BY550" s="7"/>
-    </row>
-    <row r="551" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ550" s="7"/>
+    </row>
+    <row r="551" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -43714,8 +44319,9 @@
       <c r="BW551" s="7"/>
       <c r="BX551" s="7"/>
       <c r="BY551" s="7"/>
-    </row>
-    <row r="552" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ551" s="7"/>
+    </row>
+    <row r="552" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -43793,8 +44399,9 @@
       <c r="BW552" s="7"/>
       <c r="BX552" s="7"/>
       <c r="BY552" s="7"/>
-    </row>
-    <row r="553" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ552" s="7"/>
+    </row>
+    <row r="553" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -43872,8 +44479,9 @@
       <c r="BW553" s="7"/>
       <c r="BX553" s="7"/>
       <c r="BY553" s="7"/>
-    </row>
-    <row r="554" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ553" s="7"/>
+    </row>
+    <row r="554" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -43951,8 +44559,9 @@
       <c r="BW554" s="7"/>
       <c r="BX554" s="7"/>
       <c r="BY554" s="7"/>
-    </row>
-    <row r="555" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ554" s="7"/>
+    </row>
+    <row r="555" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -44030,8 +44639,9 @@
       <c r="BW555" s="7"/>
       <c r="BX555" s="7"/>
       <c r="BY555" s="7"/>
-    </row>
-    <row r="556" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ555" s="7"/>
+    </row>
+    <row r="556" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -44109,8 +44719,9 @@
       <c r="BW556" s="7"/>
       <c r="BX556" s="7"/>
       <c r="BY556" s="7"/>
-    </row>
-    <row r="557" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ556" s="7"/>
+    </row>
+    <row r="557" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -44188,8 +44799,9 @@
       <c r="BW557" s="7"/>
       <c r="BX557" s="7"/>
       <c r="BY557" s="7"/>
-    </row>
-    <row r="558" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ557" s="7"/>
+    </row>
+    <row r="558" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -44267,8 +44879,9 @@
       <c r="BW558" s="7"/>
       <c r="BX558" s="7"/>
       <c r="BY558" s="7"/>
-    </row>
-    <row r="559" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ558" s="7"/>
+    </row>
+    <row r="559" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -44346,8 +44959,9 @@
       <c r="BW559" s="7"/>
       <c r="BX559" s="7"/>
       <c r="BY559" s="7"/>
-    </row>
-    <row r="560" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ559" s="7"/>
+    </row>
+    <row r="560" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -44425,8 +45039,9 @@
       <c r="BW560" s="7"/>
       <c r="BX560" s="7"/>
       <c r="BY560" s="7"/>
-    </row>
-    <row r="561" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ560" s="7"/>
+    </row>
+    <row r="561" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -44504,8 +45119,9 @@
       <c r="BW561" s="7"/>
       <c r="BX561" s="7"/>
       <c r="BY561" s="7"/>
-    </row>
-    <row r="562" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ561" s="7"/>
+    </row>
+    <row r="562" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -44583,8 +45199,9 @@
       <c r="BW562" s="7"/>
       <c r="BX562" s="7"/>
       <c r="BY562" s="7"/>
-    </row>
-    <row r="563" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ562" s="7"/>
+    </row>
+    <row r="563" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -44662,8 +45279,9 @@
       <c r="BW563" s="7"/>
       <c r="BX563" s="7"/>
       <c r="BY563" s="7"/>
-    </row>
-    <row r="564" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ563" s="7"/>
+    </row>
+    <row r="564" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -44741,8 +45359,9 @@
       <c r="BW564" s="7"/>
       <c r="BX564" s="7"/>
       <c r="BY564" s="7"/>
-    </row>
-    <row r="565" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ564" s="7"/>
+    </row>
+    <row r="565" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -44820,8 +45439,9 @@
       <c r="BW565" s="7"/>
       <c r="BX565" s="7"/>
       <c r="BY565" s="7"/>
-    </row>
-    <row r="566" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ565" s="7"/>
+    </row>
+    <row r="566" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -44899,8 +45519,9 @@
       <c r="BW566" s="7"/>
       <c r="BX566" s="7"/>
       <c r="BY566" s="7"/>
-    </row>
-    <row r="567" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ566" s="7"/>
+    </row>
+    <row r="567" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -44978,8 +45599,9 @@
       <c r="BW567" s="7"/>
       <c r="BX567" s="7"/>
       <c r="BY567" s="7"/>
-    </row>
-    <row r="568" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ567" s="7"/>
+    </row>
+    <row r="568" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -45057,8 +45679,9 @@
       <c r="BW568" s="7"/>
       <c r="BX568" s="7"/>
       <c r="BY568" s="7"/>
-    </row>
-    <row r="569" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ568" s="7"/>
+    </row>
+    <row r="569" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -45136,8 +45759,9 @@
       <c r="BW569" s="7"/>
       <c r="BX569" s="7"/>
       <c r="BY569" s="7"/>
-    </row>
-    <row r="570" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ569" s="7"/>
+    </row>
+    <row r="570" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -45215,8 +45839,9 @@
       <c r="BW570" s="7"/>
       <c r="BX570" s="7"/>
       <c r="BY570" s="7"/>
-    </row>
-    <row r="571" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ570" s="7"/>
+    </row>
+    <row r="571" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -45294,8 +45919,9 @@
       <c r="BW571" s="7"/>
       <c r="BX571" s="7"/>
       <c r="BY571" s="7"/>
-    </row>
-    <row r="572" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ571" s="7"/>
+    </row>
+    <row r="572" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -45373,8 +45999,9 @@
       <c r="BW572" s="7"/>
       <c r="BX572" s="7"/>
       <c r="BY572" s="7"/>
-    </row>
-    <row r="573" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ572" s="7"/>
+    </row>
+    <row r="573" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -45452,8 +46079,9 @@
       <c r="BW573" s="7"/>
       <c r="BX573" s="7"/>
       <c r="BY573" s="7"/>
-    </row>
-    <row r="574" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ573" s="7"/>
+    </row>
+    <row r="574" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -45531,8 +46159,9 @@
       <c r="BW574" s="7"/>
       <c r="BX574" s="7"/>
       <c r="BY574" s="7"/>
-    </row>
-    <row r="575" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ574" s="7"/>
+    </row>
+    <row r="575" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -45610,8 +46239,9 @@
       <c r="BW575" s="7"/>
       <c r="BX575" s="7"/>
       <c r="BY575" s="7"/>
-    </row>
-    <row r="576" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ575" s="7"/>
+    </row>
+    <row r="576" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -45689,8 +46319,9 @@
       <c r="BW576" s="7"/>
       <c r="BX576" s="7"/>
       <c r="BY576" s="7"/>
-    </row>
-    <row r="577" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ576" s="7"/>
+    </row>
+    <row r="577" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -45768,8 +46399,9 @@
       <c r="BW577" s="7"/>
       <c r="BX577" s="7"/>
       <c r="BY577" s="7"/>
-    </row>
-    <row r="578" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ577" s="7"/>
+    </row>
+    <row r="578" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -45847,8 +46479,9 @@
       <c r="BW578" s="7"/>
       <c r="BX578" s="7"/>
       <c r="BY578" s="7"/>
-    </row>
-    <row r="579" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ578" s="7"/>
+    </row>
+    <row r="579" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -45926,8 +46559,9 @@
       <c r="BW579" s="7"/>
       <c r="BX579" s="7"/>
       <c r="BY579" s="7"/>
-    </row>
-    <row r="580" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ579" s="7"/>
+    </row>
+    <row r="580" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -46005,8 +46639,9 @@
       <c r="BW580" s="7"/>
       <c r="BX580" s="7"/>
       <c r="BY580" s="7"/>
-    </row>
-    <row r="581" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ580" s="7"/>
+    </row>
+    <row r="581" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -46084,8 +46719,9 @@
       <c r="BW581" s="7"/>
       <c r="BX581" s="7"/>
       <c r="BY581" s="7"/>
-    </row>
-    <row r="582" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ581" s="7"/>
+    </row>
+    <row r="582" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -46163,8 +46799,9 @@
       <c r="BW582" s="7"/>
       <c r="BX582" s="7"/>
       <c r="BY582" s="7"/>
-    </row>
-    <row r="583" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ582" s="7"/>
+    </row>
+    <row r="583" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -46242,8 +46879,9 @@
       <c r="BW583" s="7"/>
       <c r="BX583" s="7"/>
       <c r="BY583" s="7"/>
-    </row>
-    <row r="584" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ583" s="7"/>
+    </row>
+    <row r="584" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -46321,8 +46959,9 @@
       <c r="BW584" s="7"/>
       <c r="BX584" s="7"/>
       <c r="BY584" s="7"/>
-    </row>
-    <row r="585" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ584" s="7"/>
+    </row>
+    <row r="585" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -46400,8 +47039,9 @@
       <c r="BW585" s="7"/>
       <c r="BX585" s="7"/>
       <c r="BY585" s="7"/>
-    </row>
-    <row r="586" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ585" s="7"/>
+    </row>
+    <row r="586" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -46479,8 +47119,9 @@
       <c r="BW586" s="7"/>
       <c r="BX586" s="7"/>
       <c r="BY586" s="7"/>
-    </row>
-    <row r="587" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ586" s="7"/>
+    </row>
+    <row r="587" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -46558,8 +47199,9 @@
       <c r="BW587" s="7"/>
       <c r="BX587" s="7"/>
       <c r="BY587" s="7"/>
-    </row>
-    <row r="588" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ587" s="7"/>
+    </row>
+    <row r="588" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -46637,8 +47279,9 @@
       <c r="BW588" s="7"/>
       <c r="BX588" s="7"/>
       <c r="BY588" s="7"/>
-    </row>
-    <row r="589" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ588" s="7"/>
+    </row>
+    <row r="589" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -46716,8 +47359,9 @@
       <c r="BW589" s="7"/>
       <c r="BX589" s="7"/>
       <c r="BY589" s="7"/>
-    </row>
-    <row r="590" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ589" s="7"/>
+    </row>
+    <row r="590" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -46795,8 +47439,9 @@
       <c r="BW590" s="7"/>
       <c r="BX590" s="7"/>
       <c r="BY590" s="7"/>
-    </row>
-    <row r="591" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ590" s="7"/>
+    </row>
+    <row r="591" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -46874,8 +47519,9 @@
       <c r="BW591" s="7"/>
       <c r="BX591" s="7"/>
       <c r="BY591" s="7"/>
-    </row>
-    <row r="592" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ591" s="7"/>
+    </row>
+    <row r="592" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -46953,8 +47599,9 @@
       <c r="BW592" s="7"/>
       <c r="BX592" s="7"/>
       <c r="BY592" s="7"/>
-    </row>
-    <row r="593" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ592" s="7"/>
+    </row>
+    <row r="593" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -47032,8 +47679,9 @@
       <c r="BW593" s="7"/>
       <c r="BX593" s="7"/>
       <c r="BY593" s="7"/>
-    </row>
-    <row r="594" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ593" s="7"/>
+    </row>
+    <row r="594" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -47111,8 +47759,9 @@
       <c r="BW594" s="7"/>
       <c r="BX594" s="7"/>
       <c r="BY594" s="7"/>
-    </row>
-    <row r="595" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ594" s="7"/>
+    </row>
+    <row r="595" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -47190,8 +47839,9 @@
       <c r="BW595" s="7"/>
       <c r="BX595" s="7"/>
       <c r="BY595" s="7"/>
-    </row>
-    <row r="596" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ595" s="7"/>
+    </row>
+    <row r="596" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -47269,8 +47919,9 @@
       <c r="BW596" s="7"/>
       <c r="BX596" s="7"/>
       <c r="BY596" s="7"/>
-    </row>
-    <row r="597" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ596" s="7"/>
+    </row>
+    <row r="597" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -47348,8 +47999,9 @@
       <c r="BW597" s="7"/>
       <c r="BX597" s="7"/>
       <c r="BY597" s="7"/>
-    </row>
-    <row r="598" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ597" s="7"/>
+    </row>
+    <row r="598" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -47427,8 +48079,9 @@
       <c r="BW598" s="7"/>
       <c r="BX598" s="7"/>
       <c r="BY598" s="7"/>
-    </row>
-    <row r="599" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ598" s="7"/>
+    </row>
+    <row r="599" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -47506,8 +48159,9 @@
       <c r="BW599" s="7"/>
       <c r="BX599" s="7"/>
       <c r="BY599" s="7"/>
-    </row>
-    <row r="600" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ599" s="7"/>
+    </row>
+    <row r="600" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -47585,8 +48239,9 @@
       <c r="BW600" s="7"/>
       <c r="BX600" s="7"/>
       <c r="BY600" s="7"/>
-    </row>
-    <row r="601" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ600" s="7"/>
+    </row>
+    <row r="601" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -47664,8 +48319,9 @@
       <c r="BW601" s="7"/>
       <c r="BX601" s="7"/>
       <c r="BY601" s="7"/>
-    </row>
-    <row r="602" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ601" s="7"/>
+    </row>
+    <row r="602" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -47743,8 +48399,9 @@
       <c r="BW602" s="7"/>
       <c r="BX602" s="7"/>
       <c r="BY602" s="7"/>
-    </row>
-    <row r="603" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ602" s="7"/>
+    </row>
+    <row r="603" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -47822,8 +48479,9 @@
       <c r="BW603" s="7"/>
       <c r="BX603" s="7"/>
       <c r="BY603" s="7"/>
-    </row>
-    <row r="604" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ603" s="7"/>
+    </row>
+    <row r="604" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -47901,8 +48559,9 @@
       <c r="BW604" s="7"/>
       <c r="BX604" s="7"/>
       <c r="BY604" s="7"/>
-    </row>
-    <row r="605" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ604" s="7"/>
+    </row>
+    <row r="605" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -47980,8 +48639,9 @@
       <c r="BW605" s="7"/>
       <c r="BX605" s="7"/>
       <c r="BY605" s="7"/>
-    </row>
-    <row r="606" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ605" s="7"/>
+    </row>
+    <row r="606" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -48059,8 +48719,9 @@
       <c r="BW606" s="7"/>
       <c r="BX606" s="7"/>
       <c r="BY606" s="7"/>
-    </row>
-    <row r="607" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ606" s="7"/>
+    </row>
+    <row r="607" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -48138,8 +48799,9 @@
       <c r="BW607" s="7"/>
       <c r="BX607" s="7"/>
       <c r="BY607" s="7"/>
-    </row>
-    <row r="608" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ607" s="7"/>
+    </row>
+    <row r="608" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -48217,8 +48879,9 @@
       <c r="BW608" s="7"/>
       <c r="BX608" s="7"/>
       <c r="BY608" s="7"/>
-    </row>
-    <row r="609" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ608" s="7"/>
+    </row>
+    <row r="609" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -48296,8 +48959,9 @@
       <c r="BW609" s="7"/>
       <c r="BX609" s="7"/>
       <c r="BY609" s="7"/>
-    </row>
-    <row r="610" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ609" s="7"/>
+    </row>
+    <row r="610" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -48375,8 +49039,9 @@
       <c r="BW610" s="7"/>
       <c r="BX610" s="7"/>
       <c r="BY610" s="7"/>
-    </row>
-    <row r="611" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ610" s="7"/>
+    </row>
+    <row r="611" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -48454,8 +49119,9 @@
       <c r="BW611" s="7"/>
       <c r="BX611" s="7"/>
       <c r="BY611" s="7"/>
-    </row>
-    <row r="612" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ611" s="7"/>
+    </row>
+    <row r="612" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -48533,8 +49199,9 @@
       <c r="BW612" s="7"/>
       <c r="BX612" s="7"/>
       <c r="BY612" s="7"/>
-    </row>
-    <row r="613" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ612" s="7"/>
+    </row>
+    <row r="613" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -48612,8 +49279,9 @@
       <c r="BW613" s="7"/>
       <c r="BX613" s="7"/>
       <c r="BY613" s="7"/>
-    </row>
-    <row r="614" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ613" s="7"/>
+    </row>
+    <row r="614" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -48691,8 +49359,9 @@
       <c r="BW614" s="7"/>
       <c r="BX614" s="7"/>
       <c r="BY614" s="7"/>
-    </row>
-    <row r="615" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ614" s="7"/>
+    </row>
+    <row r="615" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -48770,8 +49439,9 @@
       <c r="BW615" s="7"/>
       <c r="BX615" s="7"/>
       <c r="BY615" s="7"/>
-    </row>
-    <row r="616" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ615" s="7"/>
+    </row>
+    <row r="616" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -48849,8 +49519,9 @@
       <c r="BW616" s="7"/>
       <c r="BX616" s="7"/>
       <c r="BY616" s="7"/>
-    </row>
-    <row r="617" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ616" s="7"/>
+    </row>
+    <row r="617" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -48928,8 +49599,9 @@
       <c r="BW617" s="7"/>
       <c r="BX617" s="7"/>
       <c r="BY617" s="7"/>
-    </row>
-    <row r="618" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ617" s="7"/>
+    </row>
+    <row r="618" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -49007,8 +49679,9 @@
       <c r="BW618" s="7"/>
       <c r="BX618" s="7"/>
       <c r="BY618" s="7"/>
-    </row>
-    <row r="619" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ618" s="7"/>
+    </row>
+    <row r="619" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -49086,8 +49759,9 @@
       <c r="BW619" s="7"/>
       <c r="BX619" s="7"/>
       <c r="BY619" s="7"/>
-    </row>
-    <row r="620" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ619" s="7"/>
+    </row>
+    <row r="620" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -49165,8 +49839,9 @@
       <c r="BW620" s="7"/>
       <c r="BX620" s="7"/>
       <c r="BY620" s="7"/>
-    </row>
-    <row r="621" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ620" s="7"/>
+    </row>
+    <row r="621" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -49244,8 +49919,9 @@
       <c r="BW621" s="7"/>
       <c r="BX621" s="7"/>
       <c r="BY621" s="7"/>
-    </row>
-    <row r="622" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ621" s="7"/>
+    </row>
+    <row r="622" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -49323,8 +49999,9 @@
       <c r="BW622" s="7"/>
       <c r="BX622" s="7"/>
       <c r="BY622" s="7"/>
-    </row>
-    <row r="623" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ622" s="7"/>
+    </row>
+    <row r="623" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -49402,8 +50079,9 @@
       <c r="BW623" s="7"/>
       <c r="BX623" s="7"/>
       <c r="BY623" s="7"/>
-    </row>
-    <row r="624" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ623" s="7"/>
+    </row>
+    <row r="624" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -49481,8 +50159,9 @@
       <c r="BW624" s="7"/>
       <c r="BX624" s="7"/>
       <c r="BY624" s="7"/>
-    </row>
-    <row r="625" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ624" s="7"/>
+    </row>
+    <row r="625" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -49560,8 +50239,9 @@
       <c r="BW625" s="7"/>
       <c r="BX625" s="7"/>
       <c r="BY625" s="7"/>
-    </row>
-    <row r="626" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ625" s="7"/>
+    </row>
+    <row r="626" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -49639,8 +50319,9 @@
       <c r="BW626" s="7"/>
       <c r="BX626" s="7"/>
       <c r="BY626" s="7"/>
-    </row>
-    <row r="627" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ626" s="7"/>
+    </row>
+    <row r="627" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -49718,8 +50399,9 @@
       <c r="BW627" s="7"/>
       <c r="BX627" s="7"/>
       <c r="BY627" s="7"/>
-    </row>
-    <row r="628" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ627" s="7"/>
+    </row>
+    <row r="628" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -49797,8 +50479,9 @@
       <c r="BW628" s="7"/>
       <c r="BX628" s="7"/>
       <c r="BY628" s="7"/>
-    </row>
-    <row r="629" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ628" s="7"/>
+    </row>
+    <row r="629" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -49876,8 +50559,9 @@
       <c r="BW629" s="7"/>
       <c r="BX629" s="7"/>
       <c r="BY629" s="7"/>
-    </row>
-    <row r="630" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ629" s="7"/>
+    </row>
+    <row r="630" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -49955,8 +50639,9 @@
       <c r="BW630" s="7"/>
       <c r="BX630" s="7"/>
       <c r="BY630" s="7"/>
-    </row>
-    <row r="631" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ630" s="7"/>
+    </row>
+    <row r="631" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -50034,8 +50719,9 @@
       <c r="BW631" s="7"/>
       <c r="BX631" s="7"/>
       <c r="BY631" s="7"/>
-    </row>
-    <row r="632" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ631" s="7"/>
+    </row>
+    <row r="632" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -50113,8 +50799,9 @@
       <c r="BW632" s="7"/>
       <c r="BX632" s="7"/>
       <c r="BY632" s="7"/>
-    </row>
-    <row r="633" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ632" s="7"/>
+    </row>
+    <row r="633" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -50192,8 +50879,9 @@
       <c r="BW633" s="7"/>
       <c r="BX633" s="7"/>
       <c r="BY633" s="7"/>
-    </row>
-    <row r="634" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ633" s="7"/>
+    </row>
+    <row r="634" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -50271,8 +50959,9 @@
       <c r="BW634" s="7"/>
       <c r="BX634" s="7"/>
       <c r="BY634" s="7"/>
-    </row>
-    <row r="635" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ634" s="7"/>
+    </row>
+    <row r="635" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -50350,8 +51039,9 @@
       <c r="BW635" s="7"/>
       <c r="BX635" s="7"/>
       <c r="BY635" s="7"/>
-    </row>
-    <row r="636" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ635" s="7"/>
+    </row>
+    <row r="636" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -50429,8 +51119,9 @@
       <c r="BW636" s="7"/>
       <c r="BX636" s="7"/>
       <c r="BY636" s="7"/>
-    </row>
-    <row r="637" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ636" s="7"/>
+    </row>
+    <row r="637" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -50508,8 +51199,9 @@
       <c r="BW637" s="7"/>
       <c r="BX637" s="7"/>
       <c r="BY637" s="7"/>
-    </row>
-    <row r="638" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ637" s="7"/>
+    </row>
+    <row r="638" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -50587,8 +51279,9 @@
       <c r="BW638" s="7"/>
       <c r="BX638" s="7"/>
       <c r="BY638" s="7"/>
-    </row>
-    <row r="639" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ638" s="7"/>
+    </row>
+    <row r="639" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -50666,8 +51359,9 @@
       <c r="BW639" s="7"/>
       <c r="BX639" s="7"/>
       <c r="BY639" s="7"/>
-    </row>
-    <row r="640" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ639" s="7"/>
+    </row>
+    <row r="640" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -50745,8 +51439,9 @@
       <c r="BW640" s="7"/>
       <c r="BX640" s="7"/>
       <c r="BY640" s="7"/>
-    </row>
-    <row r="641" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ640" s="7"/>
+    </row>
+    <row r="641" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -50824,8 +51519,9 @@
       <c r="BW641" s="7"/>
       <c r="BX641" s="7"/>
       <c r="BY641" s="7"/>
-    </row>
-    <row r="642" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ641" s="7"/>
+    </row>
+    <row r="642" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -50903,8 +51599,9 @@
       <c r="BW642" s="7"/>
       <c r="BX642" s="7"/>
       <c r="BY642" s="7"/>
-    </row>
-    <row r="643" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ642" s="7"/>
+    </row>
+    <row r="643" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -50982,8 +51679,9 @@
       <c r="BW643" s="7"/>
       <c r="BX643" s="7"/>
       <c r="BY643" s="7"/>
-    </row>
-    <row r="644" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ643" s="7"/>
+    </row>
+    <row r="644" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -51061,8 +51759,9 @@
       <c r="BW644" s="7"/>
       <c r="BX644" s="7"/>
       <c r="BY644" s="7"/>
-    </row>
-    <row r="645" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ644" s="7"/>
+    </row>
+    <row r="645" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -51140,8 +51839,9 @@
       <c r="BW645" s="7"/>
       <c r="BX645" s="7"/>
       <c r="BY645" s="7"/>
-    </row>
-    <row r="646" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ645" s="7"/>
+    </row>
+    <row r="646" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -51219,8 +51919,9 @@
       <c r="BW646" s="7"/>
       <c r="BX646" s="7"/>
       <c r="BY646" s="7"/>
-    </row>
-    <row r="647" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ646" s="7"/>
+    </row>
+    <row r="647" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -51298,8 +51999,9 @@
       <c r="BW647" s="7"/>
       <c r="BX647" s="7"/>
       <c r="BY647" s="7"/>
-    </row>
-    <row r="648" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ647" s="7"/>
+    </row>
+    <row r="648" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -51377,6 +52079,7 @@
       <c r="BW648" s="7"/>
       <c r="BX648" s="7"/>
       <c r="BY648" s="7"/>
+      <c r="BZ648" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -51389,7 +52092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/design/Y_英雄.xlsx
+++ b/design/Y_英雄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>file_name</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>职业深度和buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 2: [buff_id, [数值]]，4: [buff_id, [数值]], 6: [buff_id, [数值]] , 8: [buff_id, [数值]]   }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +324,30 @@
   </si>
   <si>
     <t>YaSuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 2: [1001, [10, 20]], 4: [1002, [50, 80]], 6: [1003, [100, 300, 200]], 8: [1004, [300, 500]] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡池数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_amount(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover_size(array)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ648"/>
+  <dimension ref="A1:CB648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="U11" activeCellId="1" sqref="U10 U11"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,9 +763,11 @@
     <col min="17" max="17" width="17.25" customWidth="1"/>
     <col min="18" max="18" width="15.75" customWidth="1"/>
     <col min="19" max="19" width="18.875" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -777,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,14 +819,14 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -818,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -854,22 +876,28 @@
         <v>27</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="V8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -877,40 +905,40 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
         <v>22</v>
@@ -919,22 +947,28 @@
         <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="V9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -942,40 +976,40 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
         <v>22</v>
@@ -984,87 +1018,97 @@
         <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="V10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="O11" s="7">
         <v>1</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R11" s="7">
         <v>3</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T11" s="7">
         <v>4</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>78</v>
+      <c r="U11" s="7">
+        <v>1</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
@@ -1120,8 +1164,10 @@
       <c r="BX11" s="7"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA11" s="7"/>
+      <c r="CB11" s="7"/>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1200,8 +1246,10 @@
       <c r="BX12" s="7"/>
       <c r="BY12" s="7"/>
       <c r="BZ12" s="7"/>
-    </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1280,8 +1328,10 @@
       <c r="BX13" s="7"/>
       <c r="BY13" s="7"/>
       <c r="BZ13" s="7"/>
-    </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1360,8 +1410,10 @@
       <c r="BX14" s="7"/>
       <c r="BY14" s="7"/>
       <c r="BZ14" s="7"/>
-    </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="7"/>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1440,8 +1492,10 @@
       <c r="BX15" s="7"/>
       <c r="BY15" s="7"/>
       <c r="BZ15" s="7"/>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA15" s="7"/>
+      <c r="CB15" s="7"/>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1520,8 +1574,10 @@
       <c r="BX16" s="7"/>
       <c r="BY16" s="7"/>
       <c r="BZ16" s="7"/>
-    </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA16" s="7"/>
+      <c r="CB16" s="7"/>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1600,8 +1656,10 @@
       <c r="BX17" s="7"/>
       <c r="BY17" s="7"/>
       <c r="BZ17" s="7"/>
-    </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1680,8 +1738,10 @@
       <c r="BX18" s="7"/>
       <c r="BY18" s="7"/>
       <c r="BZ18" s="7"/>
-    </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1760,8 +1820,10 @@
       <c r="BX19" s="7"/>
       <c r="BY19" s="7"/>
       <c r="BZ19" s="7"/>
-    </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1840,8 +1902,10 @@
       <c r="BX20" s="7"/>
       <c r="BY20" s="7"/>
       <c r="BZ20" s="7"/>
-    </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1920,8 +1984,10 @@
       <c r="BX21" s="7"/>
       <c r="BY21" s="7"/>
       <c r="BZ21" s="7"/>
-    </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2000,8 +2066,10 @@
       <c r="BX22" s="7"/>
       <c r="BY22" s="7"/>
       <c r="BZ22" s="7"/>
-    </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2080,8 +2148,10 @@
       <c r="BX23" s="7"/>
       <c r="BY23" s="7"/>
       <c r="BZ23" s="7"/>
-    </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA23" s="7"/>
+      <c r="CB23" s="7"/>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2160,8 +2230,10 @@
       <c r="BX24" s="7"/>
       <c r="BY24" s="7"/>
       <c r="BZ24" s="7"/>
-    </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2240,8 +2312,10 @@
       <c r="BX25" s="7"/>
       <c r="BY25" s="7"/>
       <c r="BZ25" s="7"/>
-    </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA25" s="7"/>
+      <c r="CB25" s="7"/>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2320,8 +2394,10 @@
       <c r="BX26" s="7"/>
       <c r="BY26" s="7"/>
       <c r="BZ26" s="7"/>
-    </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7"/>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2400,8 +2476,10 @@
       <c r="BX27" s="7"/>
       <c r="BY27" s="7"/>
       <c r="BZ27" s="7"/>
-    </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2480,8 +2558,10 @@
       <c r="BX28" s="7"/>
       <c r="BY28" s="7"/>
       <c r="BZ28" s="7"/>
-    </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA28" s="7"/>
+      <c r="CB28" s="7"/>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2560,8 +2640,10 @@
       <c r="BX29" s="7"/>
       <c r="BY29" s="7"/>
       <c r="BZ29" s="7"/>
-    </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA29" s="7"/>
+      <c r="CB29" s="7"/>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2640,8 +2722,10 @@
       <c r="BX30" s="7"/>
       <c r="BY30" s="7"/>
       <c r="BZ30" s="7"/>
-    </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA30" s="7"/>
+      <c r="CB30" s="7"/>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2720,8 +2804,10 @@
       <c r="BX31" s="7"/>
       <c r="BY31" s="7"/>
       <c r="BZ31" s="7"/>
-    </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA31" s="7"/>
+      <c r="CB31" s="7"/>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2800,8 +2886,10 @@
       <c r="BX32" s="7"/>
       <c r="BY32" s="7"/>
       <c r="BZ32" s="7"/>
-    </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA32" s="7"/>
+      <c r="CB32" s="7"/>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2880,8 +2968,10 @@
       <c r="BX33" s="7"/>
       <c r="BY33" s="7"/>
       <c r="BZ33" s="7"/>
-    </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA33" s="7"/>
+      <c r="CB33" s="7"/>
+    </row>
+    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2960,8 +3050,10 @@
       <c r="BX34" s="7"/>
       <c r="BY34" s="7"/>
       <c r="BZ34" s="7"/>
-    </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA34" s="7"/>
+      <c r="CB34" s="7"/>
+    </row>
+    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3040,8 +3132,10 @@
       <c r="BX35" s="7"/>
       <c r="BY35" s="7"/>
       <c r="BZ35" s="7"/>
-    </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA35" s="7"/>
+      <c r="CB35" s="7"/>
+    </row>
+    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3120,8 +3214,10 @@
       <c r="BX36" s="7"/>
       <c r="BY36" s="7"/>
       <c r="BZ36" s="7"/>
-    </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA36" s="7"/>
+      <c r="CB36" s="7"/>
+    </row>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3200,8 +3296,10 @@
       <c r="BX37" s="7"/>
       <c r="BY37" s="7"/>
       <c r="BZ37" s="7"/>
-    </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA37" s="7"/>
+      <c r="CB37" s="7"/>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3280,8 +3378,10 @@
       <c r="BX38" s="7"/>
       <c r="BY38" s="7"/>
       <c r="BZ38" s="7"/>
-    </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA38" s="7"/>
+      <c r="CB38" s="7"/>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3360,8 +3460,10 @@
       <c r="BX39" s="7"/>
       <c r="BY39" s="7"/>
       <c r="BZ39" s="7"/>
-    </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA39" s="7"/>
+      <c r="CB39" s="7"/>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3440,8 +3542,10 @@
       <c r="BX40" s="7"/>
       <c r="BY40" s="7"/>
       <c r="BZ40" s="7"/>
-    </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA40" s="7"/>
+      <c r="CB40" s="7"/>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3520,8 +3624,10 @@
       <c r="BX41" s="7"/>
       <c r="BY41" s="7"/>
       <c r="BZ41" s="7"/>
-    </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA41" s="7"/>
+      <c r="CB41" s="7"/>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3600,8 +3706,10 @@
       <c r="BX42" s="7"/>
       <c r="BY42" s="7"/>
       <c r="BZ42" s="7"/>
-    </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA42" s="7"/>
+      <c r="CB42" s="7"/>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3680,8 +3788,10 @@
       <c r="BX43" s="7"/>
       <c r="BY43" s="7"/>
       <c r="BZ43" s="7"/>
-    </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA43" s="7"/>
+      <c r="CB43" s="7"/>
+    </row>
+    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3760,8 +3870,10 @@
       <c r="BX44" s="7"/>
       <c r="BY44" s="7"/>
       <c r="BZ44" s="7"/>
-    </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA44" s="7"/>
+      <c r="CB44" s="7"/>
+    </row>
+    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3840,8 +3952,10 @@
       <c r="BX45" s="7"/>
       <c r="BY45" s="7"/>
       <c r="BZ45" s="7"/>
-    </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA45" s="7"/>
+      <c r="CB45" s="7"/>
+    </row>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3920,8 +4034,10 @@
       <c r="BX46" s="7"/>
       <c r="BY46" s="7"/>
       <c r="BZ46" s="7"/>
-    </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA46" s="7"/>
+      <c r="CB46" s="7"/>
+    </row>
+    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4000,8 +4116,10 @@
       <c r="BX47" s="7"/>
       <c r="BY47" s="7"/>
       <c r="BZ47" s="7"/>
-    </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA47" s="7"/>
+      <c r="CB47" s="7"/>
+    </row>
+    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4080,8 +4198,10 @@
       <c r="BX48" s="7"/>
       <c r="BY48" s="7"/>
       <c r="BZ48" s="7"/>
-    </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA48" s="7"/>
+      <c r="CB48" s="7"/>
+    </row>
+    <row r="49" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4160,8 +4280,10 @@
       <c r="BX49" s="7"/>
       <c r="BY49" s="7"/>
       <c r="BZ49" s="7"/>
-    </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA49" s="7"/>
+      <c r="CB49" s="7"/>
+    </row>
+    <row r="50" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4240,8 +4362,10 @@
       <c r="BX50" s="7"/>
       <c r="BY50" s="7"/>
       <c r="BZ50" s="7"/>
-    </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA50" s="7"/>
+      <c r="CB50" s="7"/>
+    </row>
+    <row r="51" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4320,8 +4444,10 @@
       <c r="BX51" s="7"/>
       <c r="BY51" s="7"/>
       <c r="BZ51" s="7"/>
-    </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA51" s="7"/>
+      <c r="CB51" s="7"/>
+    </row>
+    <row r="52" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4400,8 +4526,10 @@
       <c r="BX52" s="7"/>
       <c r="BY52" s="7"/>
       <c r="BZ52" s="7"/>
-    </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA52" s="7"/>
+      <c r="CB52" s="7"/>
+    </row>
+    <row r="53" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4480,8 +4608,10 @@
       <c r="BX53" s="7"/>
       <c r="BY53" s="7"/>
       <c r="BZ53" s="7"/>
-    </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA53" s="7"/>
+      <c r="CB53" s="7"/>
+    </row>
+    <row r="54" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4560,8 +4690,10 @@
       <c r="BX54" s="7"/>
       <c r="BY54" s="7"/>
       <c r="BZ54" s="7"/>
-    </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA54" s="7"/>
+      <c r="CB54" s="7"/>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4640,8 +4772,10 @@
       <c r="BX55" s="7"/>
       <c r="BY55" s="7"/>
       <c r="BZ55" s="7"/>
-    </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA55" s="7"/>
+      <c r="CB55" s="7"/>
+    </row>
+    <row r="56" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4720,8 +4854,10 @@
       <c r="BX56" s="7"/>
       <c r="BY56" s="7"/>
       <c r="BZ56" s="7"/>
-    </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA56" s="7"/>
+      <c r="CB56" s="7"/>
+    </row>
+    <row r="57" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4800,8 +4936,10 @@
       <c r="BX57" s="7"/>
       <c r="BY57" s="7"/>
       <c r="BZ57" s="7"/>
-    </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA57" s="7"/>
+      <c r="CB57" s="7"/>
+    </row>
+    <row r="58" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4880,8 +5018,10 @@
       <c r="BX58" s="7"/>
       <c r="BY58" s="7"/>
       <c r="BZ58" s="7"/>
-    </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA58" s="7"/>
+      <c r="CB58" s="7"/>
+    </row>
+    <row r="59" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4960,8 +5100,10 @@
       <c r="BX59" s="7"/>
       <c r="BY59" s="7"/>
       <c r="BZ59" s="7"/>
-    </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA59" s="7"/>
+      <c r="CB59" s="7"/>
+    </row>
+    <row r="60" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -5040,8 +5182,10 @@
       <c r="BX60" s="7"/>
       <c r="BY60" s="7"/>
       <c r="BZ60" s="7"/>
-    </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA60" s="7"/>
+      <c r="CB60" s="7"/>
+    </row>
+    <row r="61" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5120,8 +5264,10 @@
       <c r="BX61" s="7"/>
       <c r="BY61" s="7"/>
       <c r="BZ61" s="7"/>
-    </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA61" s="7"/>
+      <c r="CB61" s="7"/>
+    </row>
+    <row r="62" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5200,8 +5346,10 @@
       <c r="BX62" s="7"/>
       <c r="BY62" s="7"/>
       <c r="BZ62" s="7"/>
-    </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA62" s="7"/>
+      <c r="CB62" s="7"/>
+    </row>
+    <row r="63" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5280,8 +5428,10 @@
       <c r="BX63" s="7"/>
       <c r="BY63" s="7"/>
       <c r="BZ63" s="7"/>
-    </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA63" s="7"/>
+      <c r="CB63" s="7"/>
+    </row>
+    <row r="64" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5360,8 +5510,10 @@
       <c r="BX64" s="7"/>
       <c r="BY64" s="7"/>
       <c r="BZ64" s="7"/>
-    </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA64" s="7"/>
+      <c r="CB64" s="7"/>
+    </row>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5440,8 +5592,10 @@
       <c r="BX65" s="7"/>
       <c r="BY65" s="7"/>
       <c r="BZ65" s="7"/>
-    </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA65" s="7"/>
+      <c r="CB65" s="7"/>
+    </row>
+    <row r="66" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -5520,8 +5674,10 @@
       <c r="BX66" s="7"/>
       <c r="BY66" s="7"/>
       <c r="BZ66" s="7"/>
-    </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA66" s="7"/>
+      <c r="CB66" s="7"/>
+    </row>
+    <row r="67" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5600,8 +5756,10 @@
       <c r="BX67" s="7"/>
       <c r="BY67" s="7"/>
       <c r="BZ67" s="7"/>
-    </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA67" s="7"/>
+      <c r="CB67" s="7"/>
+    </row>
+    <row r="68" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5680,8 +5838,10 @@
       <c r="BX68" s="7"/>
       <c r="BY68" s="7"/>
       <c r="BZ68" s="7"/>
-    </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA68" s="7"/>
+      <c r="CB68" s="7"/>
+    </row>
+    <row r="69" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5760,8 +5920,10 @@
       <c r="BX69" s="7"/>
       <c r="BY69" s="7"/>
       <c r="BZ69" s="7"/>
-    </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA69" s="7"/>
+      <c r="CB69" s="7"/>
+    </row>
+    <row r="70" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5840,8 +6002,10 @@
       <c r="BX70" s="7"/>
       <c r="BY70" s="7"/>
       <c r="BZ70" s="7"/>
-    </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA70" s="7"/>
+      <c r="CB70" s="7"/>
+    </row>
+    <row r="71" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5920,8 +6084,10 @@
       <c r="BX71" s="7"/>
       <c r="BY71" s="7"/>
       <c r="BZ71" s="7"/>
-    </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA71" s="7"/>
+      <c r="CB71" s="7"/>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6000,8 +6166,10 @@
       <c r="BX72" s="7"/>
       <c r="BY72" s="7"/>
       <c r="BZ72" s="7"/>
-    </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA72" s="7"/>
+      <c r="CB72" s="7"/>
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6080,8 +6248,10 @@
       <c r="BX73" s="7"/>
       <c r="BY73" s="7"/>
       <c r="BZ73" s="7"/>
-    </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA73" s="7"/>
+      <c r="CB73" s="7"/>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6160,8 +6330,10 @@
       <c r="BX74" s="7"/>
       <c r="BY74" s="7"/>
       <c r="BZ74" s="7"/>
-    </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA74" s="7"/>
+      <c r="CB74" s="7"/>
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6240,8 +6412,10 @@
       <c r="BX75" s="7"/>
       <c r="BY75" s="7"/>
       <c r="BZ75" s="7"/>
-    </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA75" s="7"/>
+      <c r="CB75" s="7"/>
+    </row>
+    <row r="76" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6320,8 +6494,10 @@
       <c r="BX76" s="7"/>
       <c r="BY76" s="7"/>
       <c r="BZ76" s="7"/>
-    </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA76" s="7"/>
+      <c r="CB76" s="7"/>
+    </row>
+    <row r="77" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6400,8 +6576,10 @@
       <c r="BX77" s="7"/>
       <c r="BY77" s="7"/>
       <c r="BZ77" s="7"/>
-    </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA77" s="7"/>
+      <c r="CB77" s="7"/>
+    </row>
+    <row r="78" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6480,8 +6658,10 @@
       <c r="BX78" s="7"/>
       <c r="BY78" s="7"/>
       <c r="BZ78" s="7"/>
-    </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA78" s="7"/>
+      <c r="CB78" s="7"/>
+    </row>
+    <row r="79" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6560,8 +6740,10 @@
       <c r="BX79" s="7"/>
       <c r="BY79" s="7"/>
       <c r="BZ79" s="7"/>
-    </row>
-    <row r="80" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA79" s="7"/>
+      <c r="CB79" s="7"/>
+    </row>
+    <row r="80" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6640,8 +6822,10 @@
       <c r="BX80" s="7"/>
       <c r="BY80" s="7"/>
       <c r="BZ80" s="7"/>
-    </row>
-    <row r="81" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA80" s="7"/>
+      <c r="CB80" s="7"/>
+    </row>
+    <row r="81" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6720,8 +6904,10 @@
       <c r="BX81" s="7"/>
       <c r="BY81" s="7"/>
       <c r="BZ81" s="7"/>
-    </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA81" s="7"/>
+      <c r="CB81" s="7"/>
+    </row>
+    <row r="82" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6800,8 +6986,10 @@
       <c r="BX82" s="7"/>
       <c r="BY82" s="7"/>
       <c r="BZ82" s="7"/>
-    </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA82" s="7"/>
+      <c r="CB82" s="7"/>
+    </row>
+    <row r="83" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6880,8 +7068,10 @@
       <c r="BX83" s="7"/>
       <c r="BY83" s="7"/>
       <c r="BZ83" s="7"/>
-    </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA83" s="7"/>
+      <c r="CB83" s="7"/>
+    </row>
+    <row r="84" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6960,8 +7150,10 @@
       <c r="BX84" s="7"/>
       <c r="BY84" s="7"/>
       <c r="BZ84" s="7"/>
-    </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA84" s="7"/>
+      <c r="CB84" s="7"/>
+    </row>
+    <row r="85" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7040,8 +7232,10 @@
       <c r="BX85" s="7"/>
       <c r="BY85" s="7"/>
       <c r="BZ85" s="7"/>
-    </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA85" s="7"/>
+      <c r="CB85" s="7"/>
+    </row>
+    <row r="86" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7120,8 +7314,10 @@
       <c r="BX86" s="7"/>
       <c r="BY86" s="7"/>
       <c r="BZ86" s="7"/>
-    </row>
-    <row r="87" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA86" s="7"/>
+      <c r="CB86" s="7"/>
+    </row>
+    <row r="87" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7200,8 +7396,10 @@
       <c r="BX87" s="7"/>
       <c r="BY87" s="7"/>
       <c r="BZ87" s="7"/>
-    </row>
-    <row r="88" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA87" s="7"/>
+      <c r="CB87" s="7"/>
+    </row>
+    <row r="88" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7280,8 +7478,10 @@
       <c r="BX88" s="7"/>
       <c r="BY88" s="7"/>
       <c r="BZ88" s="7"/>
-    </row>
-    <row r="89" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA88" s="7"/>
+      <c r="CB88" s="7"/>
+    </row>
+    <row r="89" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7360,8 +7560,10 @@
       <c r="BX89" s="7"/>
       <c r="BY89" s="7"/>
       <c r="BZ89" s="7"/>
-    </row>
-    <row r="90" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA89" s="7"/>
+      <c r="CB89" s="7"/>
+    </row>
+    <row r="90" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7440,8 +7642,10 @@
       <c r="BX90" s="7"/>
       <c r="BY90" s="7"/>
       <c r="BZ90" s="7"/>
-    </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA90" s="7"/>
+      <c r="CB90" s="7"/>
+    </row>
+    <row r="91" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7520,8 +7724,10 @@
       <c r="BX91" s="7"/>
       <c r="BY91" s="7"/>
       <c r="BZ91" s="7"/>
-    </row>
-    <row r="92" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA91" s="7"/>
+      <c r="CB91" s="7"/>
+    </row>
+    <row r="92" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7600,8 +7806,10 @@
       <c r="BX92" s="7"/>
       <c r="BY92" s="7"/>
       <c r="BZ92" s="7"/>
-    </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA92" s="7"/>
+      <c r="CB92" s="7"/>
+    </row>
+    <row r="93" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7680,8 +7888,10 @@
       <c r="BX93" s="7"/>
       <c r="BY93" s="7"/>
       <c r="BZ93" s="7"/>
-    </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA93" s="7"/>
+      <c r="CB93" s="7"/>
+    </row>
+    <row r="94" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7760,8 +7970,10 @@
       <c r="BX94" s="7"/>
       <c r="BY94" s="7"/>
       <c r="BZ94" s="7"/>
-    </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA94" s="7"/>
+      <c r="CB94" s="7"/>
+    </row>
+    <row r="95" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7840,8 +8052,10 @@
       <c r="BX95" s="7"/>
       <c r="BY95" s="7"/>
       <c r="BZ95" s="7"/>
-    </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA95" s="7"/>
+      <c r="CB95" s="7"/>
+    </row>
+    <row r="96" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7920,8 +8134,10 @@
       <c r="BX96" s="7"/>
       <c r="BY96" s="7"/>
       <c r="BZ96" s="7"/>
-    </row>
-    <row r="97" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA96" s="7"/>
+      <c r="CB96" s="7"/>
+    </row>
+    <row r="97" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -8000,8 +8216,10 @@
       <c r="BX97" s="7"/>
       <c r="BY97" s="7"/>
       <c r="BZ97" s="7"/>
-    </row>
-    <row r="98" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA97" s="7"/>
+      <c r="CB97" s="7"/>
+    </row>
+    <row r="98" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -8080,8 +8298,10 @@
       <c r="BX98" s="7"/>
       <c r="BY98" s="7"/>
       <c r="BZ98" s="7"/>
-    </row>
-    <row r="99" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA98" s="7"/>
+      <c r="CB98" s="7"/>
+    </row>
+    <row r="99" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -8160,8 +8380,10 @@
       <c r="BX99" s="7"/>
       <c r="BY99" s="7"/>
       <c r="BZ99" s="7"/>
-    </row>
-    <row r="100" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA99" s="7"/>
+      <c r="CB99" s="7"/>
+    </row>
+    <row r="100" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -8240,8 +8462,10 @@
       <c r="BX100" s="7"/>
       <c r="BY100" s="7"/>
       <c r="BZ100" s="7"/>
-    </row>
-    <row r="101" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA100" s="7"/>
+      <c r="CB100" s="7"/>
+    </row>
+    <row r="101" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -8320,8 +8544,10 @@
       <c r="BX101" s="7"/>
       <c r="BY101" s="7"/>
       <c r="BZ101" s="7"/>
-    </row>
-    <row r="102" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA101" s="7"/>
+      <c r="CB101" s="7"/>
+    </row>
+    <row r="102" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -8400,8 +8626,10 @@
       <c r="BX102" s="7"/>
       <c r="BY102" s="7"/>
       <c r="BZ102" s="7"/>
-    </row>
-    <row r="103" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA102" s="7"/>
+      <c r="CB102" s="7"/>
+    </row>
+    <row r="103" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -8480,8 +8708,10 @@
       <c r="BX103" s="7"/>
       <c r="BY103" s="7"/>
       <c r="BZ103" s="7"/>
-    </row>
-    <row r="104" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA103" s="7"/>
+      <c r="CB103" s="7"/>
+    </row>
+    <row r="104" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -8560,8 +8790,10 @@
       <c r="BX104" s="7"/>
       <c r="BY104" s="7"/>
       <c r="BZ104" s="7"/>
-    </row>
-    <row r="105" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA104" s="7"/>
+      <c r="CB104" s="7"/>
+    </row>
+    <row r="105" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -8640,8 +8872,10 @@
       <c r="BX105" s="7"/>
       <c r="BY105" s="7"/>
       <c r="BZ105" s="7"/>
-    </row>
-    <row r="106" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA105" s="7"/>
+      <c r="CB105" s="7"/>
+    </row>
+    <row r="106" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -8720,8 +8954,10 @@
       <c r="BX106" s="7"/>
       <c r="BY106" s="7"/>
       <c r="BZ106" s="7"/>
-    </row>
-    <row r="107" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA106" s="7"/>
+      <c r="CB106" s="7"/>
+    </row>
+    <row r="107" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8800,8 +9036,10 @@
       <c r="BX107" s="7"/>
       <c r="BY107" s="7"/>
       <c r="BZ107" s="7"/>
-    </row>
-    <row r="108" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA107" s="7"/>
+      <c r="CB107" s="7"/>
+    </row>
+    <row r="108" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -8880,8 +9118,10 @@
       <c r="BX108" s="7"/>
       <c r="BY108" s="7"/>
       <c r="BZ108" s="7"/>
-    </row>
-    <row r="109" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA108" s="7"/>
+      <c r="CB108" s="7"/>
+    </row>
+    <row r="109" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -8960,8 +9200,10 @@
       <c r="BX109" s="7"/>
       <c r="BY109" s="7"/>
       <c r="BZ109" s="7"/>
-    </row>
-    <row r="110" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA109" s="7"/>
+      <c r="CB109" s="7"/>
+    </row>
+    <row r="110" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -9040,8 +9282,10 @@
       <c r="BX110" s="7"/>
       <c r="BY110" s="7"/>
       <c r="BZ110" s="7"/>
-    </row>
-    <row r="111" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA110" s="7"/>
+      <c r="CB110" s="7"/>
+    </row>
+    <row r="111" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -9120,8 +9364,10 @@
       <c r="BX111" s="7"/>
       <c r="BY111" s="7"/>
       <c r="BZ111" s="7"/>
-    </row>
-    <row r="112" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA111" s="7"/>
+      <c r="CB111" s="7"/>
+    </row>
+    <row r="112" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -9200,8 +9446,10 @@
       <c r="BX112" s="7"/>
       <c r="BY112" s="7"/>
       <c r="BZ112" s="7"/>
-    </row>
-    <row r="113" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA112" s="7"/>
+      <c r="CB112" s="7"/>
+    </row>
+    <row r="113" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -9280,8 +9528,10 @@
       <c r="BX113" s="7"/>
       <c r="BY113" s="7"/>
       <c r="BZ113" s="7"/>
-    </row>
-    <row r="114" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA113" s="7"/>
+      <c r="CB113" s="7"/>
+    </row>
+    <row r="114" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -9360,8 +9610,10 @@
       <c r="BX114" s="7"/>
       <c r="BY114" s="7"/>
       <c r="BZ114" s="7"/>
-    </row>
-    <row r="115" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA114" s="7"/>
+      <c r="CB114" s="7"/>
+    </row>
+    <row r="115" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -9440,8 +9692,10 @@
       <c r="BX115" s="7"/>
       <c r="BY115" s="7"/>
       <c r="BZ115" s="7"/>
-    </row>
-    <row r="116" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA115" s="7"/>
+      <c r="CB115" s="7"/>
+    </row>
+    <row r="116" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -9520,8 +9774,10 @@
       <c r="BX116" s="7"/>
       <c r="BY116" s="7"/>
       <c r="BZ116" s="7"/>
-    </row>
-    <row r="117" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA116" s="7"/>
+      <c r="CB116" s="7"/>
+    </row>
+    <row r="117" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -9600,8 +9856,10 @@
       <c r="BX117" s="7"/>
       <c r="BY117" s="7"/>
       <c r="BZ117" s="7"/>
-    </row>
-    <row r="118" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA117" s="7"/>
+      <c r="CB117" s="7"/>
+    </row>
+    <row r="118" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -9680,8 +9938,10 @@
       <c r="BX118" s="7"/>
       <c r="BY118" s="7"/>
       <c r="BZ118" s="7"/>
-    </row>
-    <row r="119" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA118" s="7"/>
+      <c r="CB118" s="7"/>
+    </row>
+    <row r="119" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -9760,8 +10020,10 @@
       <c r="BX119" s="7"/>
       <c r="BY119" s="7"/>
       <c r="BZ119" s="7"/>
-    </row>
-    <row r="120" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA119" s="7"/>
+      <c r="CB119" s="7"/>
+    </row>
+    <row r="120" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -9840,8 +10102,10 @@
       <c r="BX120" s="7"/>
       <c r="BY120" s="7"/>
       <c r="BZ120" s="7"/>
-    </row>
-    <row r="121" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA120" s="7"/>
+      <c r="CB120" s="7"/>
+    </row>
+    <row r="121" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -9920,8 +10184,10 @@
       <c r="BX121" s="7"/>
       <c r="BY121" s="7"/>
       <c r="BZ121" s="7"/>
-    </row>
-    <row r="122" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA121" s="7"/>
+      <c r="CB121" s="7"/>
+    </row>
+    <row r="122" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -10000,8 +10266,10 @@
       <c r="BX122" s="7"/>
       <c r="BY122" s="7"/>
       <c r="BZ122" s="7"/>
-    </row>
-    <row r="123" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA122" s="7"/>
+      <c r="CB122" s="7"/>
+    </row>
+    <row r="123" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -10080,8 +10348,10 @@
       <c r="BX123" s="7"/>
       <c r="BY123" s="7"/>
       <c r="BZ123" s="7"/>
-    </row>
-    <row r="124" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA123" s="7"/>
+      <c r="CB123" s="7"/>
+    </row>
+    <row r="124" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -10160,8 +10430,10 @@
       <c r="BX124" s="7"/>
       <c r="BY124" s="7"/>
       <c r="BZ124" s="7"/>
-    </row>
-    <row r="125" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA124" s="7"/>
+      <c r="CB124" s="7"/>
+    </row>
+    <row r="125" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -10240,8 +10512,10 @@
       <c r="BX125" s="7"/>
       <c r="BY125" s="7"/>
       <c r="BZ125" s="7"/>
-    </row>
-    <row r="126" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA125" s="7"/>
+      <c r="CB125" s="7"/>
+    </row>
+    <row r="126" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -10320,8 +10594,10 @@
       <c r="BX126" s="7"/>
       <c r="BY126" s="7"/>
       <c r="BZ126" s="7"/>
-    </row>
-    <row r="127" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA126" s="7"/>
+      <c r="CB126" s="7"/>
+    </row>
+    <row r="127" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -10400,8 +10676,10 @@
       <c r="BX127" s="7"/>
       <c r="BY127" s="7"/>
       <c r="BZ127" s="7"/>
-    </row>
-    <row r="128" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA127" s="7"/>
+      <c r="CB127" s="7"/>
+    </row>
+    <row r="128" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -10480,8 +10758,10 @@
       <c r="BX128" s="7"/>
       <c r="BY128" s="7"/>
       <c r="BZ128" s="7"/>
-    </row>
-    <row r="129" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA128" s="7"/>
+      <c r="CB128" s="7"/>
+    </row>
+    <row r="129" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -10560,8 +10840,10 @@
       <c r="BX129" s="7"/>
       <c r="BY129" s="7"/>
       <c r="BZ129" s="7"/>
-    </row>
-    <row r="130" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA129" s="7"/>
+      <c r="CB129" s="7"/>
+    </row>
+    <row r="130" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -10640,8 +10922,10 @@
       <c r="BX130" s="7"/>
       <c r="BY130" s="7"/>
       <c r="BZ130" s="7"/>
-    </row>
-    <row r="131" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA130" s="7"/>
+      <c r="CB130" s="7"/>
+    </row>
+    <row r="131" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -10720,8 +11004,10 @@
       <c r="BX131" s="7"/>
       <c r="BY131" s="7"/>
       <c r="BZ131" s="7"/>
-    </row>
-    <row r="132" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA131" s="7"/>
+      <c r="CB131" s="7"/>
+    </row>
+    <row r="132" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -10800,8 +11086,10 @@
       <c r="BX132" s="7"/>
       <c r="BY132" s="7"/>
       <c r="BZ132" s="7"/>
-    </row>
-    <row r="133" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA132" s="7"/>
+      <c r="CB132" s="7"/>
+    </row>
+    <row r="133" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -10880,8 +11168,10 @@
       <c r="BX133" s="7"/>
       <c r="BY133" s="7"/>
       <c r="BZ133" s="7"/>
-    </row>
-    <row r="134" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA133" s="7"/>
+      <c r="CB133" s="7"/>
+    </row>
+    <row r="134" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -10960,8 +11250,10 @@
       <c r="BX134" s="7"/>
       <c r="BY134" s="7"/>
       <c r="BZ134" s="7"/>
-    </row>
-    <row r="135" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA134" s="7"/>
+      <c r="CB134" s="7"/>
+    </row>
+    <row r="135" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -11040,8 +11332,10 @@
       <c r="BX135" s="7"/>
       <c r="BY135" s="7"/>
       <c r="BZ135" s="7"/>
-    </row>
-    <row r="136" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA135" s="7"/>
+      <c r="CB135" s="7"/>
+    </row>
+    <row r="136" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -11120,8 +11414,10 @@
       <c r="BX136" s="7"/>
       <c r="BY136" s="7"/>
       <c r="BZ136" s="7"/>
-    </row>
-    <row r="137" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA136" s="7"/>
+      <c r="CB136" s="7"/>
+    </row>
+    <row r="137" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -11200,8 +11496,10 @@
       <c r="BX137" s="7"/>
       <c r="BY137" s="7"/>
       <c r="BZ137" s="7"/>
-    </row>
-    <row r="138" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA137" s="7"/>
+      <c r="CB137" s="7"/>
+    </row>
+    <row r="138" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -11280,8 +11578,10 @@
       <c r="BX138" s="7"/>
       <c r="BY138" s="7"/>
       <c r="BZ138" s="7"/>
-    </row>
-    <row r="139" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA138" s="7"/>
+      <c r="CB138" s="7"/>
+    </row>
+    <row r="139" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -11360,8 +11660,10 @@
       <c r="BX139" s="7"/>
       <c r="BY139" s="7"/>
       <c r="BZ139" s="7"/>
-    </row>
-    <row r="140" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA139" s="7"/>
+      <c r="CB139" s="7"/>
+    </row>
+    <row r="140" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -11440,8 +11742,10 @@
       <c r="BX140" s="7"/>
       <c r="BY140" s="7"/>
       <c r="BZ140" s="7"/>
-    </row>
-    <row r="141" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA140" s="7"/>
+      <c r="CB140" s="7"/>
+    </row>
+    <row r="141" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -11520,8 +11824,10 @@
       <c r="BX141" s="7"/>
       <c r="BY141" s="7"/>
       <c r="BZ141" s="7"/>
-    </row>
-    <row r="142" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA141" s="7"/>
+      <c r="CB141" s="7"/>
+    </row>
+    <row r="142" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -11600,8 +11906,10 @@
       <c r="BX142" s="7"/>
       <c r="BY142" s="7"/>
       <c r="BZ142" s="7"/>
-    </row>
-    <row r="143" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA142" s="7"/>
+      <c r="CB142" s="7"/>
+    </row>
+    <row r="143" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -11680,8 +11988,10 @@
       <c r="BX143" s="7"/>
       <c r="BY143" s="7"/>
       <c r="BZ143" s="7"/>
-    </row>
-    <row r="144" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA143" s="7"/>
+      <c r="CB143" s="7"/>
+    </row>
+    <row r="144" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -11760,8 +12070,10 @@
       <c r="BX144" s="7"/>
       <c r="BY144" s="7"/>
       <c r="BZ144" s="7"/>
-    </row>
-    <row r="145" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA144" s="7"/>
+      <c r="CB144" s="7"/>
+    </row>
+    <row r="145" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -11840,8 +12152,10 @@
       <c r="BX145" s="7"/>
       <c r="BY145" s="7"/>
       <c r="BZ145" s="7"/>
-    </row>
-    <row r="146" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA145" s="7"/>
+      <c r="CB145" s="7"/>
+    </row>
+    <row r="146" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -11920,8 +12234,10 @@
       <c r="BX146" s="7"/>
       <c r="BY146" s="7"/>
       <c r="BZ146" s="7"/>
-    </row>
-    <row r="147" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA146" s="7"/>
+      <c r="CB146" s="7"/>
+    </row>
+    <row r="147" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -12000,8 +12316,10 @@
       <c r="BX147" s="7"/>
       <c r="BY147" s="7"/>
       <c r="BZ147" s="7"/>
-    </row>
-    <row r="148" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA147" s="7"/>
+      <c r="CB147" s="7"/>
+    </row>
+    <row r="148" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -12080,8 +12398,10 @@
       <c r="BX148" s="7"/>
       <c r="BY148" s="7"/>
       <c r="BZ148" s="7"/>
-    </row>
-    <row r="149" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA148" s="7"/>
+      <c r="CB148" s="7"/>
+    </row>
+    <row r="149" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -12160,8 +12480,10 @@
       <c r="BX149" s="7"/>
       <c r="BY149" s="7"/>
       <c r="BZ149" s="7"/>
-    </row>
-    <row r="150" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA149" s="7"/>
+      <c r="CB149" s="7"/>
+    </row>
+    <row r="150" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -12240,8 +12562,10 @@
       <c r="BX150" s="7"/>
       <c r="BY150" s="7"/>
       <c r="BZ150" s="7"/>
-    </row>
-    <row r="151" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA150" s="7"/>
+      <c r="CB150" s="7"/>
+    </row>
+    <row r="151" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -12320,8 +12644,10 @@
       <c r="BX151" s="7"/>
       <c r="BY151" s="7"/>
       <c r="BZ151" s="7"/>
-    </row>
-    <row r="152" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA151" s="7"/>
+      <c r="CB151" s="7"/>
+    </row>
+    <row r="152" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -12400,8 +12726,10 @@
       <c r="BX152" s="7"/>
       <c r="BY152" s="7"/>
       <c r="BZ152" s="7"/>
-    </row>
-    <row r="153" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA152" s="7"/>
+      <c r="CB152" s="7"/>
+    </row>
+    <row r="153" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -12480,8 +12808,10 @@
       <c r="BX153" s="7"/>
       <c r="BY153" s="7"/>
       <c r="BZ153" s="7"/>
-    </row>
-    <row r="154" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA153" s="7"/>
+      <c r="CB153" s="7"/>
+    </row>
+    <row r="154" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -12560,8 +12890,10 @@
       <c r="BX154" s="7"/>
       <c r="BY154" s="7"/>
       <c r="BZ154" s="7"/>
-    </row>
-    <row r="155" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA154" s="7"/>
+      <c r="CB154" s="7"/>
+    </row>
+    <row r="155" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -12640,8 +12972,10 @@
       <c r="BX155" s="7"/>
       <c r="BY155" s="7"/>
       <c r="BZ155" s="7"/>
-    </row>
-    <row r="156" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA155" s="7"/>
+      <c r="CB155" s="7"/>
+    </row>
+    <row r="156" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -12720,8 +13054,10 @@
       <c r="BX156" s="7"/>
       <c r="BY156" s="7"/>
       <c r="BZ156" s="7"/>
-    </row>
-    <row r="157" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA156" s="7"/>
+      <c r="CB156" s="7"/>
+    </row>
+    <row r="157" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -12800,8 +13136,10 @@
       <c r="BX157" s="7"/>
       <c r="BY157" s="7"/>
       <c r="BZ157" s="7"/>
-    </row>
-    <row r="158" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA157" s="7"/>
+      <c r="CB157" s="7"/>
+    </row>
+    <row r="158" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -12880,8 +13218,10 @@
       <c r="BX158" s="7"/>
       <c r="BY158" s="7"/>
       <c r="BZ158" s="7"/>
-    </row>
-    <row r="159" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA158" s="7"/>
+      <c r="CB158" s="7"/>
+    </row>
+    <row r="159" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -12960,8 +13300,10 @@
       <c r="BX159" s="7"/>
       <c r="BY159" s="7"/>
       <c r="BZ159" s="7"/>
-    </row>
-    <row r="160" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA159" s="7"/>
+      <c r="CB159" s="7"/>
+    </row>
+    <row r="160" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -13040,8 +13382,10 @@
       <c r="BX160" s="7"/>
       <c r="BY160" s="7"/>
       <c r="BZ160" s="7"/>
-    </row>
-    <row r="161" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA160" s="7"/>
+      <c r="CB160" s="7"/>
+    </row>
+    <row r="161" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -13120,8 +13464,10 @@
       <c r="BX161" s="7"/>
       <c r="BY161" s="7"/>
       <c r="BZ161" s="7"/>
-    </row>
-    <row r="162" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA161" s="7"/>
+      <c r="CB161" s="7"/>
+    </row>
+    <row r="162" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -13200,8 +13546,10 @@
       <c r="BX162" s="7"/>
       <c r="BY162" s="7"/>
       <c r="BZ162" s="7"/>
-    </row>
-    <row r="163" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA162" s="7"/>
+      <c r="CB162" s="7"/>
+    </row>
+    <row r="163" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -13280,8 +13628,10 @@
       <c r="BX163" s="7"/>
       <c r="BY163" s="7"/>
       <c r="BZ163" s="7"/>
-    </row>
-    <row r="164" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA163" s="7"/>
+      <c r="CB163" s="7"/>
+    </row>
+    <row r="164" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -13360,8 +13710,10 @@
       <c r="BX164" s="7"/>
       <c r="BY164" s="7"/>
       <c r="BZ164" s="7"/>
-    </row>
-    <row r="165" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA164" s="7"/>
+      <c r="CB164" s="7"/>
+    </row>
+    <row r="165" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -13440,8 +13792,10 @@
       <c r="BX165" s="7"/>
       <c r="BY165" s="7"/>
       <c r="BZ165" s="7"/>
-    </row>
-    <row r="166" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA165" s="7"/>
+      <c r="CB165" s="7"/>
+    </row>
+    <row r="166" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -13520,8 +13874,10 @@
       <c r="BX166" s="7"/>
       <c r="BY166" s="7"/>
       <c r="BZ166" s="7"/>
-    </row>
-    <row r="167" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA166" s="7"/>
+      <c r="CB166" s="7"/>
+    </row>
+    <row r="167" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -13600,8 +13956,10 @@
       <c r="BX167" s="7"/>
       <c r="BY167" s="7"/>
       <c r="BZ167" s="7"/>
-    </row>
-    <row r="168" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA167" s="7"/>
+      <c r="CB167" s="7"/>
+    </row>
+    <row r="168" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -13680,8 +14038,10 @@
       <c r="BX168" s="7"/>
       <c r="BY168" s="7"/>
       <c r="BZ168" s="7"/>
-    </row>
-    <row r="169" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA168" s="7"/>
+      <c r="CB168" s="7"/>
+    </row>
+    <row r="169" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -13760,8 +14120,10 @@
       <c r="BX169" s="7"/>
       <c r="BY169" s="7"/>
       <c r="BZ169" s="7"/>
-    </row>
-    <row r="170" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA169" s="7"/>
+      <c r="CB169" s="7"/>
+    </row>
+    <row r="170" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -13840,8 +14202,10 @@
       <c r="BX170" s="7"/>
       <c r="BY170" s="7"/>
       <c r="BZ170" s="7"/>
-    </row>
-    <row r="171" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA170" s="7"/>
+      <c r="CB170" s="7"/>
+    </row>
+    <row r="171" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -13920,8 +14284,10 @@
       <c r="BX171" s="7"/>
       <c r="BY171" s="7"/>
       <c r="BZ171" s="7"/>
-    </row>
-    <row r="172" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA171" s="7"/>
+      <c r="CB171" s="7"/>
+    </row>
+    <row r="172" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -14000,8 +14366,10 @@
       <c r="BX172" s="7"/>
       <c r="BY172" s="7"/>
       <c r="BZ172" s="7"/>
-    </row>
-    <row r="173" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA172" s="7"/>
+      <c r="CB172" s="7"/>
+    </row>
+    <row r="173" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -14080,8 +14448,10 @@
       <c r="BX173" s="7"/>
       <c r="BY173" s="7"/>
       <c r="BZ173" s="7"/>
-    </row>
-    <row r="174" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA173" s="7"/>
+      <c r="CB173" s="7"/>
+    </row>
+    <row r="174" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -14160,8 +14530,10 @@
       <c r="BX174" s="7"/>
       <c r="BY174" s="7"/>
       <c r="BZ174" s="7"/>
-    </row>
-    <row r="175" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA174" s="7"/>
+      <c r="CB174" s="7"/>
+    </row>
+    <row r="175" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -14240,8 +14612,10 @@
       <c r="BX175" s="7"/>
       <c r="BY175" s="7"/>
       <c r="BZ175" s="7"/>
-    </row>
-    <row r="176" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA175" s="7"/>
+      <c r="CB175" s="7"/>
+    </row>
+    <row r="176" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -14320,8 +14694,10 @@
       <c r="BX176" s="7"/>
       <c r="BY176" s="7"/>
       <c r="BZ176" s="7"/>
-    </row>
-    <row r="177" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA176" s="7"/>
+      <c r="CB176" s="7"/>
+    </row>
+    <row r="177" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -14400,8 +14776,10 @@
       <c r="BX177" s="7"/>
       <c r="BY177" s="7"/>
       <c r="BZ177" s="7"/>
-    </row>
-    <row r="178" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA177" s="7"/>
+      <c r="CB177" s="7"/>
+    </row>
+    <row r="178" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -14480,8 +14858,10 @@
       <c r="BX178" s="7"/>
       <c r="BY178" s="7"/>
       <c r="BZ178" s="7"/>
-    </row>
-    <row r="179" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA178" s="7"/>
+      <c r="CB178" s="7"/>
+    </row>
+    <row r="179" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -14560,8 +14940,10 @@
       <c r="BX179" s="7"/>
       <c r="BY179" s="7"/>
       <c r="BZ179" s="7"/>
-    </row>
-    <row r="180" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA179" s="7"/>
+      <c r="CB179" s="7"/>
+    </row>
+    <row r="180" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -14640,8 +15022,10 @@
       <c r="BX180" s="7"/>
       <c r="BY180" s="7"/>
       <c r="BZ180" s="7"/>
-    </row>
-    <row r="181" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA180" s="7"/>
+      <c r="CB180" s="7"/>
+    </row>
+    <row r="181" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -14720,8 +15104,10 @@
       <c r="BX181" s="7"/>
       <c r="BY181" s="7"/>
       <c r="BZ181" s="7"/>
-    </row>
-    <row r="182" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA181" s="7"/>
+      <c r="CB181" s="7"/>
+    </row>
+    <row r="182" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -14800,8 +15186,10 @@
       <c r="BX182" s="7"/>
       <c r="BY182" s="7"/>
       <c r="BZ182" s="7"/>
-    </row>
-    <row r="183" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA182" s="7"/>
+      <c r="CB182" s="7"/>
+    </row>
+    <row r="183" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -14880,8 +15268,10 @@
       <c r="BX183" s="7"/>
       <c r="BY183" s="7"/>
       <c r="BZ183" s="7"/>
-    </row>
-    <row r="184" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA183" s="7"/>
+      <c r="CB183" s="7"/>
+    </row>
+    <row r="184" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -14960,8 +15350,10 @@
       <c r="BX184" s="7"/>
       <c r="BY184" s="7"/>
       <c r="BZ184" s="7"/>
-    </row>
-    <row r="185" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA184" s="7"/>
+      <c r="CB184" s="7"/>
+    </row>
+    <row r="185" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -15040,8 +15432,10 @@
       <c r="BX185" s="7"/>
       <c r="BY185" s="7"/>
       <c r="BZ185" s="7"/>
-    </row>
-    <row r="186" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA185" s="7"/>
+      <c r="CB185" s="7"/>
+    </row>
+    <row r="186" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -15120,8 +15514,10 @@
       <c r="BX186" s="7"/>
       <c r="BY186" s="7"/>
       <c r="BZ186" s="7"/>
-    </row>
-    <row r="187" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA186" s="7"/>
+      <c r="CB186" s="7"/>
+    </row>
+    <row r="187" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -15200,8 +15596,10 @@
       <c r="BX187" s="7"/>
       <c r="BY187" s="7"/>
       <c r="BZ187" s="7"/>
-    </row>
-    <row r="188" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA187" s="7"/>
+      <c r="CB187" s="7"/>
+    </row>
+    <row r="188" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -15280,8 +15678,10 @@
       <c r="BX188" s="7"/>
       <c r="BY188" s="7"/>
       <c r="BZ188" s="7"/>
-    </row>
-    <row r="189" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA188" s="7"/>
+      <c r="CB188" s="7"/>
+    </row>
+    <row r="189" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -15360,8 +15760,10 @@
       <c r="BX189" s="7"/>
       <c r="BY189" s="7"/>
       <c r="BZ189" s="7"/>
-    </row>
-    <row r="190" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA189" s="7"/>
+      <c r="CB189" s="7"/>
+    </row>
+    <row r="190" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -15440,8 +15842,10 @@
       <c r="BX190" s="7"/>
       <c r="BY190" s="7"/>
       <c r="BZ190" s="7"/>
-    </row>
-    <row r="191" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA190" s="7"/>
+      <c r="CB190" s="7"/>
+    </row>
+    <row r="191" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -15520,8 +15924,10 @@
       <c r="BX191" s="7"/>
       <c r="BY191" s="7"/>
       <c r="BZ191" s="7"/>
-    </row>
-    <row r="192" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA191" s="7"/>
+      <c r="CB191" s="7"/>
+    </row>
+    <row r="192" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -15600,8 +16006,10 @@
       <c r="BX192" s="7"/>
       <c r="BY192" s="7"/>
       <c r="BZ192" s="7"/>
-    </row>
-    <row r="193" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA192" s="7"/>
+      <c r="CB192" s="7"/>
+    </row>
+    <row r="193" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -15680,8 +16088,10 @@
       <c r="BX193" s="7"/>
       <c r="BY193" s="7"/>
       <c r="BZ193" s="7"/>
-    </row>
-    <row r="194" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA193" s="7"/>
+      <c r="CB193" s="7"/>
+    </row>
+    <row r="194" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -15760,8 +16170,10 @@
       <c r="BX194" s="7"/>
       <c r="BY194" s="7"/>
       <c r="BZ194" s="7"/>
-    </row>
-    <row r="195" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA194" s="7"/>
+      <c r="CB194" s="7"/>
+    </row>
+    <row r="195" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -15840,8 +16252,10 @@
       <c r="BX195" s="7"/>
       <c r="BY195" s="7"/>
       <c r="BZ195" s="7"/>
-    </row>
-    <row r="196" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA195" s="7"/>
+      <c r="CB195" s="7"/>
+    </row>
+    <row r="196" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -15920,8 +16334,10 @@
       <c r="BX196" s="7"/>
       <c r="BY196" s="7"/>
       <c r="BZ196" s="7"/>
-    </row>
-    <row r="197" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA196" s="7"/>
+      <c r="CB196" s="7"/>
+    </row>
+    <row r="197" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -16000,8 +16416,10 @@
       <c r="BX197" s="7"/>
       <c r="BY197" s="7"/>
       <c r="BZ197" s="7"/>
-    </row>
-    <row r="198" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA197" s="7"/>
+      <c r="CB197" s="7"/>
+    </row>
+    <row r="198" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -16080,8 +16498,10 @@
       <c r="BX198" s="7"/>
       <c r="BY198" s="7"/>
       <c r="BZ198" s="7"/>
-    </row>
-    <row r="199" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA198" s="7"/>
+      <c r="CB198" s="7"/>
+    </row>
+    <row r="199" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -16160,8 +16580,10 @@
       <c r="BX199" s="7"/>
       <c r="BY199" s="7"/>
       <c r="BZ199" s="7"/>
-    </row>
-    <row r="200" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA199" s="7"/>
+      <c r="CB199" s="7"/>
+    </row>
+    <row r="200" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -16240,8 +16662,10 @@
       <c r="BX200" s="7"/>
       <c r="BY200" s="7"/>
       <c r="BZ200" s="7"/>
-    </row>
-    <row r="201" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA200" s="7"/>
+      <c r="CB200" s="7"/>
+    </row>
+    <row r="201" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -16320,8 +16744,10 @@
       <c r="BX201" s="7"/>
       <c r="BY201" s="7"/>
       <c r="BZ201" s="7"/>
-    </row>
-    <row r="202" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA201" s="7"/>
+      <c r="CB201" s="7"/>
+    </row>
+    <row r="202" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -16400,8 +16826,10 @@
       <c r="BX202" s="7"/>
       <c r="BY202" s="7"/>
       <c r="BZ202" s="7"/>
-    </row>
-    <row r="203" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA202" s="7"/>
+      <c r="CB202" s="7"/>
+    </row>
+    <row r="203" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -16480,8 +16908,10 @@
       <c r="BX203" s="7"/>
       <c r="BY203" s="7"/>
       <c r="BZ203" s="7"/>
-    </row>
-    <row r="204" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA203" s="7"/>
+      <c r="CB203" s="7"/>
+    </row>
+    <row r="204" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -16560,8 +16990,10 @@
       <c r="BX204" s="7"/>
       <c r="BY204" s="7"/>
       <c r="BZ204" s="7"/>
-    </row>
-    <row r="205" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA204" s="7"/>
+      <c r="CB204" s="7"/>
+    </row>
+    <row r="205" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -16640,8 +17072,10 @@
       <c r="BX205" s="7"/>
       <c r="BY205" s="7"/>
       <c r="BZ205" s="7"/>
-    </row>
-    <row r="206" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA205" s="7"/>
+      <c r="CB205" s="7"/>
+    </row>
+    <row r="206" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -16720,8 +17154,10 @@
       <c r="BX206" s="7"/>
       <c r="BY206" s="7"/>
       <c r="BZ206" s="7"/>
-    </row>
-    <row r="207" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA206" s="7"/>
+      <c r="CB206" s="7"/>
+    </row>
+    <row r="207" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -16800,8 +17236,10 @@
       <c r="BX207" s="7"/>
       <c r="BY207" s="7"/>
       <c r="BZ207" s="7"/>
-    </row>
-    <row r="208" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA207" s="7"/>
+      <c r="CB207" s="7"/>
+    </row>
+    <row r="208" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -16880,8 +17318,10 @@
       <c r="BX208" s="7"/>
       <c r="BY208" s="7"/>
       <c r="BZ208" s="7"/>
-    </row>
-    <row r="209" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA208" s="7"/>
+      <c r="CB208" s="7"/>
+    </row>
+    <row r="209" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -16960,8 +17400,10 @@
       <c r="BX209" s="7"/>
       <c r="BY209" s="7"/>
       <c r="BZ209" s="7"/>
-    </row>
-    <row r="210" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA209" s="7"/>
+      <c r="CB209" s="7"/>
+    </row>
+    <row r="210" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -17040,8 +17482,10 @@
       <c r="BX210" s="7"/>
       <c r="BY210" s="7"/>
       <c r="BZ210" s="7"/>
-    </row>
-    <row r="211" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA210" s="7"/>
+      <c r="CB210" s="7"/>
+    </row>
+    <row r="211" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -17120,8 +17564,10 @@
       <c r="BX211" s="7"/>
       <c r="BY211" s="7"/>
       <c r="BZ211" s="7"/>
-    </row>
-    <row r="212" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA211" s="7"/>
+      <c r="CB211" s="7"/>
+    </row>
+    <row r="212" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -17200,8 +17646,10 @@
       <c r="BX212" s="7"/>
       <c r="BY212" s="7"/>
       <c r="BZ212" s="7"/>
-    </row>
-    <row r="213" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA212" s="7"/>
+      <c r="CB212" s="7"/>
+    </row>
+    <row r="213" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -17280,8 +17728,10 @@
       <c r="BX213" s="7"/>
       <c r="BY213" s="7"/>
       <c r="BZ213" s="7"/>
-    </row>
-    <row r="214" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA213" s="7"/>
+      <c r="CB213" s="7"/>
+    </row>
+    <row r="214" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -17360,8 +17810,10 @@
       <c r="BX214" s="7"/>
       <c r="BY214" s="7"/>
       <c r="BZ214" s="7"/>
-    </row>
-    <row r="215" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA214" s="7"/>
+      <c r="CB214" s="7"/>
+    </row>
+    <row r="215" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -17440,8 +17892,10 @@
       <c r="BX215" s="7"/>
       <c r="BY215" s="7"/>
       <c r="BZ215" s="7"/>
-    </row>
-    <row r="216" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA215" s="7"/>
+      <c r="CB215" s="7"/>
+    </row>
+    <row r="216" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -17520,8 +17974,10 @@
       <c r="BX216" s="7"/>
       <c r="BY216" s="7"/>
       <c r="BZ216" s="7"/>
-    </row>
-    <row r="217" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA216" s="7"/>
+      <c r="CB216" s="7"/>
+    </row>
+    <row r="217" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -17600,8 +18056,10 @@
       <c r="BX217" s="7"/>
       <c r="BY217" s="7"/>
       <c r="BZ217" s="7"/>
-    </row>
-    <row r="218" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA217" s="7"/>
+      <c r="CB217" s="7"/>
+    </row>
+    <row r="218" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -17680,8 +18138,10 @@
       <c r="BX218" s="7"/>
       <c r="BY218" s="7"/>
       <c r="BZ218" s="7"/>
-    </row>
-    <row r="219" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA218" s="7"/>
+      <c r="CB218" s="7"/>
+    </row>
+    <row r="219" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -17760,8 +18220,10 @@
       <c r="BX219" s="7"/>
       <c r="BY219" s="7"/>
       <c r="BZ219" s="7"/>
-    </row>
-    <row r="220" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA219" s="7"/>
+      <c r="CB219" s="7"/>
+    </row>
+    <row r="220" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -17840,8 +18302,10 @@
       <c r="BX220" s="7"/>
       <c r="BY220" s="7"/>
       <c r="BZ220" s="7"/>
-    </row>
-    <row r="221" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA220" s="7"/>
+      <c r="CB220" s="7"/>
+    </row>
+    <row r="221" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -17920,8 +18384,10 @@
       <c r="BX221" s="7"/>
       <c r="BY221" s="7"/>
       <c r="BZ221" s="7"/>
-    </row>
-    <row r="222" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA221" s="7"/>
+      <c r="CB221" s="7"/>
+    </row>
+    <row r="222" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -18000,8 +18466,10 @@
       <c r="BX222" s="7"/>
       <c r="BY222" s="7"/>
       <c r="BZ222" s="7"/>
-    </row>
-    <row r="223" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA222" s="7"/>
+      <c r="CB222" s="7"/>
+    </row>
+    <row r="223" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -18080,8 +18548,10 @@
       <c r="BX223" s="7"/>
       <c r="BY223" s="7"/>
       <c r="BZ223" s="7"/>
-    </row>
-    <row r="224" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA223" s="7"/>
+      <c r="CB223" s="7"/>
+    </row>
+    <row r="224" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -18160,8 +18630,10 @@
       <c r="BX224" s="7"/>
       <c r="BY224" s="7"/>
       <c r="BZ224" s="7"/>
-    </row>
-    <row r="225" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA224" s="7"/>
+      <c r="CB224" s="7"/>
+    </row>
+    <row r="225" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -18240,8 +18712,10 @@
       <c r="BX225" s="7"/>
       <c r="BY225" s="7"/>
       <c r="BZ225" s="7"/>
-    </row>
-    <row r="226" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA225" s="7"/>
+      <c r="CB225" s="7"/>
+    </row>
+    <row r="226" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -18320,8 +18794,10 @@
       <c r="BX226" s="7"/>
       <c r="BY226" s="7"/>
       <c r="BZ226" s="7"/>
-    </row>
-    <row r="227" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA226" s="7"/>
+      <c r="CB226" s="7"/>
+    </row>
+    <row r="227" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -18400,8 +18876,10 @@
       <c r="BX227" s="7"/>
       <c r="BY227" s="7"/>
       <c r="BZ227" s="7"/>
-    </row>
-    <row r="228" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA227" s="7"/>
+      <c r="CB227" s="7"/>
+    </row>
+    <row r="228" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -18480,8 +18958,10 @@
       <c r="BX228" s="7"/>
       <c r="BY228" s="7"/>
       <c r="BZ228" s="7"/>
-    </row>
-    <row r="229" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA228" s="7"/>
+      <c r="CB228" s="7"/>
+    </row>
+    <row r="229" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -18560,8 +19040,10 @@
       <c r="BX229" s="7"/>
       <c r="BY229" s="7"/>
       <c r="BZ229" s="7"/>
-    </row>
-    <row r="230" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA229" s="7"/>
+      <c r="CB229" s="7"/>
+    </row>
+    <row r="230" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -18640,8 +19122,10 @@
       <c r="BX230" s="7"/>
       <c r="BY230" s="7"/>
       <c r="BZ230" s="7"/>
-    </row>
-    <row r="231" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA230" s="7"/>
+      <c r="CB230" s="7"/>
+    </row>
+    <row r="231" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -18720,8 +19204,10 @@
       <c r="BX231" s="7"/>
       <c r="BY231" s="7"/>
       <c r="BZ231" s="7"/>
-    </row>
-    <row r="232" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA231" s="7"/>
+      <c r="CB231" s="7"/>
+    </row>
+    <row r="232" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -18800,8 +19286,10 @@
       <c r="BX232" s="7"/>
       <c r="BY232" s="7"/>
       <c r="BZ232" s="7"/>
-    </row>
-    <row r="233" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA232" s="7"/>
+      <c r="CB232" s="7"/>
+    </row>
+    <row r="233" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -18880,8 +19368,10 @@
       <c r="BX233" s="7"/>
       <c r="BY233" s="7"/>
       <c r="BZ233" s="7"/>
-    </row>
-    <row r="234" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA233" s="7"/>
+      <c r="CB233" s="7"/>
+    </row>
+    <row r="234" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -18960,8 +19450,10 @@
       <c r="BX234" s="7"/>
       <c r="BY234" s="7"/>
       <c r="BZ234" s="7"/>
-    </row>
-    <row r="235" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA234" s="7"/>
+      <c r="CB234" s="7"/>
+    </row>
+    <row r="235" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -19040,8 +19532,10 @@
       <c r="BX235" s="7"/>
       <c r="BY235" s="7"/>
       <c r="BZ235" s="7"/>
-    </row>
-    <row r="236" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA235" s="7"/>
+      <c r="CB235" s="7"/>
+    </row>
+    <row r="236" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -19120,8 +19614,10 @@
       <c r="BX236" s="7"/>
       <c r="BY236" s="7"/>
       <c r="BZ236" s="7"/>
-    </row>
-    <row r="237" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA236" s="7"/>
+      <c r="CB236" s="7"/>
+    </row>
+    <row r="237" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -19200,8 +19696,10 @@
       <c r="BX237" s="7"/>
       <c r="BY237" s="7"/>
       <c r="BZ237" s="7"/>
-    </row>
-    <row r="238" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA237" s="7"/>
+      <c r="CB237" s="7"/>
+    </row>
+    <row r="238" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -19280,8 +19778,10 @@
       <c r="BX238" s="7"/>
       <c r="BY238" s="7"/>
       <c r="BZ238" s="7"/>
-    </row>
-    <row r="239" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA238" s="7"/>
+      <c r="CB238" s="7"/>
+    </row>
+    <row r="239" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -19360,8 +19860,10 @@
       <c r="BX239" s="7"/>
       <c r="BY239" s="7"/>
       <c r="BZ239" s="7"/>
-    </row>
-    <row r="240" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA239" s="7"/>
+      <c r="CB239" s="7"/>
+    </row>
+    <row r="240" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -19440,8 +19942,10 @@
       <c r="BX240" s="7"/>
       <c r="BY240" s="7"/>
       <c r="BZ240" s="7"/>
-    </row>
-    <row r="241" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA240" s="7"/>
+      <c r="CB240" s="7"/>
+    </row>
+    <row r="241" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -19520,8 +20024,10 @@
       <c r="BX241" s="7"/>
       <c r="BY241" s="7"/>
       <c r="BZ241" s="7"/>
-    </row>
-    <row r="242" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA241" s="7"/>
+      <c r="CB241" s="7"/>
+    </row>
+    <row r="242" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -19600,8 +20106,10 @@
       <c r="BX242" s="7"/>
       <c r="BY242" s="7"/>
       <c r="BZ242" s="7"/>
-    </row>
-    <row r="243" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA242" s="7"/>
+      <c r="CB242" s="7"/>
+    </row>
+    <row r="243" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -19680,8 +20188,10 @@
       <c r="BX243" s="7"/>
       <c r="BY243" s="7"/>
       <c r="BZ243" s="7"/>
-    </row>
-    <row r="244" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA243" s="7"/>
+      <c r="CB243" s="7"/>
+    </row>
+    <row r="244" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -19760,8 +20270,10 @@
       <c r="BX244" s="7"/>
       <c r="BY244" s="7"/>
       <c r="BZ244" s="7"/>
-    </row>
-    <row r="245" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA244" s="7"/>
+      <c r="CB244" s="7"/>
+    </row>
+    <row r="245" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -19840,8 +20352,10 @@
       <c r="BX245" s="7"/>
       <c r="BY245" s="7"/>
       <c r="BZ245" s="7"/>
-    </row>
-    <row r="246" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA245" s="7"/>
+      <c r="CB245" s="7"/>
+    </row>
+    <row r="246" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -19920,8 +20434,10 @@
       <c r="BX246" s="7"/>
       <c r="BY246" s="7"/>
       <c r="BZ246" s="7"/>
-    </row>
-    <row r="247" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA246" s="7"/>
+      <c r="CB246" s="7"/>
+    </row>
+    <row r="247" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -20000,8 +20516,10 @@
       <c r="BX247" s="7"/>
       <c r="BY247" s="7"/>
       <c r="BZ247" s="7"/>
-    </row>
-    <row r="248" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA247" s="7"/>
+      <c r="CB247" s="7"/>
+    </row>
+    <row r="248" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -20080,8 +20598,10 @@
       <c r="BX248" s="7"/>
       <c r="BY248" s="7"/>
       <c r="BZ248" s="7"/>
-    </row>
-    <row r="249" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA248" s="7"/>
+      <c r="CB248" s="7"/>
+    </row>
+    <row r="249" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -20160,8 +20680,10 @@
       <c r="BX249" s="7"/>
       <c r="BY249" s="7"/>
       <c r="BZ249" s="7"/>
-    </row>
-    <row r="250" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA249" s="7"/>
+      <c r="CB249" s="7"/>
+    </row>
+    <row r="250" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -20240,8 +20762,10 @@
       <c r="BX250" s="7"/>
       <c r="BY250" s="7"/>
       <c r="BZ250" s="7"/>
-    </row>
-    <row r="251" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA250" s="7"/>
+      <c r="CB250" s="7"/>
+    </row>
+    <row r="251" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -20320,8 +20844,10 @@
       <c r="BX251" s="7"/>
       <c r="BY251" s="7"/>
       <c r="BZ251" s="7"/>
-    </row>
-    <row r="252" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA251" s="7"/>
+      <c r="CB251" s="7"/>
+    </row>
+    <row r="252" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -20400,8 +20926,10 @@
       <c r="BX252" s="7"/>
       <c r="BY252" s="7"/>
       <c r="BZ252" s="7"/>
-    </row>
-    <row r="253" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA252" s="7"/>
+      <c r="CB252" s="7"/>
+    </row>
+    <row r="253" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -20480,8 +21008,10 @@
       <c r="BX253" s="7"/>
       <c r="BY253" s="7"/>
       <c r="BZ253" s="7"/>
-    </row>
-    <row r="254" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA253" s="7"/>
+      <c r="CB253" s="7"/>
+    </row>
+    <row r="254" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -20560,8 +21090,10 @@
       <c r="BX254" s="7"/>
       <c r="BY254" s="7"/>
       <c r="BZ254" s="7"/>
-    </row>
-    <row r="255" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA254" s="7"/>
+      <c r="CB254" s="7"/>
+    </row>
+    <row r="255" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -20640,8 +21172,10 @@
       <c r="BX255" s="7"/>
       <c r="BY255" s="7"/>
       <c r="BZ255" s="7"/>
-    </row>
-    <row r="256" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA255" s="7"/>
+      <c r="CB255" s="7"/>
+    </row>
+    <row r="256" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -20720,8 +21254,10 @@
       <c r="BX256" s="7"/>
       <c r="BY256" s="7"/>
       <c r="BZ256" s="7"/>
-    </row>
-    <row r="257" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA256" s="7"/>
+      <c r="CB256" s="7"/>
+    </row>
+    <row r="257" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -20800,8 +21336,10 @@
       <c r="BX257" s="7"/>
       <c r="BY257" s="7"/>
       <c r="BZ257" s="7"/>
-    </row>
-    <row r="258" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA257" s="7"/>
+      <c r="CB257" s="7"/>
+    </row>
+    <row r="258" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -20880,8 +21418,10 @@
       <c r="BX258" s="7"/>
       <c r="BY258" s="7"/>
       <c r="BZ258" s="7"/>
-    </row>
-    <row r="259" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA258" s="7"/>
+      <c r="CB258" s="7"/>
+    </row>
+    <row r="259" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -20960,8 +21500,10 @@
       <c r="BX259" s="7"/>
       <c r="BY259" s="7"/>
       <c r="BZ259" s="7"/>
-    </row>
-    <row r="260" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA259" s="7"/>
+      <c r="CB259" s="7"/>
+    </row>
+    <row r="260" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -21040,8 +21582,10 @@
       <c r="BX260" s="7"/>
       <c r="BY260" s="7"/>
       <c r="BZ260" s="7"/>
-    </row>
-    <row r="261" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA260" s="7"/>
+      <c r="CB260" s="7"/>
+    </row>
+    <row r="261" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -21120,8 +21664,10 @@
       <c r="BX261" s="7"/>
       <c r="BY261" s="7"/>
       <c r="BZ261" s="7"/>
-    </row>
-    <row r="262" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA261" s="7"/>
+      <c r="CB261" s="7"/>
+    </row>
+    <row r="262" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -21200,8 +21746,10 @@
       <c r="BX262" s="7"/>
       <c r="BY262" s="7"/>
       <c r="BZ262" s="7"/>
-    </row>
-    <row r="263" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA262" s="7"/>
+      <c r="CB262" s="7"/>
+    </row>
+    <row r="263" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -21280,8 +21828,10 @@
       <c r="BX263" s="7"/>
       <c r="BY263" s="7"/>
       <c r="BZ263" s="7"/>
-    </row>
-    <row r="264" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA263" s="7"/>
+      <c r="CB263" s="7"/>
+    </row>
+    <row r="264" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -21360,8 +21910,10 @@
       <c r="BX264" s="7"/>
       <c r="BY264" s="7"/>
       <c r="BZ264" s="7"/>
-    </row>
-    <row r="265" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA264" s="7"/>
+      <c r="CB264" s="7"/>
+    </row>
+    <row r="265" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -21440,8 +21992,10 @@
       <c r="BX265" s="7"/>
       <c r="BY265" s="7"/>
       <c r="BZ265" s="7"/>
-    </row>
-    <row r="266" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA265" s="7"/>
+      <c r="CB265" s="7"/>
+    </row>
+    <row r="266" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -21520,8 +22074,10 @@
       <c r="BX266" s="7"/>
       <c r="BY266" s="7"/>
       <c r="BZ266" s="7"/>
-    </row>
-    <row r="267" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA266" s="7"/>
+      <c r="CB266" s="7"/>
+    </row>
+    <row r="267" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -21600,8 +22156,10 @@
       <c r="BX267" s="7"/>
       <c r="BY267" s="7"/>
       <c r="BZ267" s="7"/>
-    </row>
-    <row r="268" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA267" s="7"/>
+      <c r="CB267" s="7"/>
+    </row>
+    <row r="268" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -21680,8 +22238,10 @@
       <c r="BX268" s="7"/>
       <c r="BY268" s="7"/>
       <c r="BZ268" s="7"/>
-    </row>
-    <row r="269" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA268" s="7"/>
+      <c r="CB268" s="7"/>
+    </row>
+    <row r="269" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -21760,8 +22320,10 @@
       <c r="BX269" s="7"/>
       <c r="BY269" s="7"/>
       <c r="BZ269" s="7"/>
-    </row>
-    <row r="270" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA269" s="7"/>
+      <c r="CB269" s="7"/>
+    </row>
+    <row r="270" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -21840,8 +22402,10 @@
       <c r="BX270" s="7"/>
       <c r="BY270" s="7"/>
       <c r="BZ270" s="7"/>
-    </row>
-    <row r="271" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA270" s="7"/>
+      <c r="CB270" s="7"/>
+    </row>
+    <row r="271" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -21920,8 +22484,10 @@
       <c r="BX271" s="7"/>
       <c r="BY271" s="7"/>
       <c r="BZ271" s="7"/>
-    </row>
-    <row r="272" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA271" s="7"/>
+      <c r="CB271" s="7"/>
+    </row>
+    <row r="272" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -22000,8 +22566,10 @@
       <c r="BX272" s="7"/>
       <c r="BY272" s="7"/>
       <c r="BZ272" s="7"/>
-    </row>
-    <row r="273" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA272" s="7"/>
+      <c r="CB272" s="7"/>
+    </row>
+    <row r="273" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -22080,8 +22648,10 @@
       <c r="BX273" s="7"/>
       <c r="BY273" s="7"/>
       <c r="BZ273" s="7"/>
-    </row>
-    <row r="274" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA273" s="7"/>
+      <c r="CB273" s="7"/>
+    </row>
+    <row r="274" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -22160,8 +22730,10 @@
       <c r="BX274" s="7"/>
       <c r="BY274" s="7"/>
       <c r="BZ274" s="7"/>
-    </row>
-    <row r="275" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA274" s="7"/>
+      <c r="CB274" s="7"/>
+    </row>
+    <row r="275" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -22240,8 +22812,10 @@
       <c r="BX275" s="7"/>
       <c r="BY275" s="7"/>
       <c r="BZ275" s="7"/>
-    </row>
-    <row r="276" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA275" s="7"/>
+      <c r="CB275" s="7"/>
+    </row>
+    <row r="276" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -22320,8 +22894,10 @@
       <c r="BX276" s="7"/>
       <c r="BY276" s="7"/>
       <c r="BZ276" s="7"/>
-    </row>
-    <row r="277" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA276" s="7"/>
+      <c r="CB276" s="7"/>
+    </row>
+    <row r="277" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -22400,8 +22976,10 @@
       <c r="BX277" s="7"/>
       <c r="BY277" s="7"/>
       <c r="BZ277" s="7"/>
-    </row>
-    <row r="278" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA277" s="7"/>
+      <c r="CB277" s="7"/>
+    </row>
+    <row r="278" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -22480,8 +23058,10 @@
       <c r="BX278" s="7"/>
       <c r="BY278" s="7"/>
       <c r="BZ278" s="7"/>
-    </row>
-    <row r="279" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA278" s="7"/>
+      <c r="CB278" s="7"/>
+    </row>
+    <row r="279" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -22560,8 +23140,10 @@
       <c r="BX279" s="7"/>
       <c r="BY279" s="7"/>
       <c r="BZ279" s="7"/>
-    </row>
-    <row r="280" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA279" s="7"/>
+      <c r="CB279" s="7"/>
+    </row>
+    <row r="280" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -22640,8 +23222,10 @@
       <c r="BX280" s="7"/>
       <c r="BY280" s="7"/>
       <c r="BZ280" s="7"/>
-    </row>
-    <row r="281" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA280" s="7"/>
+      <c r="CB280" s="7"/>
+    </row>
+    <row r="281" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -22720,8 +23304,10 @@
       <c r="BX281" s="7"/>
       <c r="BY281" s="7"/>
       <c r="BZ281" s="7"/>
-    </row>
-    <row r="282" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA281" s="7"/>
+      <c r="CB281" s="7"/>
+    </row>
+    <row r="282" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -22800,8 +23386,10 @@
       <c r="BX282" s="7"/>
       <c r="BY282" s="7"/>
       <c r="BZ282" s="7"/>
-    </row>
-    <row r="283" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA282" s="7"/>
+      <c r="CB282" s="7"/>
+    </row>
+    <row r="283" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -22880,8 +23468,10 @@
       <c r="BX283" s="7"/>
       <c r="BY283" s="7"/>
       <c r="BZ283" s="7"/>
-    </row>
-    <row r="284" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA283" s="7"/>
+      <c r="CB283" s="7"/>
+    </row>
+    <row r="284" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -22960,8 +23550,10 @@
       <c r="BX284" s="7"/>
       <c r="BY284" s="7"/>
       <c r="BZ284" s="7"/>
-    </row>
-    <row r="285" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA284" s="7"/>
+      <c r="CB284" s="7"/>
+    </row>
+    <row r="285" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -23040,8 +23632,10 @@
       <c r="BX285" s="7"/>
       <c r="BY285" s="7"/>
       <c r="BZ285" s="7"/>
-    </row>
-    <row r="286" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA285" s="7"/>
+      <c r="CB285" s="7"/>
+    </row>
+    <row r="286" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -23120,8 +23714,10 @@
       <c r="BX286" s="7"/>
       <c r="BY286" s="7"/>
       <c r="BZ286" s="7"/>
-    </row>
-    <row r="287" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA286" s="7"/>
+      <c r="CB286" s="7"/>
+    </row>
+    <row r="287" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -23200,8 +23796,10 @@
       <c r="BX287" s="7"/>
       <c r="BY287" s="7"/>
       <c r="BZ287" s="7"/>
-    </row>
-    <row r="288" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA287" s="7"/>
+      <c r="CB287" s="7"/>
+    </row>
+    <row r="288" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -23280,8 +23878,10 @@
       <c r="BX288" s="7"/>
       <c r="BY288" s="7"/>
       <c r="BZ288" s="7"/>
-    </row>
-    <row r="289" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA288" s="7"/>
+      <c r="CB288" s="7"/>
+    </row>
+    <row r="289" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -23360,8 +23960,10 @@
       <c r="BX289" s="7"/>
       <c r="BY289" s="7"/>
       <c r="BZ289" s="7"/>
-    </row>
-    <row r="290" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA289" s="7"/>
+      <c r="CB289" s="7"/>
+    </row>
+    <row r="290" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -23440,8 +24042,10 @@
       <c r="BX290" s="7"/>
       <c r="BY290" s="7"/>
       <c r="BZ290" s="7"/>
-    </row>
-    <row r="291" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA290" s="7"/>
+      <c r="CB290" s="7"/>
+    </row>
+    <row r="291" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -23520,8 +24124,10 @@
       <c r="BX291" s="7"/>
       <c r="BY291" s="7"/>
       <c r="BZ291" s="7"/>
-    </row>
-    <row r="292" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA291" s="7"/>
+      <c r="CB291" s="7"/>
+    </row>
+    <row r="292" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -23600,8 +24206,10 @@
       <c r="BX292" s="7"/>
       <c r="BY292" s="7"/>
       <c r="BZ292" s="7"/>
-    </row>
-    <row r="293" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA292" s="7"/>
+      <c r="CB292" s="7"/>
+    </row>
+    <row r="293" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -23680,8 +24288,10 @@
       <c r="BX293" s="7"/>
       <c r="BY293" s="7"/>
       <c r="BZ293" s="7"/>
-    </row>
-    <row r="294" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA293" s="7"/>
+      <c r="CB293" s="7"/>
+    </row>
+    <row r="294" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -23760,8 +24370,10 @@
       <c r="BX294" s="7"/>
       <c r="BY294" s="7"/>
       <c r="BZ294" s="7"/>
-    </row>
-    <row r="295" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA294" s="7"/>
+      <c r="CB294" s="7"/>
+    </row>
+    <row r="295" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -23840,8 +24452,10 @@
       <c r="BX295" s="7"/>
       <c r="BY295" s="7"/>
       <c r="BZ295" s="7"/>
-    </row>
-    <row r="296" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA295" s="7"/>
+      <c r="CB295" s="7"/>
+    </row>
+    <row r="296" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -23920,8 +24534,10 @@
       <c r="BX296" s="7"/>
       <c r="BY296" s="7"/>
       <c r="BZ296" s="7"/>
-    </row>
-    <row r="297" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA296" s="7"/>
+      <c r="CB296" s="7"/>
+    </row>
+    <row r="297" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -24000,8 +24616,10 @@
       <c r="BX297" s="7"/>
       <c r="BY297" s="7"/>
       <c r="BZ297" s="7"/>
-    </row>
-    <row r="298" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA297" s="7"/>
+      <c r="CB297" s="7"/>
+    </row>
+    <row r="298" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -24080,8 +24698,10 @@
       <c r="BX298" s="7"/>
       <c r="BY298" s="7"/>
       <c r="BZ298" s="7"/>
-    </row>
-    <row r="299" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA298" s="7"/>
+      <c r="CB298" s="7"/>
+    </row>
+    <row r="299" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -24160,8 +24780,10 @@
       <c r="BX299" s="7"/>
       <c r="BY299" s="7"/>
       <c r="BZ299" s="7"/>
-    </row>
-    <row r="300" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA299" s="7"/>
+      <c r="CB299" s="7"/>
+    </row>
+    <row r="300" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -24240,8 +24862,10 @@
       <c r="BX300" s="7"/>
       <c r="BY300" s="7"/>
       <c r="BZ300" s="7"/>
-    </row>
-    <row r="301" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA300" s="7"/>
+      <c r="CB300" s="7"/>
+    </row>
+    <row r="301" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -24320,8 +24944,10 @@
       <c r="BX301" s="7"/>
       <c r="BY301" s="7"/>
       <c r="BZ301" s="7"/>
-    </row>
-    <row r="302" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA301" s="7"/>
+      <c r="CB301" s="7"/>
+    </row>
+    <row r="302" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -24400,8 +25026,10 @@
       <c r="BX302" s="7"/>
       <c r="BY302" s="7"/>
       <c r="BZ302" s="7"/>
-    </row>
-    <row r="303" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA302" s="7"/>
+      <c r="CB302" s="7"/>
+    </row>
+    <row r="303" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -24480,8 +25108,10 @@
       <c r="BX303" s="7"/>
       <c r="BY303" s="7"/>
       <c r="BZ303" s="7"/>
-    </row>
-    <row r="304" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA303" s="7"/>
+      <c r="CB303" s="7"/>
+    </row>
+    <row r="304" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -24560,8 +25190,10 @@
       <c r="BX304" s="7"/>
       <c r="BY304" s="7"/>
       <c r="BZ304" s="7"/>
-    </row>
-    <row r="305" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA304" s="7"/>
+      <c r="CB304" s="7"/>
+    </row>
+    <row r="305" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -24640,8 +25272,10 @@
       <c r="BX305" s="7"/>
       <c r="BY305" s="7"/>
       <c r="BZ305" s="7"/>
-    </row>
-    <row r="306" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA305" s="7"/>
+      <c r="CB305" s="7"/>
+    </row>
+    <row r="306" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -24720,8 +25354,10 @@
       <c r="BX306" s="7"/>
       <c r="BY306" s="7"/>
       <c r="BZ306" s="7"/>
-    </row>
-    <row r="307" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA306" s="7"/>
+      <c r="CB306" s="7"/>
+    </row>
+    <row r="307" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -24800,8 +25436,10 @@
       <c r="BX307" s="7"/>
       <c r="BY307" s="7"/>
       <c r="BZ307" s="7"/>
-    </row>
-    <row r="308" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA307" s="7"/>
+      <c r="CB307" s="7"/>
+    </row>
+    <row r="308" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -24880,8 +25518,10 @@
       <c r="BX308" s="7"/>
       <c r="BY308" s="7"/>
       <c r="BZ308" s="7"/>
-    </row>
-    <row r="309" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA308" s="7"/>
+      <c r="CB308" s="7"/>
+    </row>
+    <row r="309" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -24960,8 +25600,10 @@
       <c r="BX309" s="7"/>
       <c r="BY309" s="7"/>
       <c r="BZ309" s="7"/>
-    </row>
-    <row r="310" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA309" s="7"/>
+      <c r="CB309" s="7"/>
+    </row>
+    <row r="310" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -25040,8 +25682,10 @@
       <c r="BX310" s="7"/>
       <c r="BY310" s="7"/>
       <c r="BZ310" s="7"/>
-    </row>
-    <row r="311" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA310" s="7"/>
+      <c r="CB310" s="7"/>
+    </row>
+    <row r="311" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -25120,8 +25764,10 @@
       <c r="BX311" s="7"/>
       <c r="BY311" s="7"/>
       <c r="BZ311" s="7"/>
-    </row>
-    <row r="312" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA311" s="7"/>
+      <c r="CB311" s="7"/>
+    </row>
+    <row r="312" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -25200,8 +25846,10 @@
       <c r="BX312" s="7"/>
       <c r="BY312" s="7"/>
       <c r="BZ312" s="7"/>
-    </row>
-    <row r="313" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA312" s="7"/>
+      <c r="CB312" s="7"/>
+    </row>
+    <row r="313" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -25280,8 +25928,10 @@
       <c r="BX313" s="7"/>
       <c r="BY313" s="7"/>
       <c r="BZ313" s="7"/>
-    </row>
-    <row r="314" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA313" s="7"/>
+      <c r="CB313" s="7"/>
+    </row>
+    <row r="314" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -25360,8 +26010,10 @@
       <c r="BX314" s="7"/>
       <c r="BY314" s="7"/>
       <c r="BZ314" s="7"/>
-    </row>
-    <row r="315" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA314" s="7"/>
+      <c r="CB314" s="7"/>
+    </row>
+    <row r="315" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -25440,8 +26092,10 @@
       <c r="BX315" s="7"/>
       <c r="BY315" s="7"/>
       <c r="BZ315" s="7"/>
-    </row>
-    <row r="316" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA315" s="7"/>
+      <c r="CB315" s="7"/>
+    </row>
+    <row r="316" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -25520,8 +26174,10 @@
       <c r="BX316" s="7"/>
       <c r="BY316" s="7"/>
       <c r="BZ316" s="7"/>
-    </row>
-    <row r="317" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA316" s="7"/>
+      <c r="CB316" s="7"/>
+    </row>
+    <row r="317" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -25600,8 +26256,10 @@
       <c r="BX317" s="7"/>
       <c r="BY317" s="7"/>
       <c r="BZ317" s="7"/>
-    </row>
-    <row r="318" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA317" s="7"/>
+      <c r="CB317" s="7"/>
+    </row>
+    <row r="318" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -25680,8 +26338,10 @@
       <c r="BX318" s="7"/>
       <c r="BY318" s="7"/>
       <c r="BZ318" s="7"/>
-    </row>
-    <row r="319" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA318" s="7"/>
+      <c r="CB318" s="7"/>
+    </row>
+    <row r="319" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -25760,8 +26420,10 @@
       <c r="BX319" s="7"/>
       <c r="BY319" s="7"/>
       <c r="BZ319" s="7"/>
-    </row>
-    <row r="320" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA319" s="7"/>
+      <c r="CB319" s="7"/>
+    </row>
+    <row r="320" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -25840,8 +26502,10 @@
       <c r="BX320" s="7"/>
       <c r="BY320" s="7"/>
       <c r="BZ320" s="7"/>
-    </row>
-    <row r="321" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA320" s="7"/>
+      <c r="CB320" s="7"/>
+    </row>
+    <row r="321" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -25920,8 +26584,10 @@
       <c r="BX321" s="7"/>
       <c r="BY321" s="7"/>
       <c r="BZ321" s="7"/>
-    </row>
-    <row r="322" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA321" s="7"/>
+      <c r="CB321" s="7"/>
+    </row>
+    <row r="322" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -26000,8 +26666,10 @@
       <c r="BX322" s="7"/>
       <c r="BY322" s="7"/>
       <c r="BZ322" s="7"/>
-    </row>
-    <row r="323" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA322" s="7"/>
+      <c r="CB322" s="7"/>
+    </row>
+    <row r="323" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -26080,8 +26748,10 @@
       <c r="BX323" s="7"/>
       <c r="BY323" s="7"/>
       <c r="BZ323" s="7"/>
-    </row>
-    <row r="324" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA323" s="7"/>
+      <c r="CB323" s="7"/>
+    </row>
+    <row r="324" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -26160,8 +26830,10 @@
       <c r="BX324" s="7"/>
       <c r="BY324" s="7"/>
       <c r="BZ324" s="7"/>
-    </row>
-    <row r="325" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA324" s="7"/>
+      <c r="CB324" s="7"/>
+    </row>
+    <row r="325" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -26240,8 +26912,10 @@
       <c r="BX325" s="7"/>
       <c r="BY325" s="7"/>
       <c r="BZ325" s="7"/>
-    </row>
-    <row r="326" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA325" s="7"/>
+      <c r="CB325" s="7"/>
+    </row>
+    <row r="326" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -26320,8 +26994,10 @@
       <c r="BX326" s="7"/>
       <c r="BY326" s="7"/>
       <c r="BZ326" s="7"/>
-    </row>
-    <row r="327" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA326" s="7"/>
+      <c r="CB326" s="7"/>
+    </row>
+    <row r="327" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -26400,8 +27076,10 @@
       <c r="BX327" s="7"/>
       <c r="BY327" s="7"/>
       <c r="BZ327" s="7"/>
-    </row>
-    <row r="328" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA327" s="7"/>
+      <c r="CB327" s="7"/>
+    </row>
+    <row r="328" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -26480,8 +27158,10 @@
       <c r="BX328" s="7"/>
       <c r="BY328" s="7"/>
       <c r="BZ328" s="7"/>
-    </row>
-    <row r="329" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA328" s="7"/>
+      <c r="CB328" s="7"/>
+    </row>
+    <row r="329" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -26560,8 +27240,10 @@
       <c r="BX329" s="7"/>
       <c r="BY329" s="7"/>
       <c r="BZ329" s="7"/>
-    </row>
-    <row r="330" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA329" s="7"/>
+      <c r="CB329" s="7"/>
+    </row>
+    <row r="330" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -26640,8 +27322,10 @@
       <c r="BX330" s="7"/>
       <c r="BY330" s="7"/>
       <c r="BZ330" s="7"/>
-    </row>
-    <row r="331" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA330" s="7"/>
+      <c r="CB330" s="7"/>
+    </row>
+    <row r="331" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -26720,8 +27404,10 @@
       <c r="BX331" s="7"/>
       <c r="BY331" s="7"/>
       <c r="BZ331" s="7"/>
-    </row>
-    <row r="332" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA331" s="7"/>
+      <c r="CB331" s="7"/>
+    </row>
+    <row r="332" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -26800,8 +27486,10 @@
       <c r="BX332" s="7"/>
       <c r="BY332" s="7"/>
       <c r="BZ332" s="7"/>
-    </row>
-    <row r="333" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA332" s="7"/>
+      <c r="CB332" s="7"/>
+    </row>
+    <row r="333" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -26880,8 +27568,10 @@
       <c r="BX333" s="7"/>
       <c r="BY333" s="7"/>
       <c r="BZ333" s="7"/>
-    </row>
-    <row r="334" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA333" s="7"/>
+      <c r="CB333" s="7"/>
+    </row>
+    <row r="334" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -26960,8 +27650,10 @@
       <c r="BX334" s="7"/>
       <c r="BY334" s="7"/>
       <c r="BZ334" s="7"/>
-    </row>
-    <row r="335" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA334" s="7"/>
+      <c r="CB334" s="7"/>
+    </row>
+    <row r="335" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -27040,8 +27732,10 @@
       <c r="BX335" s="7"/>
       <c r="BY335" s="7"/>
       <c r="BZ335" s="7"/>
-    </row>
-    <row r="336" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA335" s="7"/>
+      <c r="CB335" s="7"/>
+    </row>
+    <row r="336" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -27120,8 +27814,10 @@
       <c r="BX336" s="7"/>
       <c r="BY336" s="7"/>
       <c r="BZ336" s="7"/>
-    </row>
-    <row r="337" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA336" s="7"/>
+      <c r="CB336" s="7"/>
+    </row>
+    <row r="337" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -27200,8 +27896,10 @@
       <c r="BX337" s="7"/>
       <c r="BY337" s="7"/>
       <c r="BZ337" s="7"/>
-    </row>
-    <row r="338" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA337" s="7"/>
+      <c r="CB337" s="7"/>
+    </row>
+    <row r="338" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -27280,8 +27978,10 @@
       <c r="BX338" s="7"/>
       <c r="BY338" s="7"/>
       <c r="BZ338" s="7"/>
-    </row>
-    <row r="339" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA338" s="7"/>
+      <c r="CB338" s="7"/>
+    </row>
+    <row r="339" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -27360,8 +28060,10 @@
       <c r="BX339" s="7"/>
       <c r="BY339" s="7"/>
       <c r="BZ339" s="7"/>
-    </row>
-    <row r="340" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA339" s="7"/>
+      <c r="CB339" s="7"/>
+    </row>
+    <row r="340" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -27440,8 +28142,10 @@
       <c r="BX340" s="7"/>
       <c r="BY340" s="7"/>
       <c r="BZ340" s="7"/>
-    </row>
-    <row r="341" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA340" s="7"/>
+      <c r="CB340" s="7"/>
+    </row>
+    <row r="341" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -27520,8 +28224,10 @@
       <c r="BX341" s="7"/>
       <c r="BY341" s="7"/>
       <c r="BZ341" s="7"/>
-    </row>
-    <row r="342" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA341" s="7"/>
+      <c r="CB341" s="7"/>
+    </row>
+    <row r="342" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -27600,8 +28306,10 @@
       <c r="BX342" s="7"/>
       <c r="BY342" s="7"/>
       <c r="BZ342" s="7"/>
-    </row>
-    <row r="343" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA342" s="7"/>
+      <c r="CB342" s="7"/>
+    </row>
+    <row r="343" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -27680,8 +28388,10 @@
       <c r="BX343" s="7"/>
       <c r="BY343" s="7"/>
       <c r="BZ343" s="7"/>
-    </row>
-    <row r="344" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA343" s="7"/>
+      <c r="CB343" s="7"/>
+    </row>
+    <row r="344" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -27760,8 +28470,10 @@
       <c r="BX344" s="7"/>
       <c r="BY344" s="7"/>
       <c r="BZ344" s="7"/>
-    </row>
-    <row r="345" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA344" s="7"/>
+      <c r="CB344" s="7"/>
+    </row>
+    <row r="345" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -27840,8 +28552,10 @@
       <c r="BX345" s="7"/>
       <c r="BY345" s="7"/>
       <c r="BZ345" s="7"/>
-    </row>
-    <row r="346" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA345" s="7"/>
+      <c r="CB345" s="7"/>
+    </row>
+    <row r="346" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -27920,8 +28634,10 @@
       <c r="BX346" s="7"/>
       <c r="BY346" s="7"/>
       <c r="BZ346" s="7"/>
-    </row>
-    <row r="347" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA346" s="7"/>
+      <c r="CB346" s="7"/>
+    </row>
+    <row r="347" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -28000,8 +28716,10 @@
       <c r="BX347" s="7"/>
       <c r="BY347" s="7"/>
       <c r="BZ347" s="7"/>
-    </row>
-    <row r="348" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA347" s="7"/>
+      <c r="CB347" s="7"/>
+    </row>
+    <row r="348" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -28080,8 +28798,10 @@
       <c r="BX348" s="7"/>
       <c r="BY348" s="7"/>
       <c r="BZ348" s="7"/>
-    </row>
-    <row r="349" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA348" s="7"/>
+      <c r="CB348" s="7"/>
+    </row>
+    <row r="349" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -28160,8 +28880,10 @@
       <c r="BX349" s="7"/>
       <c r="BY349" s="7"/>
       <c r="BZ349" s="7"/>
-    </row>
-    <row r="350" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA349" s="7"/>
+      <c r="CB349" s="7"/>
+    </row>
+    <row r="350" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -28240,8 +28962,10 @@
       <c r="BX350" s="7"/>
       <c r="BY350" s="7"/>
       <c r="BZ350" s="7"/>
-    </row>
-    <row r="351" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA350" s="7"/>
+      <c r="CB350" s="7"/>
+    </row>
+    <row r="351" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -28320,8 +29044,10 @@
       <c r="BX351" s="7"/>
       <c r="BY351" s="7"/>
       <c r="BZ351" s="7"/>
-    </row>
-    <row r="352" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA351" s="7"/>
+      <c r="CB351" s="7"/>
+    </row>
+    <row r="352" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -28400,8 +29126,10 @@
       <c r="BX352" s="7"/>
       <c r="BY352" s="7"/>
       <c r="BZ352" s="7"/>
-    </row>
-    <row r="353" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA352" s="7"/>
+      <c r="CB352" s="7"/>
+    </row>
+    <row r="353" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -28480,8 +29208,10 @@
       <c r="BX353" s="7"/>
       <c r="BY353" s="7"/>
       <c r="BZ353" s="7"/>
-    </row>
-    <row r="354" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA353" s="7"/>
+      <c r="CB353" s="7"/>
+    </row>
+    <row r="354" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -28560,8 +29290,10 @@
       <c r="BX354" s="7"/>
       <c r="BY354" s="7"/>
       <c r="BZ354" s="7"/>
-    </row>
-    <row r="355" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA354" s="7"/>
+      <c r="CB354" s="7"/>
+    </row>
+    <row r="355" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -28640,8 +29372,10 @@
       <c r="BX355" s="7"/>
       <c r="BY355" s="7"/>
       <c r="BZ355" s="7"/>
-    </row>
-    <row r="356" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA355" s="7"/>
+      <c r="CB355" s="7"/>
+    </row>
+    <row r="356" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -28720,8 +29454,10 @@
       <c r="BX356" s="7"/>
       <c r="BY356" s="7"/>
       <c r="BZ356" s="7"/>
-    </row>
-    <row r="357" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA356" s="7"/>
+      <c r="CB356" s="7"/>
+    </row>
+    <row r="357" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -28800,8 +29536,10 @@
       <c r="BX357" s="7"/>
       <c r="BY357" s="7"/>
       <c r="BZ357" s="7"/>
-    </row>
-    <row r="358" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA357" s="7"/>
+      <c r="CB357" s="7"/>
+    </row>
+    <row r="358" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -28880,8 +29618,10 @@
       <c r="BX358" s="7"/>
       <c r="BY358" s="7"/>
       <c r="BZ358" s="7"/>
-    </row>
-    <row r="359" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA358" s="7"/>
+      <c r="CB358" s="7"/>
+    </row>
+    <row r="359" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -28960,8 +29700,10 @@
       <c r="BX359" s="7"/>
       <c r="BY359" s="7"/>
       <c r="BZ359" s="7"/>
-    </row>
-    <row r="360" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA359" s="7"/>
+      <c r="CB359" s="7"/>
+    </row>
+    <row r="360" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -29040,8 +29782,10 @@
       <c r="BX360" s="7"/>
       <c r="BY360" s="7"/>
       <c r="BZ360" s="7"/>
-    </row>
-    <row r="361" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA360" s="7"/>
+      <c r="CB360" s="7"/>
+    </row>
+    <row r="361" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -29120,8 +29864,10 @@
       <c r="BX361" s="7"/>
       <c r="BY361" s="7"/>
       <c r="BZ361" s="7"/>
-    </row>
-    <row r="362" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA361" s="7"/>
+      <c r="CB361" s="7"/>
+    </row>
+    <row r="362" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -29200,8 +29946,10 @@
       <c r="BX362" s="7"/>
       <c r="BY362" s="7"/>
       <c r="BZ362" s="7"/>
-    </row>
-    <row r="363" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA362" s="7"/>
+      <c r="CB362" s="7"/>
+    </row>
+    <row r="363" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -29280,8 +30028,10 @@
       <c r="BX363" s="7"/>
       <c r="BY363" s="7"/>
       <c r="BZ363" s="7"/>
-    </row>
-    <row r="364" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA363" s="7"/>
+      <c r="CB363" s="7"/>
+    </row>
+    <row r="364" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -29360,8 +30110,10 @@
       <c r="BX364" s="7"/>
       <c r="BY364" s="7"/>
       <c r="BZ364" s="7"/>
-    </row>
-    <row r="365" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA364" s="7"/>
+      <c r="CB364" s="7"/>
+    </row>
+    <row r="365" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -29440,8 +30192,10 @@
       <c r="BX365" s="7"/>
       <c r="BY365" s="7"/>
       <c r="BZ365" s="7"/>
-    </row>
-    <row r="366" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA365" s="7"/>
+      <c r="CB365" s="7"/>
+    </row>
+    <row r="366" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -29520,8 +30274,10 @@
       <c r="BX366" s="7"/>
       <c r="BY366" s="7"/>
       <c r="BZ366" s="7"/>
-    </row>
-    <row r="367" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA366" s="7"/>
+      <c r="CB366" s="7"/>
+    </row>
+    <row r="367" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -29600,8 +30356,10 @@
       <c r="BX367" s="7"/>
       <c r="BY367" s="7"/>
       <c r="BZ367" s="7"/>
-    </row>
-    <row r="368" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA367" s="7"/>
+      <c r="CB367" s="7"/>
+    </row>
+    <row r="368" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -29680,8 +30438,10 @@
       <c r="BX368" s="7"/>
       <c r="BY368" s="7"/>
       <c r="BZ368" s="7"/>
-    </row>
-    <row r="369" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA368" s="7"/>
+      <c r="CB368" s="7"/>
+    </row>
+    <row r="369" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -29760,8 +30520,10 @@
       <c r="BX369" s="7"/>
       <c r="BY369" s="7"/>
       <c r="BZ369" s="7"/>
-    </row>
-    <row r="370" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA369" s="7"/>
+      <c r="CB369" s="7"/>
+    </row>
+    <row r="370" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -29840,8 +30602,10 @@
       <c r="BX370" s="7"/>
       <c r="BY370" s="7"/>
       <c r="BZ370" s="7"/>
-    </row>
-    <row r="371" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA370" s="7"/>
+      <c r="CB370" s="7"/>
+    </row>
+    <row r="371" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -29920,8 +30684,10 @@
       <c r="BX371" s="7"/>
       <c r="BY371" s="7"/>
       <c r="BZ371" s="7"/>
-    </row>
-    <row r="372" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA371" s="7"/>
+      <c r="CB371" s="7"/>
+    </row>
+    <row r="372" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -30000,8 +30766,10 @@
       <c r="BX372" s="7"/>
       <c r="BY372" s="7"/>
       <c r="BZ372" s="7"/>
-    </row>
-    <row r="373" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA372" s="7"/>
+      <c r="CB372" s="7"/>
+    </row>
+    <row r="373" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -30080,8 +30848,10 @@
       <c r="BX373" s="7"/>
       <c r="BY373" s="7"/>
       <c r="BZ373" s="7"/>
-    </row>
-    <row r="374" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA373" s="7"/>
+      <c r="CB373" s="7"/>
+    </row>
+    <row r="374" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -30160,8 +30930,10 @@
       <c r="BX374" s="7"/>
       <c r="BY374" s="7"/>
       <c r="BZ374" s="7"/>
-    </row>
-    <row r="375" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA374" s="7"/>
+      <c r="CB374" s="7"/>
+    </row>
+    <row r="375" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -30240,8 +31012,10 @@
       <c r="BX375" s="7"/>
       <c r="BY375" s="7"/>
       <c r="BZ375" s="7"/>
-    </row>
-    <row r="376" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA375" s="7"/>
+      <c r="CB375" s="7"/>
+    </row>
+    <row r="376" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -30320,8 +31094,10 @@
       <c r="BX376" s="7"/>
       <c r="BY376" s="7"/>
       <c r="BZ376" s="7"/>
-    </row>
-    <row r="377" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA376" s="7"/>
+      <c r="CB376" s="7"/>
+    </row>
+    <row r="377" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -30400,8 +31176,10 @@
       <c r="BX377" s="7"/>
       <c r="BY377" s="7"/>
       <c r="BZ377" s="7"/>
-    </row>
-    <row r="378" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA377" s="7"/>
+      <c r="CB377" s="7"/>
+    </row>
+    <row r="378" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -30480,8 +31258,10 @@
       <c r="BX378" s="7"/>
       <c r="BY378" s="7"/>
       <c r="BZ378" s="7"/>
-    </row>
-    <row r="379" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA378" s="7"/>
+      <c r="CB378" s="7"/>
+    </row>
+    <row r="379" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -30560,8 +31340,10 @@
       <c r="BX379" s="7"/>
       <c r="BY379" s="7"/>
       <c r="BZ379" s="7"/>
-    </row>
-    <row r="380" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA379" s="7"/>
+      <c r="CB379" s="7"/>
+    </row>
+    <row r="380" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -30640,8 +31422,10 @@
       <c r="BX380" s="7"/>
       <c r="BY380" s="7"/>
       <c r="BZ380" s="7"/>
-    </row>
-    <row r="381" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA380" s="7"/>
+      <c r="CB380" s="7"/>
+    </row>
+    <row r="381" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -30720,8 +31504,10 @@
       <c r="BX381" s="7"/>
       <c r="BY381" s="7"/>
       <c r="BZ381" s="7"/>
-    </row>
-    <row r="382" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA381" s="7"/>
+      <c r="CB381" s="7"/>
+    </row>
+    <row r="382" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -30800,8 +31586,10 @@
       <c r="BX382" s="7"/>
       <c r="BY382" s="7"/>
       <c r="BZ382" s="7"/>
-    </row>
-    <row r="383" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA382" s="7"/>
+      <c r="CB382" s="7"/>
+    </row>
+    <row r="383" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -30880,8 +31668,10 @@
       <c r="BX383" s="7"/>
       <c r="BY383" s="7"/>
       <c r="BZ383" s="7"/>
-    </row>
-    <row r="384" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA383" s="7"/>
+      <c r="CB383" s="7"/>
+    </row>
+    <row r="384" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -30960,8 +31750,10 @@
       <c r="BX384" s="7"/>
       <c r="BY384" s="7"/>
       <c r="BZ384" s="7"/>
-    </row>
-    <row r="385" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA384" s="7"/>
+      <c r="CB384" s="7"/>
+    </row>
+    <row r="385" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -31040,8 +31832,10 @@
       <c r="BX385" s="7"/>
       <c r="BY385" s="7"/>
       <c r="BZ385" s="7"/>
-    </row>
-    <row r="386" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA385" s="7"/>
+      <c r="CB385" s="7"/>
+    </row>
+    <row r="386" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -31120,8 +31914,10 @@
       <c r="BX386" s="7"/>
       <c r="BY386" s="7"/>
       <c r="BZ386" s="7"/>
-    </row>
-    <row r="387" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA386" s="7"/>
+      <c r="CB386" s="7"/>
+    </row>
+    <row r="387" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -31200,8 +31996,10 @@
       <c r="BX387" s="7"/>
       <c r="BY387" s="7"/>
       <c r="BZ387" s="7"/>
-    </row>
-    <row r="388" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA387" s="7"/>
+      <c r="CB387" s="7"/>
+    </row>
+    <row r="388" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -31280,8 +32078,10 @@
       <c r="BX388" s="7"/>
       <c r="BY388" s="7"/>
       <c r="BZ388" s="7"/>
-    </row>
-    <row r="389" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA388" s="7"/>
+      <c r="CB388" s="7"/>
+    </row>
+    <row r="389" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -31360,8 +32160,10 @@
       <c r="BX389" s="7"/>
       <c r="BY389" s="7"/>
       <c r="BZ389" s="7"/>
-    </row>
-    <row r="390" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA389" s="7"/>
+      <c r="CB389" s="7"/>
+    </row>
+    <row r="390" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -31440,8 +32242,10 @@
       <c r="BX390" s="7"/>
       <c r="BY390" s="7"/>
       <c r="BZ390" s="7"/>
-    </row>
-    <row r="391" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA390" s="7"/>
+      <c r="CB390" s="7"/>
+    </row>
+    <row r="391" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -31520,8 +32324,10 @@
       <c r="BX391" s="7"/>
       <c r="BY391" s="7"/>
       <c r="BZ391" s="7"/>
-    </row>
-    <row r="392" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA391" s="7"/>
+      <c r="CB391" s="7"/>
+    </row>
+    <row r="392" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -31600,8 +32406,10 @@
       <c r="BX392" s="7"/>
       <c r="BY392" s="7"/>
       <c r="BZ392" s="7"/>
-    </row>
-    <row r="393" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA392" s="7"/>
+      <c r="CB392" s="7"/>
+    </row>
+    <row r="393" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -31680,8 +32488,10 @@
       <c r="BX393" s="7"/>
       <c r="BY393" s="7"/>
       <c r="BZ393" s="7"/>
-    </row>
-    <row r="394" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA393" s="7"/>
+      <c r="CB393" s="7"/>
+    </row>
+    <row r="394" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -31760,8 +32570,10 @@
       <c r="BX394" s="7"/>
       <c r="BY394" s="7"/>
       <c r="BZ394" s="7"/>
-    </row>
-    <row r="395" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA394" s="7"/>
+      <c r="CB394" s="7"/>
+    </row>
+    <row r="395" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -31840,8 +32652,10 @@
       <c r="BX395" s="7"/>
       <c r="BY395" s="7"/>
       <c r="BZ395" s="7"/>
-    </row>
-    <row r="396" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA395" s="7"/>
+      <c r="CB395" s="7"/>
+    </row>
+    <row r="396" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -31920,8 +32734,10 @@
       <c r="BX396" s="7"/>
       <c r="BY396" s="7"/>
       <c r="BZ396" s="7"/>
-    </row>
-    <row r="397" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA396" s="7"/>
+      <c r="CB396" s="7"/>
+    </row>
+    <row r="397" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -32000,8 +32816,10 @@
       <c r="BX397" s="7"/>
       <c r="BY397" s="7"/>
       <c r="BZ397" s="7"/>
-    </row>
-    <row r="398" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA397" s="7"/>
+      <c r="CB397" s="7"/>
+    </row>
+    <row r="398" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -32080,8 +32898,10 @@
       <c r="BX398" s="7"/>
       <c r="BY398" s="7"/>
       <c r="BZ398" s="7"/>
-    </row>
-    <row r="399" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA398" s="7"/>
+      <c r="CB398" s="7"/>
+    </row>
+    <row r="399" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -32160,8 +32980,10 @@
       <c r="BX399" s="7"/>
       <c r="BY399" s="7"/>
       <c r="BZ399" s="7"/>
-    </row>
-    <row r="400" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA399" s="7"/>
+      <c r="CB399" s="7"/>
+    </row>
+    <row r="400" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -32240,8 +33062,10 @@
       <c r="BX400" s="7"/>
       <c r="BY400" s="7"/>
       <c r="BZ400" s="7"/>
-    </row>
-    <row r="401" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA400" s="7"/>
+      <c r="CB400" s="7"/>
+    </row>
+    <row r="401" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -32320,8 +33144,10 @@
       <c r="BX401" s="7"/>
       <c r="BY401" s="7"/>
       <c r="BZ401" s="7"/>
-    </row>
-    <row r="402" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA401" s="7"/>
+      <c r="CB401" s="7"/>
+    </row>
+    <row r="402" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -32400,8 +33226,10 @@
       <c r="BX402" s="7"/>
       <c r="BY402" s="7"/>
       <c r="BZ402" s="7"/>
-    </row>
-    <row r="403" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA402" s="7"/>
+      <c r="CB402" s="7"/>
+    </row>
+    <row r="403" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -32480,8 +33308,10 @@
       <c r="BX403" s="7"/>
       <c r="BY403" s="7"/>
       <c r="BZ403" s="7"/>
-    </row>
-    <row r="404" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA403" s="7"/>
+      <c r="CB403" s="7"/>
+    </row>
+    <row r="404" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -32560,8 +33390,10 @@
       <c r="BX404" s="7"/>
       <c r="BY404" s="7"/>
       <c r="BZ404" s="7"/>
-    </row>
-    <row r="405" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA404" s="7"/>
+      <c r="CB404" s="7"/>
+    </row>
+    <row r="405" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -32640,8 +33472,10 @@
       <c r="BX405" s="7"/>
       <c r="BY405" s="7"/>
       <c r="BZ405" s="7"/>
-    </row>
-    <row r="406" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA405" s="7"/>
+      <c r="CB405" s="7"/>
+    </row>
+    <row r="406" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -32720,8 +33554,10 @@
       <c r="BX406" s="7"/>
       <c r="BY406" s="7"/>
       <c r="BZ406" s="7"/>
-    </row>
-    <row r="407" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA406" s="7"/>
+      <c r="CB406" s="7"/>
+    </row>
+    <row r="407" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -32800,8 +33636,10 @@
       <c r="BX407" s="7"/>
       <c r="BY407" s="7"/>
       <c r="BZ407" s="7"/>
-    </row>
-    <row r="408" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA407" s="7"/>
+      <c r="CB407" s="7"/>
+    </row>
+    <row r="408" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -32880,8 +33718,10 @@
       <c r="BX408" s="7"/>
       <c r="BY408" s="7"/>
       <c r="BZ408" s="7"/>
-    </row>
-    <row r="409" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA408" s="7"/>
+      <c r="CB408" s="7"/>
+    </row>
+    <row r="409" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -32960,8 +33800,10 @@
       <c r="BX409" s="7"/>
       <c r="BY409" s="7"/>
       <c r="BZ409" s="7"/>
-    </row>
-    <row r="410" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA409" s="7"/>
+      <c r="CB409" s="7"/>
+    </row>
+    <row r="410" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -33040,8 +33882,10 @@
       <c r="BX410" s="7"/>
       <c r="BY410" s="7"/>
       <c r="BZ410" s="7"/>
-    </row>
-    <row r="411" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA410" s="7"/>
+      <c r="CB410" s="7"/>
+    </row>
+    <row r="411" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -33120,8 +33964,10 @@
       <c r="BX411" s="7"/>
       <c r="BY411" s="7"/>
       <c r="BZ411" s="7"/>
-    </row>
-    <row r="412" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA411" s="7"/>
+      <c r="CB411" s="7"/>
+    </row>
+    <row r="412" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -33200,8 +34046,10 @@
       <c r="BX412" s="7"/>
       <c r="BY412" s="7"/>
       <c r="BZ412" s="7"/>
-    </row>
-    <row r="413" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA412" s="7"/>
+      <c r="CB412" s="7"/>
+    </row>
+    <row r="413" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -33280,8 +34128,10 @@
       <c r="BX413" s="7"/>
       <c r="BY413" s="7"/>
       <c r="BZ413" s="7"/>
-    </row>
-    <row r="414" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA413" s="7"/>
+      <c r="CB413" s="7"/>
+    </row>
+    <row r="414" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -33360,8 +34210,10 @@
       <c r="BX414" s="7"/>
       <c r="BY414" s="7"/>
       <c r="BZ414" s="7"/>
-    </row>
-    <row r="415" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA414" s="7"/>
+      <c r="CB414" s="7"/>
+    </row>
+    <row r="415" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -33440,8 +34292,10 @@
       <c r="BX415" s="7"/>
       <c r="BY415" s="7"/>
       <c r="BZ415" s="7"/>
-    </row>
-    <row r="416" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA415" s="7"/>
+      <c r="CB415" s="7"/>
+    </row>
+    <row r="416" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -33520,8 +34374,10 @@
       <c r="BX416" s="7"/>
       <c r="BY416" s="7"/>
       <c r="BZ416" s="7"/>
-    </row>
-    <row r="417" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA416" s="7"/>
+      <c r="CB416" s="7"/>
+    </row>
+    <row r="417" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -33600,8 +34456,10 @@
       <c r="BX417" s="7"/>
       <c r="BY417" s="7"/>
       <c r="BZ417" s="7"/>
-    </row>
-    <row r="418" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA417" s="7"/>
+      <c r="CB417" s="7"/>
+    </row>
+    <row r="418" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -33680,8 +34538,10 @@
       <c r="BX418" s="7"/>
       <c r="BY418" s="7"/>
       <c r="BZ418" s="7"/>
-    </row>
-    <row r="419" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA418" s="7"/>
+      <c r="CB418" s="7"/>
+    </row>
+    <row r="419" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -33760,8 +34620,10 @@
       <c r="BX419" s="7"/>
       <c r="BY419" s="7"/>
       <c r="BZ419" s="7"/>
-    </row>
-    <row r="420" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA419" s="7"/>
+      <c r="CB419" s="7"/>
+    </row>
+    <row r="420" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -33840,8 +34702,10 @@
       <c r="BX420" s="7"/>
       <c r="BY420" s="7"/>
       <c r="BZ420" s="7"/>
-    </row>
-    <row r="421" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA420" s="7"/>
+      <c r="CB420" s="7"/>
+    </row>
+    <row r="421" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -33920,8 +34784,10 @@
       <c r="BX421" s="7"/>
       <c r="BY421" s="7"/>
       <c r="BZ421" s="7"/>
-    </row>
-    <row r="422" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA421" s="7"/>
+      <c r="CB421" s="7"/>
+    </row>
+    <row r="422" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -34000,8 +34866,10 @@
       <c r="BX422" s="7"/>
       <c r="BY422" s="7"/>
       <c r="BZ422" s="7"/>
-    </row>
-    <row r="423" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA422" s="7"/>
+      <c r="CB422" s="7"/>
+    </row>
+    <row r="423" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -34080,8 +34948,10 @@
       <c r="BX423" s="7"/>
       <c r="BY423" s="7"/>
       <c r="BZ423" s="7"/>
-    </row>
-    <row r="424" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA423" s="7"/>
+      <c r="CB423" s="7"/>
+    </row>
+    <row r="424" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -34160,8 +35030,10 @@
       <c r="BX424" s="7"/>
       <c r="BY424" s="7"/>
       <c r="BZ424" s="7"/>
-    </row>
-    <row r="425" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA424" s="7"/>
+      <c r="CB424" s="7"/>
+    </row>
+    <row r="425" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -34240,8 +35112,10 @@
       <c r="BX425" s="7"/>
       <c r="BY425" s="7"/>
       <c r="BZ425" s="7"/>
-    </row>
-    <row r="426" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA425" s="7"/>
+      <c r="CB425" s="7"/>
+    </row>
+    <row r="426" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -34320,8 +35194,10 @@
       <c r="BX426" s="7"/>
       <c r="BY426" s="7"/>
       <c r="BZ426" s="7"/>
-    </row>
-    <row r="427" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA426" s="7"/>
+      <c r="CB426" s="7"/>
+    </row>
+    <row r="427" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -34400,8 +35276,10 @@
       <c r="BX427" s="7"/>
       <c r="BY427" s="7"/>
       <c r="BZ427" s="7"/>
-    </row>
-    <row r="428" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA427" s="7"/>
+      <c r="CB427" s="7"/>
+    </row>
+    <row r="428" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -34480,8 +35358,10 @@
       <c r="BX428" s="7"/>
       <c r="BY428" s="7"/>
       <c r="BZ428" s="7"/>
-    </row>
-    <row r="429" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA428" s="7"/>
+      <c r="CB428" s="7"/>
+    </row>
+    <row r="429" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -34560,8 +35440,10 @@
       <c r="BX429" s="7"/>
       <c r="BY429" s="7"/>
       <c r="BZ429" s="7"/>
-    </row>
-    <row r="430" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA429" s="7"/>
+      <c r="CB429" s="7"/>
+    </row>
+    <row r="430" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -34640,8 +35522,10 @@
       <c r="BX430" s="7"/>
       <c r="BY430" s="7"/>
       <c r="BZ430" s="7"/>
-    </row>
-    <row r="431" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA430" s="7"/>
+      <c r="CB430" s="7"/>
+    </row>
+    <row r="431" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -34720,8 +35604,10 @@
       <c r="BX431" s="7"/>
       <c r="BY431" s="7"/>
       <c r="BZ431" s="7"/>
-    </row>
-    <row r="432" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA431" s="7"/>
+      <c r="CB431" s="7"/>
+    </row>
+    <row r="432" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -34800,8 +35686,10 @@
       <c r="BX432" s="7"/>
       <c r="BY432" s="7"/>
       <c r="BZ432" s="7"/>
-    </row>
-    <row r="433" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA432" s="7"/>
+      <c r="CB432" s="7"/>
+    </row>
+    <row r="433" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -34880,8 +35768,10 @@
       <c r="BX433" s="7"/>
       <c r="BY433" s="7"/>
       <c r="BZ433" s="7"/>
-    </row>
-    <row r="434" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA433" s="7"/>
+      <c r="CB433" s="7"/>
+    </row>
+    <row r="434" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -34960,8 +35850,10 @@
       <c r="BX434" s="7"/>
       <c r="BY434" s="7"/>
       <c r="BZ434" s="7"/>
-    </row>
-    <row r="435" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA434" s="7"/>
+      <c r="CB434" s="7"/>
+    </row>
+    <row r="435" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -35040,8 +35932,10 @@
       <c r="BX435" s="7"/>
       <c r="BY435" s="7"/>
       <c r="BZ435" s="7"/>
-    </row>
-    <row r="436" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA435" s="7"/>
+      <c r="CB435" s="7"/>
+    </row>
+    <row r="436" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -35120,8 +36014,10 @@
       <c r="BX436" s="7"/>
       <c r="BY436" s="7"/>
       <c r="BZ436" s="7"/>
-    </row>
-    <row r="437" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA436" s="7"/>
+      <c r="CB436" s="7"/>
+    </row>
+    <row r="437" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -35200,8 +36096,10 @@
       <c r="BX437" s="7"/>
       <c r="BY437" s="7"/>
       <c r="BZ437" s="7"/>
-    </row>
-    <row r="438" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA437" s="7"/>
+      <c r="CB437" s="7"/>
+    </row>
+    <row r="438" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -35280,8 +36178,10 @@
       <c r="BX438" s="7"/>
       <c r="BY438" s="7"/>
       <c r="BZ438" s="7"/>
-    </row>
-    <row r="439" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA438" s="7"/>
+      <c r="CB438" s="7"/>
+    </row>
+    <row r="439" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -35360,8 +36260,10 @@
       <c r="BX439" s="7"/>
       <c r="BY439" s="7"/>
       <c r="BZ439" s="7"/>
-    </row>
-    <row r="440" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA439" s="7"/>
+      <c r="CB439" s="7"/>
+    </row>
+    <row r="440" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -35440,8 +36342,10 @@
       <c r="BX440" s="7"/>
       <c r="BY440" s="7"/>
       <c r="BZ440" s="7"/>
-    </row>
-    <row r="441" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA440" s="7"/>
+      <c r="CB440" s="7"/>
+    </row>
+    <row r="441" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -35520,8 +36424,10 @@
       <c r="BX441" s="7"/>
       <c r="BY441" s="7"/>
       <c r="BZ441" s="7"/>
-    </row>
-    <row r="442" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA441" s="7"/>
+      <c r="CB441" s="7"/>
+    </row>
+    <row r="442" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -35600,8 +36506,10 @@
       <c r="BX442" s="7"/>
       <c r="BY442" s="7"/>
       <c r="BZ442" s="7"/>
-    </row>
-    <row r="443" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA442" s="7"/>
+      <c r="CB442" s="7"/>
+    </row>
+    <row r="443" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -35680,8 +36588,10 @@
       <c r="BX443" s="7"/>
       <c r="BY443" s="7"/>
       <c r="BZ443" s="7"/>
-    </row>
-    <row r="444" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA443" s="7"/>
+      <c r="CB443" s="7"/>
+    </row>
+    <row r="444" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -35760,8 +36670,10 @@
       <c r="BX444" s="7"/>
       <c r="BY444" s="7"/>
       <c r="BZ444" s="7"/>
-    </row>
-    <row r="445" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA444" s="7"/>
+      <c r="CB444" s="7"/>
+    </row>
+    <row r="445" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -35840,8 +36752,10 @@
       <c r="BX445" s="7"/>
       <c r="BY445" s="7"/>
       <c r="BZ445" s="7"/>
-    </row>
-    <row r="446" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA445" s="7"/>
+      <c r="CB445" s="7"/>
+    </row>
+    <row r="446" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -35920,8 +36834,10 @@
       <c r="BX446" s="7"/>
       <c r="BY446" s="7"/>
       <c r="BZ446" s="7"/>
-    </row>
-    <row r="447" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA446" s="7"/>
+      <c r="CB446" s="7"/>
+    </row>
+    <row r="447" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -36000,8 +36916,10 @@
       <c r="BX447" s="7"/>
       <c r="BY447" s="7"/>
       <c r="BZ447" s="7"/>
-    </row>
-    <row r="448" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA447" s="7"/>
+      <c r="CB447" s="7"/>
+    </row>
+    <row r="448" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -36080,8 +36998,10 @@
       <c r="BX448" s="7"/>
       <c r="BY448" s="7"/>
       <c r="BZ448" s="7"/>
-    </row>
-    <row r="449" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA448" s="7"/>
+      <c r="CB448" s="7"/>
+    </row>
+    <row r="449" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -36160,8 +37080,10 @@
       <c r="BX449" s="7"/>
       <c r="BY449" s="7"/>
       <c r="BZ449" s="7"/>
-    </row>
-    <row r="450" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA449" s="7"/>
+      <c r="CB449" s="7"/>
+    </row>
+    <row r="450" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -36240,8 +37162,10 @@
       <c r="BX450" s="7"/>
       <c r="BY450" s="7"/>
       <c r="BZ450" s="7"/>
-    </row>
-    <row r="451" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA450" s="7"/>
+      <c r="CB450" s="7"/>
+    </row>
+    <row r="451" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -36320,8 +37244,10 @@
       <c r="BX451" s="7"/>
       <c r="BY451" s="7"/>
       <c r="BZ451" s="7"/>
-    </row>
-    <row r="452" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA451" s="7"/>
+      <c r="CB451" s="7"/>
+    </row>
+    <row r="452" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -36400,8 +37326,10 @@
       <c r="BX452" s="7"/>
       <c r="BY452" s="7"/>
       <c r="BZ452" s="7"/>
-    </row>
-    <row r="453" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA452" s="7"/>
+      <c r="CB452" s="7"/>
+    </row>
+    <row r="453" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -36480,8 +37408,10 @@
       <c r="BX453" s="7"/>
       <c r="BY453" s="7"/>
       <c r="BZ453" s="7"/>
-    </row>
-    <row r="454" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA453" s="7"/>
+      <c r="CB453" s="7"/>
+    </row>
+    <row r="454" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -36560,8 +37490,10 @@
       <c r="BX454" s="7"/>
       <c r="BY454" s="7"/>
       <c r="BZ454" s="7"/>
-    </row>
-    <row r="455" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA454" s="7"/>
+      <c r="CB454" s="7"/>
+    </row>
+    <row r="455" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -36640,8 +37572,10 @@
       <c r="BX455" s="7"/>
       <c r="BY455" s="7"/>
       <c r="BZ455" s="7"/>
-    </row>
-    <row r="456" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA455" s="7"/>
+      <c r="CB455" s="7"/>
+    </row>
+    <row r="456" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -36720,8 +37654,10 @@
       <c r="BX456" s="7"/>
       <c r="BY456" s="7"/>
       <c r="BZ456" s="7"/>
-    </row>
-    <row r="457" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA456" s="7"/>
+      <c r="CB456" s="7"/>
+    </row>
+    <row r="457" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -36800,8 +37736,10 @@
       <c r="BX457" s="7"/>
       <c r="BY457" s="7"/>
       <c r="BZ457" s="7"/>
-    </row>
-    <row r="458" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA457" s="7"/>
+      <c r="CB457" s="7"/>
+    </row>
+    <row r="458" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -36880,8 +37818,10 @@
       <c r="BX458" s="7"/>
       <c r="BY458" s="7"/>
       <c r="BZ458" s="7"/>
-    </row>
-    <row r="459" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA458" s="7"/>
+      <c r="CB458" s="7"/>
+    </row>
+    <row r="459" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -36960,8 +37900,10 @@
       <c r="BX459" s="7"/>
       <c r="BY459" s="7"/>
       <c r="BZ459" s="7"/>
-    </row>
-    <row r="460" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA459" s="7"/>
+      <c r="CB459" s="7"/>
+    </row>
+    <row r="460" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -37040,8 +37982,10 @@
       <c r="BX460" s="7"/>
       <c r="BY460" s="7"/>
       <c r="BZ460" s="7"/>
-    </row>
-    <row r="461" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA460" s="7"/>
+      <c r="CB460" s="7"/>
+    </row>
+    <row r="461" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -37120,8 +38064,10 @@
       <c r="BX461" s="7"/>
       <c r="BY461" s="7"/>
       <c r="BZ461" s="7"/>
-    </row>
-    <row r="462" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA461" s="7"/>
+      <c r="CB461" s="7"/>
+    </row>
+    <row r="462" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -37200,8 +38146,10 @@
       <c r="BX462" s="7"/>
       <c r="BY462" s="7"/>
       <c r="BZ462" s="7"/>
-    </row>
-    <row r="463" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA462" s="7"/>
+      <c r="CB462" s="7"/>
+    </row>
+    <row r="463" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -37280,8 +38228,10 @@
       <c r="BX463" s="7"/>
       <c r="BY463" s="7"/>
       <c r="BZ463" s="7"/>
-    </row>
-    <row r="464" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA463" s="7"/>
+      <c r="CB463" s="7"/>
+    </row>
+    <row r="464" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -37360,8 +38310,10 @@
       <c r="BX464" s="7"/>
       <c r="BY464" s="7"/>
       <c r="BZ464" s="7"/>
-    </row>
-    <row r="465" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA464" s="7"/>
+      <c r="CB464" s="7"/>
+    </row>
+    <row r="465" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -37440,8 +38392,10 @@
       <c r="BX465" s="7"/>
       <c r="BY465" s="7"/>
       <c r="BZ465" s="7"/>
-    </row>
-    <row r="466" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA465" s="7"/>
+      <c r="CB465" s="7"/>
+    </row>
+    <row r="466" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -37520,8 +38474,10 @@
       <c r="BX466" s="7"/>
       <c r="BY466" s="7"/>
       <c r="BZ466" s="7"/>
-    </row>
-    <row r="467" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA466" s="7"/>
+      <c r="CB466" s="7"/>
+    </row>
+    <row r="467" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -37600,8 +38556,10 @@
       <c r="BX467" s="7"/>
       <c r="BY467" s="7"/>
       <c r="BZ467" s="7"/>
-    </row>
-    <row r="468" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA467" s="7"/>
+      <c r="CB467" s="7"/>
+    </row>
+    <row r="468" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -37680,8 +38638,10 @@
       <c r="BX468" s="7"/>
       <c r="BY468" s="7"/>
       <c r="BZ468" s="7"/>
-    </row>
-    <row r="469" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA468" s="7"/>
+      <c r="CB468" s="7"/>
+    </row>
+    <row r="469" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -37760,8 +38720,10 @@
       <c r="BX469" s="7"/>
       <c r="BY469" s="7"/>
       <c r="BZ469" s="7"/>
-    </row>
-    <row r="470" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA469" s="7"/>
+      <c r="CB469" s="7"/>
+    </row>
+    <row r="470" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -37840,8 +38802,10 @@
       <c r="BX470" s="7"/>
       <c r="BY470" s="7"/>
       <c r="BZ470" s="7"/>
-    </row>
-    <row r="471" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA470" s="7"/>
+      <c r="CB470" s="7"/>
+    </row>
+    <row r="471" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -37920,8 +38884,10 @@
       <c r="BX471" s="7"/>
       <c r="BY471" s="7"/>
       <c r="BZ471" s="7"/>
-    </row>
-    <row r="472" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA471" s="7"/>
+      <c r="CB471" s="7"/>
+    </row>
+    <row r="472" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -38000,8 +38966,10 @@
       <c r="BX472" s="7"/>
       <c r="BY472" s="7"/>
       <c r="BZ472" s="7"/>
-    </row>
-    <row r="473" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA472" s="7"/>
+      <c r="CB472" s="7"/>
+    </row>
+    <row r="473" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -38080,8 +39048,10 @@
       <c r="BX473" s="7"/>
       <c r="BY473" s="7"/>
       <c r="BZ473" s="7"/>
-    </row>
-    <row r="474" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA473" s="7"/>
+      <c r="CB473" s="7"/>
+    </row>
+    <row r="474" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -38160,8 +39130,10 @@
       <c r="BX474" s="7"/>
       <c r="BY474" s="7"/>
       <c r="BZ474" s="7"/>
-    </row>
-    <row r="475" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA474" s="7"/>
+      <c r="CB474" s="7"/>
+    </row>
+    <row r="475" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -38240,8 +39212,10 @@
       <c r="BX475" s="7"/>
       <c r="BY475" s="7"/>
       <c r="BZ475" s="7"/>
-    </row>
-    <row r="476" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA475" s="7"/>
+      <c r="CB475" s="7"/>
+    </row>
+    <row r="476" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -38320,8 +39294,10 @@
       <c r="BX476" s="7"/>
       <c r="BY476" s="7"/>
       <c r="BZ476" s="7"/>
-    </row>
-    <row r="477" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA476" s="7"/>
+      <c r="CB476" s="7"/>
+    </row>
+    <row r="477" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -38400,8 +39376,10 @@
       <c r="BX477" s="7"/>
       <c r="BY477" s="7"/>
       <c r="BZ477" s="7"/>
-    </row>
-    <row r="478" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA477" s="7"/>
+      <c r="CB477" s="7"/>
+    </row>
+    <row r="478" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -38480,8 +39458,10 @@
       <c r="BX478" s="7"/>
       <c r="BY478" s="7"/>
       <c r="BZ478" s="7"/>
-    </row>
-    <row r="479" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA478" s="7"/>
+      <c r="CB478" s="7"/>
+    </row>
+    <row r="479" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -38560,8 +39540,10 @@
       <c r="BX479" s="7"/>
       <c r="BY479" s="7"/>
       <c r="BZ479" s="7"/>
-    </row>
-    <row r="480" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA479" s="7"/>
+      <c r="CB479" s="7"/>
+    </row>
+    <row r="480" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -38640,8 +39622,10 @@
       <c r="BX480" s="7"/>
       <c r="BY480" s="7"/>
       <c r="BZ480" s="7"/>
-    </row>
-    <row r="481" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA480" s="7"/>
+      <c r="CB480" s="7"/>
+    </row>
+    <row r="481" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -38720,8 +39704,10 @@
       <c r="BX481" s="7"/>
       <c r="BY481" s="7"/>
       <c r="BZ481" s="7"/>
-    </row>
-    <row r="482" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA481" s="7"/>
+      <c r="CB481" s="7"/>
+    </row>
+    <row r="482" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -38800,8 +39786,10 @@
       <c r="BX482" s="7"/>
       <c r="BY482" s="7"/>
       <c r="BZ482" s="7"/>
-    </row>
-    <row r="483" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA482" s="7"/>
+      <c r="CB482" s="7"/>
+    </row>
+    <row r="483" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -38880,8 +39868,10 @@
       <c r="BX483" s="7"/>
       <c r="BY483" s="7"/>
       <c r="BZ483" s="7"/>
-    </row>
-    <row r="484" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA483" s="7"/>
+      <c r="CB483" s="7"/>
+    </row>
+    <row r="484" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -38960,8 +39950,10 @@
       <c r="BX484" s="7"/>
       <c r="BY484" s="7"/>
       <c r="BZ484" s="7"/>
-    </row>
-    <row r="485" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA484" s="7"/>
+      <c r="CB484" s="7"/>
+    </row>
+    <row r="485" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -39040,8 +40032,10 @@
       <c r="BX485" s="7"/>
       <c r="BY485" s="7"/>
       <c r="BZ485" s="7"/>
-    </row>
-    <row r="486" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA485" s="7"/>
+      <c r="CB485" s="7"/>
+    </row>
+    <row r="486" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -39120,8 +40114,10 @@
       <c r="BX486" s="7"/>
       <c r="BY486" s="7"/>
       <c r="BZ486" s="7"/>
-    </row>
-    <row r="487" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA486" s="7"/>
+      <c r="CB486" s="7"/>
+    </row>
+    <row r="487" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -39200,8 +40196,10 @@
       <c r="BX487" s="7"/>
       <c r="BY487" s="7"/>
       <c r="BZ487" s="7"/>
-    </row>
-    <row r="488" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA487" s="7"/>
+      <c r="CB487" s="7"/>
+    </row>
+    <row r="488" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -39280,8 +40278,10 @@
       <c r="BX488" s="7"/>
       <c r="BY488" s="7"/>
       <c r="BZ488" s="7"/>
-    </row>
-    <row r="489" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA488" s="7"/>
+      <c r="CB488" s="7"/>
+    </row>
+    <row r="489" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -39360,8 +40360,10 @@
       <c r="BX489" s="7"/>
       <c r="BY489" s="7"/>
       <c r="BZ489" s="7"/>
-    </row>
-    <row r="490" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA489" s="7"/>
+      <c r="CB489" s="7"/>
+    </row>
+    <row r="490" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -39440,8 +40442,10 @@
       <c r="BX490" s="7"/>
       <c r="BY490" s="7"/>
       <c r="BZ490" s="7"/>
-    </row>
-    <row r="491" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA490" s="7"/>
+      <c r="CB490" s="7"/>
+    </row>
+    <row r="491" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -39520,8 +40524,10 @@
       <c r="BX491" s="7"/>
       <c r="BY491" s="7"/>
       <c r="BZ491" s="7"/>
-    </row>
-    <row r="492" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA491" s="7"/>
+      <c r="CB491" s="7"/>
+    </row>
+    <row r="492" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -39600,8 +40606,10 @@
       <c r="BX492" s="7"/>
       <c r="BY492" s="7"/>
       <c r="BZ492" s="7"/>
-    </row>
-    <row r="493" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA492" s="7"/>
+      <c r="CB492" s="7"/>
+    </row>
+    <row r="493" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -39680,8 +40688,10 @@
       <c r="BX493" s="7"/>
       <c r="BY493" s="7"/>
       <c r="BZ493" s="7"/>
-    </row>
-    <row r="494" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA493" s="7"/>
+      <c r="CB493" s="7"/>
+    </row>
+    <row r="494" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -39760,8 +40770,10 @@
       <c r="BX494" s="7"/>
       <c r="BY494" s="7"/>
       <c r="BZ494" s="7"/>
-    </row>
-    <row r="495" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA494" s="7"/>
+      <c r="CB494" s="7"/>
+    </row>
+    <row r="495" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -39840,8 +40852,10 @@
       <c r="BX495" s="7"/>
       <c r="BY495" s="7"/>
       <c r="BZ495" s="7"/>
-    </row>
-    <row r="496" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA495" s="7"/>
+      <c r="CB495" s="7"/>
+    </row>
+    <row r="496" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -39920,8 +40934,10 @@
       <c r="BX496" s="7"/>
       <c r="BY496" s="7"/>
       <c r="BZ496" s="7"/>
-    </row>
-    <row r="497" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA496" s="7"/>
+      <c r="CB496" s="7"/>
+    </row>
+    <row r="497" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -40000,8 +41016,10 @@
       <c r="BX497" s="7"/>
       <c r="BY497" s="7"/>
       <c r="BZ497" s="7"/>
-    </row>
-    <row r="498" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA497" s="7"/>
+      <c r="CB497" s="7"/>
+    </row>
+    <row r="498" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -40080,8 +41098,10 @@
       <c r="BX498" s="7"/>
       <c r="BY498" s="7"/>
       <c r="BZ498" s="7"/>
-    </row>
-    <row r="499" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA498" s="7"/>
+      <c r="CB498" s="7"/>
+    </row>
+    <row r="499" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -40160,8 +41180,10 @@
       <c r="BX499" s="7"/>
       <c r="BY499" s="7"/>
       <c r="BZ499" s="7"/>
-    </row>
-    <row r="500" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA499" s="7"/>
+      <c r="CB499" s="7"/>
+    </row>
+    <row r="500" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -40240,8 +41262,10 @@
       <c r="BX500" s="7"/>
       <c r="BY500" s="7"/>
       <c r="BZ500" s="7"/>
-    </row>
-    <row r="501" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA500" s="7"/>
+      <c r="CB500" s="7"/>
+    </row>
+    <row r="501" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -40320,8 +41344,10 @@
       <c r="BX501" s="7"/>
       <c r="BY501" s="7"/>
       <c r="BZ501" s="7"/>
-    </row>
-    <row r="502" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA501" s="7"/>
+      <c r="CB501" s="7"/>
+    </row>
+    <row r="502" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -40400,8 +41426,10 @@
       <c r="BX502" s="7"/>
       <c r="BY502" s="7"/>
       <c r="BZ502" s="7"/>
-    </row>
-    <row r="503" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA502" s="7"/>
+      <c r="CB502" s="7"/>
+    </row>
+    <row r="503" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -40480,8 +41508,10 @@
       <c r="BX503" s="7"/>
       <c r="BY503" s="7"/>
       <c r="BZ503" s="7"/>
-    </row>
-    <row r="504" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA503" s="7"/>
+      <c r="CB503" s="7"/>
+    </row>
+    <row r="504" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -40560,8 +41590,10 @@
       <c r="BX504" s="7"/>
       <c r="BY504" s="7"/>
       <c r="BZ504" s="7"/>
-    </row>
-    <row r="505" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA504" s="7"/>
+      <c r="CB504" s="7"/>
+    </row>
+    <row r="505" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -40640,8 +41672,10 @@
       <c r="BX505" s="7"/>
       <c r="BY505" s="7"/>
       <c r="BZ505" s="7"/>
-    </row>
-    <row r="506" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA505" s="7"/>
+      <c r="CB505" s="7"/>
+    </row>
+    <row r="506" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -40720,8 +41754,10 @@
       <c r="BX506" s="7"/>
       <c r="BY506" s="7"/>
       <c r="BZ506" s="7"/>
-    </row>
-    <row r="507" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA506" s="7"/>
+      <c r="CB506" s="7"/>
+    </row>
+    <row r="507" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -40800,8 +41836,10 @@
       <c r="BX507" s="7"/>
       <c r="BY507" s="7"/>
       <c r="BZ507" s="7"/>
-    </row>
-    <row r="508" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA507" s="7"/>
+      <c r="CB507" s="7"/>
+    </row>
+    <row r="508" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -40880,8 +41918,10 @@
       <c r="BX508" s="7"/>
       <c r="BY508" s="7"/>
       <c r="BZ508" s="7"/>
-    </row>
-    <row r="509" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA508" s="7"/>
+      <c r="CB508" s="7"/>
+    </row>
+    <row r="509" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -40960,8 +42000,10 @@
       <c r="BX509" s="7"/>
       <c r="BY509" s="7"/>
       <c r="BZ509" s="7"/>
-    </row>
-    <row r="510" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA509" s="7"/>
+      <c r="CB509" s="7"/>
+    </row>
+    <row r="510" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -41040,8 +42082,10 @@
       <c r="BX510" s="7"/>
       <c r="BY510" s="7"/>
       <c r="BZ510" s="7"/>
-    </row>
-    <row r="511" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA510" s="7"/>
+      <c r="CB510" s="7"/>
+    </row>
+    <row r="511" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -41120,8 +42164,10 @@
       <c r="BX511" s="7"/>
       <c r="BY511" s="7"/>
       <c r="BZ511" s="7"/>
-    </row>
-    <row r="512" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA511" s="7"/>
+      <c r="CB511" s="7"/>
+    </row>
+    <row r="512" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -41200,8 +42246,10 @@
       <c r="BX512" s="7"/>
       <c r="BY512" s="7"/>
       <c r="BZ512" s="7"/>
-    </row>
-    <row r="513" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA512" s="7"/>
+      <c r="CB512" s="7"/>
+    </row>
+    <row r="513" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -41280,8 +42328,10 @@
       <c r="BX513" s="7"/>
       <c r="BY513" s="7"/>
       <c r="BZ513" s="7"/>
-    </row>
-    <row r="514" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA513" s="7"/>
+      <c r="CB513" s="7"/>
+    </row>
+    <row r="514" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -41360,8 +42410,10 @@
       <c r="BX514" s="7"/>
       <c r="BY514" s="7"/>
       <c r="BZ514" s="7"/>
-    </row>
-    <row r="515" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA514" s="7"/>
+      <c r="CB514" s="7"/>
+    </row>
+    <row r="515" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -41440,8 +42492,10 @@
       <c r="BX515" s="7"/>
       <c r="BY515" s="7"/>
       <c r="BZ515" s="7"/>
-    </row>
-    <row r="516" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA515" s="7"/>
+      <c r="CB515" s="7"/>
+    </row>
+    <row r="516" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -41520,8 +42574,10 @@
       <c r="BX516" s="7"/>
       <c r="BY516" s="7"/>
       <c r="BZ516" s="7"/>
-    </row>
-    <row r="517" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA516" s="7"/>
+      <c r="CB516" s="7"/>
+    </row>
+    <row r="517" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -41600,8 +42656,10 @@
       <c r="BX517" s="7"/>
       <c r="BY517" s="7"/>
       <c r="BZ517" s="7"/>
-    </row>
-    <row r="518" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA517" s="7"/>
+      <c r="CB517" s="7"/>
+    </row>
+    <row r="518" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -41680,8 +42738,10 @@
       <c r="BX518" s="7"/>
       <c r="BY518" s="7"/>
       <c r="BZ518" s="7"/>
-    </row>
-    <row r="519" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA518" s="7"/>
+      <c r="CB518" s="7"/>
+    </row>
+    <row r="519" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -41760,8 +42820,10 @@
       <c r="BX519" s="7"/>
       <c r="BY519" s="7"/>
       <c r="BZ519" s="7"/>
-    </row>
-    <row r="520" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA519" s="7"/>
+      <c r="CB519" s="7"/>
+    </row>
+    <row r="520" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -41840,8 +42902,10 @@
       <c r="BX520" s="7"/>
       <c r="BY520" s="7"/>
       <c r="BZ520" s="7"/>
-    </row>
-    <row r="521" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA520" s="7"/>
+      <c r="CB520" s="7"/>
+    </row>
+    <row r="521" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -41920,8 +42984,10 @@
       <c r="BX521" s="7"/>
       <c r="BY521" s="7"/>
       <c r="BZ521" s="7"/>
-    </row>
-    <row r="522" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA521" s="7"/>
+      <c r="CB521" s="7"/>
+    </row>
+    <row r="522" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -42000,8 +43066,10 @@
       <c r="BX522" s="7"/>
       <c r="BY522" s="7"/>
       <c r="BZ522" s="7"/>
-    </row>
-    <row r="523" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA522" s="7"/>
+      <c r="CB522" s="7"/>
+    </row>
+    <row r="523" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -42080,8 +43148,10 @@
       <c r="BX523" s="7"/>
       <c r="BY523" s="7"/>
       <c r="BZ523" s="7"/>
-    </row>
-    <row r="524" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA523" s="7"/>
+      <c r="CB523" s="7"/>
+    </row>
+    <row r="524" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -42160,8 +43230,10 @@
       <c r="BX524" s="7"/>
       <c r="BY524" s="7"/>
       <c r="BZ524" s="7"/>
-    </row>
-    <row r="525" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA524" s="7"/>
+      <c r="CB524" s="7"/>
+    </row>
+    <row r="525" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -42240,8 +43312,10 @@
       <c r="BX525" s="7"/>
       <c r="BY525" s="7"/>
       <c r="BZ525" s="7"/>
-    </row>
-    <row r="526" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA525" s="7"/>
+      <c r="CB525" s="7"/>
+    </row>
+    <row r="526" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -42320,8 +43394,10 @@
       <c r="BX526" s="7"/>
       <c r="BY526" s="7"/>
       <c r="BZ526" s="7"/>
-    </row>
-    <row r="527" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA526" s="7"/>
+      <c r="CB526" s="7"/>
+    </row>
+    <row r="527" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -42400,8 +43476,10 @@
       <c r="BX527" s="7"/>
       <c r="BY527" s="7"/>
       <c r="BZ527" s="7"/>
-    </row>
-    <row r="528" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA527" s="7"/>
+      <c r="CB527" s="7"/>
+    </row>
+    <row r="528" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -42480,8 +43558,10 @@
       <c r="BX528" s="7"/>
       <c r="BY528" s="7"/>
       <c r="BZ528" s="7"/>
-    </row>
-    <row r="529" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA528" s="7"/>
+      <c r="CB528" s="7"/>
+    </row>
+    <row r="529" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -42560,8 +43640,10 @@
       <c r="BX529" s="7"/>
       <c r="BY529" s="7"/>
       <c r="BZ529" s="7"/>
-    </row>
-    <row r="530" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA529" s="7"/>
+      <c r="CB529" s="7"/>
+    </row>
+    <row r="530" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -42640,8 +43722,10 @@
       <c r="BX530" s="7"/>
       <c r="BY530" s="7"/>
       <c r="BZ530" s="7"/>
-    </row>
-    <row r="531" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA530" s="7"/>
+      <c r="CB530" s="7"/>
+    </row>
+    <row r="531" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -42720,8 +43804,10 @@
       <c r="BX531" s="7"/>
       <c r="BY531" s="7"/>
       <c r="BZ531" s="7"/>
-    </row>
-    <row r="532" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA531" s="7"/>
+      <c r="CB531" s="7"/>
+    </row>
+    <row r="532" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -42800,8 +43886,10 @@
       <c r="BX532" s="7"/>
       <c r="BY532" s="7"/>
       <c r="BZ532" s="7"/>
-    </row>
-    <row r="533" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA532" s="7"/>
+      <c r="CB532" s="7"/>
+    </row>
+    <row r="533" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -42880,8 +43968,10 @@
       <c r="BX533" s="7"/>
       <c r="BY533" s="7"/>
       <c r="BZ533" s="7"/>
-    </row>
-    <row r="534" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA533" s="7"/>
+      <c r="CB533" s="7"/>
+    </row>
+    <row r="534" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -42960,8 +44050,10 @@
       <c r="BX534" s="7"/>
       <c r="BY534" s="7"/>
       <c r="BZ534" s="7"/>
-    </row>
-    <row r="535" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA534" s="7"/>
+      <c r="CB534" s="7"/>
+    </row>
+    <row r="535" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -43040,8 +44132,10 @@
       <c r="BX535" s="7"/>
       <c r="BY535" s="7"/>
       <c r="BZ535" s="7"/>
-    </row>
-    <row r="536" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA535" s="7"/>
+      <c r="CB535" s="7"/>
+    </row>
+    <row r="536" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -43120,8 +44214,10 @@
       <c r="BX536" s="7"/>
       <c r="BY536" s="7"/>
       <c r="BZ536" s="7"/>
-    </row>
-    <row r="537" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA536" s="7"/>
+      <c r="CB536" s="7"/>
+    </row>
+    <row r="537" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -43200,8 +44296,10 @@
       <c r="BX537" s="7"/>
       <c r="BY537" s="7"/>
       <c r="BZ537" s="7"/>
-    </row>
-    <row r="538" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA537" s="7"/>
+      <c r="CB537" s="7"/>
+    </row>
+    <row r="538" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -43280,8 +44378,10 @@
       <c r="BX538" s="7"/>
       <c r="BY538" s="7"/>
       <c r="BZ538" s="7"/>
-    </row>
-    <row r="539" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA538" s="7"/>
+      <c r="CB538" s="7"/>
+    </row>
+    <row r="539" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -43360,8 +44460,10 @@
       <c r="BX539" s="7"/>
       <c r="BY539" s="7"/>
       <c r="BZ539" s="7"/>
-    </row>
-    <row r="540" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA539" s="7"/>
+      <c r="CB539" s="7"/>
+    </row>
+    <row r="540" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -43440,8 +44542,10 @@
       <c r="BX540" s="7"/>
       <c r="BY540" s="7"/>
       <c r="BZ540" s="7"/>
-    </row>
-    <row r="541" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA540" s="7"/>
+      <c r="CB540" s="7"/>
+    </row>
+    <row r="541" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -43520,8 +44624,10 @@
       <c r="BX541" s="7"/>
       <c r="BY541" s="7"/>
       <c r="BZ541" s="7"/>
-    </row>
-    <row r="542" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA541" s="7"/>
+      <c r="CB541" s="7"/>
+    </row>
+    <row r="542" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -43600,8 +44706,10 @@
       <c r="BX542" s="7"/>
       <c r="BY542" s="7"/>
       <c r="BZ542" s="7"/>
-    </row>
-    <row r="543" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA542" s="7"/>
+      <c r="CB542" s="7"/>
+    </row>
+    <row r="543" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -43680,8 +44788,10 @@
       <c r="BX543" s="7"/>
       <c r="BY543" s="7"/>
       <c r="BZ543" s="7"/>
-    </row>
-    <row r="544" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA543" s="7"/>
+      <c r="CB543" s="7"/>
+    </row>
+    <row r="544" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -43760,8 +44870,10 @@
       <c r="BX544" s="7"/>
       <c r="BY544" s="7"/>
       <c r="BZ544" s="7"/>
-    </row>
-    <row r="545" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA544" s="7"/>
+      <c r="CB544" s="7"/>
+    </row>
+    <row r="545" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -43840,8 +44952,10 @@
       <c r="BX545" s="7"/>
       <c r="BY545" s="7"/>
       <c r="BZ545" s="7"/>
-    </row>
-    <row r="546" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA545" s="7"/>
+      <c r="CB545" s="7"/>
+    </row>
+    <row r="546" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -43920,8 +45034,10 @@
       <c r="BX546" s="7"/>
       <c r="BY546" s="7"/>
       <c r="BZ546" s="7"/>
-    </row>
-    <row r="547" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA546" s="7"/>
+      <c r="CB546" s="7"/>
+    </row>
+    <row r="547" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -44000,8 +45116,10 @@
       <c r="BX547" s="7"/>
       <c r="BY547" s="7"/>
       <c r="BZ547" s="7"/>
-    </row>
-    <row r="548" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA547" s="7"/>
+      <c r="CB547" s="7"/>
+    </row>
+    <row r="548" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -44080,8 +45198,10 @@
       <c r="BX548" s="7"/>
       <c r="BY548" s="7"/>
       <c r="BZ548" s="7"/>
-    </row>
-    <row r="549" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA548" s="7"/>
+      <c r="CB548" s="7"/>
+    </row>
+    <row r="549" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -44160,8 +45280,10 @@
       <c r="BX549" s="7"/>
       <c r="BY549" s="7"/>
       <c r="BZ549" s="7"/>
-    </row>
-    <row r="550" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA549" s="7"/>
+      <c r="CB549" s="7"/>
+    </row>
+    <row r="550" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -44240,8 +45362,10 @@
       <c r="BX550" s="7"/>
       <c r="BY550" s="7"/>
       <c r="BZ550" s="7"/>
-    </row>
-    <row r="551" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA550" s="7"/>
+      <c r="CB550" s="7"/>
+    </row>
+    <row r="551" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -44320,8 +45444,10 @@
       <c r="BX551" s="7"/>
       <c r="BY551" s="7"/>
       <c r="BZ551" s="7"/>
-    </row>
-    <row r="552" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA551" s="7"/>
+      <c r="CB551" s="7"/>
+    </row>
+    <row r="552" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -44400,8 +45526,10 @@
       <c r="BX552" s="7"/>
       <c r="BY552" s="7"/>
       <c r="BZ552" s="7"/>
-    </row>
-    <row r="553" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA552" s="7"/>
+      <c r="CB552" s="7"/>
+    </row>
+    <row r="553" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -44480,8 +45608,10 @@
       <c r="BX553" s="7"/>
       <c r="BY553" s="7"/>
       <c r="BZ553" s="7"/>
-    </row>
-    <row r="554" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA553" s="7"/>
+      <c r="CB553" s="7"/>
+    </row>
+    <row r="554" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -44560,8 +45690,10 @@
       <c r="BX554" s="7"/>
       <c r="BY554" s="7"/>
       <c r="BZ554" s="7"/>
-    </row>
-    <row r="555" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA554" s="7"/>
+      <c r="CB554" s="7"/>
+    </row>
+    <row r="555" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -44640,8 +45772,10 @@
       <c r="BX555" s="7"/>
       <c r="BY555" s="7"/>
       <c r="BZ555" s="7"/>
-    </row>
-    <row r="556" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA555" s="7"/>
+      <c r="CB555" s="7"/>
+    </row>
+    <row r="556" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -44720,8 +45854,10 @@
       <c r="BX556" s="7"/>
       <c r="BY556" s="7"/>
       <c r="BZ556" s="7"/>
-    </row>
-    <row r="557" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA556" s="7"/>
+      <c r="CB556" s="7"/>
+    </row>
+    <row r="557" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -44800,8 +45936,10 @@
       <c r="BX557" s="7"/>
       <c r="BY557" s="7"/>
       <c r="BZ557" s="7"/>
-    </row>
-    <row r="558" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA557" s="7"/>
+      <c r="CB557" s="7"/>
+    </row>
+    <row r="558" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -44880,8 +46018,10 @@
       <c r="BX558" s="7"/>
       <c r="BY558" s="7"/>
       <c r="BZ558" s="7"/>
-    </row>
-    <row r="559" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA558" s="7"/>
+      <c r="CB558" s="7"/>
+    </row>
+    <row r="559" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -44960,8 +46100,10 @@
       <c r="BX559" s="7"/>
       <c r="BY559" s="7"/>
       <c r="BZ559" s="7"/>
-    </row>
-    <row r="560" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA559" s="7"/>
+      <c r="CB559" s="7"/>
+    </row>
+    <row r="560" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -45040,8 +46182,10 @@
       <c r="BX560" s="7"/>
       <c r="BY560" s="7"/>
       <c r="BZ560" s="7"/>
-    </row>
-    <row r="561" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA560" s="7"/>
+      <c r="CB560" s="7"/>
+    </row>
+    <row r="561" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -45120,8 +46264,10 @@
       <c r="BX561" s="7"/>
       <c r="BY561" s="7"/>
       <c r="BZ561" s="7"/>
-    </row>
-    <row r="562" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA561" s="7"/>
+      <c r="CB561" s="7"/>
+    </row>
+    <row r="562" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -45200,8 +46346,10 @@
       <c r="BX562" s="7"/>
       <c r="BY562" s="7"/>
       <c r="BZ562" s="7"/>
-    </row>
-    <row r="563" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA562" s="7"/>
+      <c r="CB562" s="7"/>
+    </row>
+    <row r="563" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -45280,8 +46428,10 @@
       <c r="BX563" s="7"/>
       <c r="BY563" s="7"/>
       <c r="BZ563" s="7"/>
-    </row>
-    <row r="564" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA563" s="7"/>
+      <c r="CB563" s="7"/>
+    </row>
+    <row r="564" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -45360,8 +46510,10 @@
       <c r="BX564" s="7"/>
       <c r="BY564" s="7"/>
       <c r="BZ564" s="7"/>
-    </row>
-    <row r="565" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA564" s="7"/>
+      <c r="CB564" s="7"/>
+    </row>
+    <row r="565" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -45440,8 +46592,10 @@
       <c r="BX565" s="7"/>
       <c r="BY565" s="7"/>
       <c r="BZ565" s="7"/>
-    </row>
-    <row r="566" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA565" s="7"/>
+      <c r="CB565" s="7"/>
+    </row>
+    <row r="566" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -45520,8 +46674,10 @@
       <c r="BX566" s="7"/>
       <c r="BY566" s="7"/>
       <c r="BZ566" s="7"/>
-    </row>
-    <row r="567" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA566" s="7"/>
+      <c r="CB566" s="7"/>
+    </row>
+    <row r="567" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -45600,8 +46756,10 @@
       <c r="BX567" s="7"/>
       <c r="BY567" s="7"/>
       <c r="BZ567" s="7"/>
-    </row>
-    <row r="568" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA567" s="7"/>
+      <c r="CB567" s="7"/>
+    </row>
+    <row r="568" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -45680,8 +46838,10 @@
       <c r="BX568" s="7"/>
       <c r="BY568" s="7"/>
       <c r="BZ568" s="7"/>
-    </row>
-    <row r="569" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA568" s="7"/>
+      <c r="CB568" s="7"/>
+    </row>
+    <row r="569" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -45760,8 +46920,10 @@
       <c r="BX569" s="7"/>
       <c r="BY569" s="7"/>
       <c r="BZ569" s="7"/>
-    </row>
-    <row r="570" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA569" s="7"/>
+      <c r="CB569" s="7"/>
+    </row>
+    <row r="570" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -45840,8 +47002,10 @@
       <c r="BX570" s="7"/>
       <c r="BY570" s="7"/>
       <c r="BZ570" s="7"/>
-    </row>
-    <row r="571" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA570" s="7"/>
+      <c r="CB570" s="7"/>
+    </row>
+    <row r="571" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -45920,8 +47084,10 @@
       <c r="BX571" s="7"/>
       <c r="BY571" s="7"/>
       <c r="BZ571" s="7"/>
-    </row>
-    <row r="572" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA571" s="7"/>
+      <c r="CB571" s="7"/>
+    </row>
+    <row r="572" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -46000,8 +47166,10 @@
       <c r="BX572" s="7"/>
       <c r="BY572" s="7"/>
       <c r="BZ572" s="7"/>
-    </row>
-    <row r="573" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA572" s="7"/>
+      <c r="CB572" s="7"/>
+    </row>
+    <row r="573" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -46080,8 +47248,10 @@
       <c r="BX573" s="7"/>
       <c r="BY573" s="7"/>
       <c r="BZ573" s="7"/>
-    </row>
-    <row r="574" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA573" s="7"/>
+      <c r="CB573" s="7"/>
+    </row>
+    <row r="574" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -46160,8 +47330,10 @@
       <c r="BX574" s="7"/>
       <c r="BY574" s="7"/>
       <c r="BZ574" s="7"/>
-    </row>
-    <row r="575" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA574" s="7"/>
+      <c r="CB574" s="7"/>
+    </row>
+    <row r="575" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -46240,8 +47412,10 @@
       <c r="BX575" s="7"/>
       <c r="BY575" s="7"/>
       <c r="BZ575" s="7"/>
-    </row>
-    <row r="576" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA575" s="7"/>
+      <c r="CB575" s="7"/>
+    </row>
+    <row r="576" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -46320,8 +47494,10 @@
       <c r="BX576" s="7"/>
       <c r="BY576" s="7"/>
       <c r="BZ576" s="7"/>
-    </row>
-    <row r="577" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA576" s="7"/>
+      <c r="CB576" s="7"/>
+    </row>
+    <row r="577" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -46400,8 +47576,10 @@
       <c r="BX577" s="7"/>
       <c r="BY577" s="7"/>
       <c r="BZ577" s="7"/>
-    </row>
-    <row r="578" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA577" s="7"/>
+      <c r="CB577" s="7"/>
+    </row>
+    <row r="578" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -46480,8 +47658,10 @@
       <c r="BX578" s="7"/>
       <c r="BY578" s="7"/>
       <c r="BZ578" s="7"/>
-    </row>
-    <row r="579" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA578" s="7"/>
+      <c r="CB578" s="7"/>
+    </row>
+    <row r="579" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -46560,8 +47740,10 @@
       <c r="BX579" s="7"/>
       <c r="BY579" s="7"/>
       <c r="BZ579" s="7"/>
-    </row>
-    <row r="580" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA579" s="7"/>
+      <c r="CB579" s="7"/>
+    </row>
+    <row r="580" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -46640,8 +47822,10 @@
       <c r="BX580" s="7"/>
       <c r="BY580" s="7"/>
       <c r="BZ580" s="7"/>
-    </row>
-    <row r="581" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA580" s="7"/>
+      <c r="CB580" s="7"/>
+    </row>
+    <row r="581" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -46720,8 +47904,10 @@
       <c r="BX581" s="7"/>
       <c r="BY581" s="7"/>
       <c r="BZ581" s="7"/>
-    </row>
-    <row r="582" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA581" s="7"/>
+      <c r="CB581" s="7"/>
+    </row>
+    <row r="582" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -46800,8 +47986,10 @@
       <c r="BX582" s="7"/>
       <c r="BY582" s="7"/>
       <c r="BZ582" s="7"/>
-    </row>
-    <row r="583" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA582" s="7"/>
+      <c r="CB582" s="7"/>
+    </row>
+    <row r="583" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -46880,8 +48068,10 @@
       <c r="BX583" s="7"/>
       <c r="BY583" s="7"/>
       <c r="BZ583" s="7"/>
-    </row>
-    <row r="584" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA583" s="7"/>
+      <c r="CB583" s="7"/>
+    </row>
+    <row r="584" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -46960,8 +48150,10 @@
       <c r="BX584" s="7"/>
       <c r="BY584" s="7"/>
       <c r="BZ584" s="7"/>
-    </row>
-    <row r="585" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA584" s="7"/>
+      <c r="CB584" s="7"/>
+    </row>
+    <row r="585" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -47040,8 +48232,10 @@
       <c r="BX585" s="7"/>
       <c r="BY585" s="7"/>
       <c r="BZ585" s="7"/>
-    </row>
-    <row r="586" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA585" s="7"/>
+      <c r="CB585" s="7"/>
+    </row>
+    <row r="586" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -47120,8 +48314,10 @@
       <c r="BX586" s="7"/>
       <c r="BY586" s="7"/>
       <c r="BZ586" s="7"/>
-    </row>
-    <row r="587" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA586" s="7"/>
+      <c r="CB586" s="7"/>
+    </row>
+    <row r="587" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -47200,8 +48396,10 @@
       <c r="BX587" s="7"/>
       <c r="BY587" s="7"/>
       <c r="BZ587" s="7"/>
-    </row>
-    <row r="588" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA587" s="7"/>
+      <c r="CB587" s="7"/>
+    </row>
+    <row r="588" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -47280,8 +48478,10 @@
       <c r="BX588" s="7"/>
       <c r="BY588" s="7"/>
       <c r="BZ588" s="7"/>
-    </row>
-    <row r="589" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA588" s="7"/>
+      <c r="CB588" s="7"/>
+    </row>
+    <row r="589" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -47360,8 +48560,10 @@
       <c r="BX589" s="7"/>
       <c r="BY589" s="7"/>
       <c r="BZ589" s="7"/>
-    </row>
-    <row r="590" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA589" s="7"/>
+      <c r="CB589" s="7"/>
+    </row>
+    <row r="590" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -47440,8 +48642,10 @@
       <c r="BX590" s="7"/>
       <c r="BY590" s="7"/>
       <c r="BZ590" s="7"/>
-    </row>
-    <row r="591" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA590" s="7"/>
+      <c r="CB590" s="7"/>
+    </row>
+    <row r="591" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -47520,8 +48724,10 @@
       <c r="BX591" s="7"/>
       <c r="BY591" s="7"/>
       <c r="BZ591" s="7"/>
-    </row>
-    <row r="592" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA591" s="7"/>
+      <c r="CB591" s="7"/>
+    </row>
+    <row r="592" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -47600,8 +48806,10 @@
       <c r="BX592" s="7"/>
       <c r="BY592" s="7"/>
       <c r="BZ592" s="7"/>
-    </row>
-    <row r="593" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA592" s="7"/>
+      <c r="CB592" s="7"/>
+    </row>
+    <row r="593" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -47680,8 +48888,10 @@
       <c r="BX593" s="7"/>
       <c r="BY593" s="7"/>
       <c r="BZ593" s="7"/>
-    </row>
-    <row r="594" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA593" s="7"/>
+      <c r="CB593" s="7"/>
+    </row>
+    <row r="594" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -47760,8 +48970,10 @@
       <c r="BX594" s="7"/>
       <c r="BY594" s="7"/>
       <c r="BZ594" s="7"/>
-    </row>
-    <row r="595" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA594" s="7"/>
+      <c r="CB594" s="7"/>
+    </row>
+    <row r="595" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -47840,8 +49052,10 @@
       <c r="BX595" s="7"/>
       <c r="BY595" s="7"/>
       <c r="BZ595" s="7"/>
-    </row>
-    <row r="596" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA595" s="7"/>
+      <c r="CB595" s="7"/>
+    </row>
+    <row r="596" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -47920,8 +49134,10 @@
       <c r="BX596" s="7"/>
       <c r="BY596" s="7"/>
       <c r="BZ596" s="7"/>
-    </row>
-    <row r="597" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA596" s="7"/>
+      <c r="CB596" s="7"/>
+    </row>
+    <row r="597" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -48000,8 +49216,10 @@
       <c r="BX597" s="7"/>
       <c r="BY597" s="7"/>
       <c r="BZ597" s="7"/>
-    </row>
-    <row r="598" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA597" s="7"/>
+      <c r="CB597" s="7"/>
+    </row>
+    <row r="598" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -48080,8 +49298,10 @@
       <c r="BX598" s="7"/>
       <c r="BY598" s="7"/>
       <c r="BZ598" s="7"/>
-    </row>
-    <row r="599" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA598" s="7"/>
+      <c r="CB598" s="7"/>
+    </row>
+    <row r="599" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -48160,8 +49380,10 @@
       <c r="BX599" s="7"/>
       <c r="BY599" s="7"/>
       <c r="BZ599" s="7"/>
-    </row>
-    <row r="600" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA599" s="7"/>
+      <c r="CB599" s="7"/>
+    </row>
+    <row r="600" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -48240,8 +49462,10 @@
       <c r="BX600" s="7"/>
       <c r="BY600" s="7"/>
       <c r="BZ600" s="7"/>
-    </row>
-    <row r="601" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA600" s="7"/>
+      <c r="CB600" s="7"/>
+    </row>
+    <row r="601" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -48320,8 +49544,10 @@
       <c r="BX601" s="7"/>
       <c r="BY601" s="7"/>
       <c r="BZ601" s="7"/>
-    </row>
-    <row r="602" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA601" s="7"/>
+      <c r="CB601" s="7"/>
+    </row>
+    <row r="602" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -48400,8 +49626,10 @@
       <c r="BX602" s="7"/>
       <c r="BY602" s="7"/>
       <c r="BZ602" s="7"/>
-    </row>
-    <row r="603" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA602" s="7"/>
+      <c r="CB602" s="7"/>
+    </row>
+    <row r="603" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -48480,8 +49708,10 @@
       <c r="BX603" s="7"/>
       <c r="BY603" s="7"/>
       <c r="BZ603" s="7"/>
-    </row>
-    <row r="604" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA603" s="7"/>
+      <c r="CB603" s="7"/>
+    </row>
+    <row r="604" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -48560,8 +49790,10 @@
       <c r="BX604" s="7"/>
       <c r="BY604" s="7"/>
       <c r="BZ604" s="7"/>
-    </row>
-    <row r="605" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA604" s="7"/>
+      <c r="CB604" s="7"/>
+    </row>
+    <row r="605" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -48640,8 +49872,10 @@
       <c r="BX605" s="7"/>
       <c r="BY605" s="7"/>
       <c r="BZ605" s="7"/>
-    </row>
-    <row r="606" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA605" s="7"/>
+      <c r="CB605" s="7"/>
+    </row>
+    <row r="606" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -48720,8 +49954,10 @@
       <c r="BX606" s="7"/>
       <c r="BY606" s="7"/>
       <c r="BZ606" s="7"/>
-    </row>
-    <row r="607" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA606" s="7"/>
+      <c r="CB606" s="7"/>
+    </row>
+    <row r="607" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -48800,8 +50036,10 @@
       <c r="BX607" s="7"/>
       <c r="BY607" s="7"/>
       <c r="BZ607" s="7"/>
-    </row>
-    <row r="608" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA607" s="7"/>
+      <c r="CB607" s="7"/>
+    </row>
+    <row r="608" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -48880,8 +50118,10 @@
       <c r="BX608" s="7"/>
       <c r="BY608" s="7"/>
       <c r="BZ608" s="7"/>
-    </row>
-    <row r="609" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA608" s="7"/>
+      <c r="CB608" s="7"/>
+    </row>
+    <row r="609" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -48960,8 +50200,10 @@
       <c r="BX609" s="7"/>
       <c r="BY609" s="7"/>
       <c r="BZ609" s="7"/>
-    </row>
-    <row r="610" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA609" s="7"/>
+      <c r="CB609" s="7"/>
+    </row>
+    <row r="610" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -49040,8 +50282,10 @@
       <c r="BX610" s="7"/>
       <c r="BY610" s="7"/>
       <c r="BZ610" s="7"/>
-    </row>
-    <row r="611" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA610" s="7"/>
+      <c r="CB610" s="7"/>
+    </row>
+    <row r="611" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -49120,8 +50364,10 @@
       <c r="BX611" s="7"/>
       <c r="BY611" s="7"/>
       <c r="BZ611" s="7"/>
-    </row>
-    <row r="612" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA611" s="7"/>
+      <c r="CB611" s="7"/>
+    </row>
+    <row r="612" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -49200,8 +50446,10 @@
       <c r="BX612" s="7"/>
       <c r="BY612" s="7"/>
       <c r="BZ612" s="7"/>
-    </row>
-    <row r="613" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA612" s="7"/>
+      <c r="CB612" s="7"/>
+    </row>
+    <row r="613" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -49280,8 +50528,10 @@
       <c r="BX613" s="7"/>
       <c r="BY613" s="7"/>
       <c r="BZ613" s="7"/>
-    </row>
-    <row r="614" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA613" s="7"/>
+      <c r="CB613" s="7"/>
+    </row>
+    <row r="614" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -49360,8 +50610,10 @@
       <c r="BX614" s="7"/>
       <c r="BY614" s="7"/>
       <c r="BZ614" s="7"/>
-    </row>
-    <row r="615" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA614" s="7"/>
+      <c r="CB614" s="7"/>
+    </row>
+    <row r="615" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -49440,8 +50692,10 @@
       <c r="BX615" s="7"/>
       <c r="BY615" s="7"/>
       <c r="BZ615" s="7"/>
-    </row>
-    <row r="616" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA615" s="7"/>
+      <c r="CB615" s="7"/>
+    </row>
+    <row r="616" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -49520,8 +50774,10 @@
       <c r="BX616" s="7"/>
       <c r="BY616" s="7"/>
       <c r="BZ616" s="7"/>
-    </row>
-    <row r="617" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA616" s="7"/>
+      <c r="CB616" s="7"/>
+    </row>
+    <row r="617" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -49600,8 +50856,10 @@
       <c r="BX617" s="7"/>
       <c r="BY617" s="7"/>
       <c r="BZ617" s="7"/>
-    </row>
-    <row r="618" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA617" s="7"/>
+      <c r="CB617" s="7"/>
+    </row>
+    <row r="618" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -49680,8 +50938,10 @@
       <c r="BX618" s="7"/>
       <c r="BY618" s="7"/>
       <c r="BZ618" s="7"/>
-    </row>
-    <row r="619" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA618" s="7"/>
+      <c r="CB618" s="7"/>
+    </row>
+    <row r="619" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -49760,8 +51020,10 @@
       <c r="BX619" s="7"/>
       <c r="BY619" s="7"/>
       <c r="BZ619" s="7"/>
-    </row>
-    <row r="620" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA619" s="7"/>
+      <c r="CB619" s="7"/>
+    </row>
+    <row r="620" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -49840,8 +51102,10 @@
       <c r="BX620" s="7"/>
       <c r="BY620" s="7"/>
       <c r="BZ620" s="7"/>
-    </row>
-    <row r="621" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA620" s="7"/>
+      <c r="CB620" s="7"/>
+    </row>
+    <row r="621" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -49920,8 +51184,10 @@
       <c r="BX621" s="7"/>
       <c r="BY621" s="7"/>
       <c r="BZ621" s="7"/>
-    </row>
-    <row r="622" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA621" s="7"/>
+      <c r="CB621" s="7"/>
+    </row>
+    <row r="622" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -50000,8 +51266,10 @@
       <c r="BX622" s="7"/>
       <c r="BY622" s="7"/>
       <c r="BZ622" s="7"/>
-    </row>
-    <row r="623" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA622" s="7"/>
+      <c r="CB622" s="7"/>
+    </row>
+    <row r="623" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -50080,8 +51348,10 @@
       <c r="BX623" s="7"/>
       <c r="BY623" s="7"/>
       <c r="BZ623" s="7"/>
-    </row>
-    <row r="624" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA623" s="7"/>
+      <c r="CB623" s="7"/>
+    </row>
+    <row r="624" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -50160,8 +51430,10 @@
       <c r="BX624" s="7"/>
       <c r="BY624" s="7"/>
       <c r="BZ624" s="7"/>
-    </row>
-    <row r="625" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA624" s="7"/>
+      <c r="CB624" s="7"/>
+    </row>
+    <row r="625" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -50240,8 +51512,10 @@
       <c r="BX625" s="7"/>
       <c r="BY625" s="7"/>
       <c r="BZ625" s="7"/>
-    </row>
-    <row r="626" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA625" s="7"/>
+      <c r="CB625" s="7"/>
+    </row>
+    <row r="626" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -50320,8 +51594,10 @@
       <c r="BX626" s="7"/>
       <c r="BY626" s="7"/>
       <c r="BZ626" s="7"/>
-    </row>
-    <row r="627" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA626" s="7"/>
+      <c r="CB626" s="7"/>
+    </row>
+    <row r="627" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -50400,8 +51676,10 @@
       <c r="BX627" s="7"/>
       <c r="BY627" s="7"/>
       <c r="BZ627" s="7"/>
-    </row>
-    <row r="628" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA627" s="7"/>
+      <c r="CB627" s="7"/>
+    </row>
+    <row r="628" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -50480,8 +51758,10 @@
       <c r="BX628" s="7"/>
       <c r="BY628" s="7"/>
       <c r="BZ628" s="7"/>
-    </row>
-    <row r="629" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA628" s="7"/>
+      <c r="CB628" s="7"/>
+    </row>
+    <row r="629" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -50560,8 +51840,10 @@
       <c r="BX629" s="7"/>
       <c r="BY629" s="7"/>
       <c r="BZ629" s="7"/>
-    </row>
-    <row r="630" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA629" s="7"/>
+      <c r="CB629" s="7"/>
+    </row>
+    <row r="630" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -50640,8 +51922,10 @@
       <c r="BX630" s="7"/>
       <c r="BY630" s="7"/>
       <c r="BZ630" s="7"/>
-    </row>
-    <row r="631" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA630" s="7"/>
+      <c r="CB630" s="7"/>
+    </row>
+    <row r="631" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -50720,8 +52004,10 @@
       <c r="BX631" s="7"/>
       <c r="BY631" s="7"/>
       <c r="BZ631" s="7"/>
-    </row>
-    <row r="632" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA631" s="7"/>
+      <c r="CB631" s="7"/>
+    </row>
+    <row r="632" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -50800,8 +52086,10 @@
       <c r="BX632" s="7"/>
       <c r="BY632" s="7"/>
       <c r="BZ632" s="7"/>
-    </row>
-    <row r="633" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA632" s="7"/>
+      <c r="CB632" s="7"/>
+    </row>
+    <row r="633" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -50880,8 +52168,10 @@
       <c r="BX633" s="7"/>
       <c r="BY633" s="7"/>
       <c r="BZ633" s="7"/>
-    </row>
-    <row r="634" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA633" s="7"/>
+      <c r="CB633" s="7"/>
+    </row>
+    <row r="634" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -50960,8 +52250,10 @@
       <c r="BX634" s="7"/>
       <c r="BY634" s="7"/>
       <c r="BZ634" s="7"/>
-    </row>
-    <row r="635" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA634" s="7"/>
+      <c r="CB634" s="7"/>
+    </row>
+    <row r="635" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -51040,8 +52332,10 @@
       <c r="BX635" s="7"/>
       <c r="BY635" s="7"/>
       <c r="BZ635" s="7"/>
-    </row>
-    <row r="636" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA635" s="7"/>
+      <c r="CB635" s="7"/>
+    </row>
+    <row r="636" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -51120,8 +52414,10 @@
       <c r="BX636" s="7"/>
       <c r="BY636" s="7"/>
       <c r="BZ636" s="7"/>
-    </row>
-    <row r="637" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA636" s="7"/>
+      <c r="CB636" s="7"/>
+    </row>
+    <row r="637" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -51200,8 +52496,10 @@
       <c r="BX637" s="7"/>
       <c r="BY637" s="7"/>
       <c r="BZ637" s="7"/>
-    </row>
-    <row r="638" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA637" s="7"/>
+      <c r="CB637" s="7"/>
+    </row>
+    <row r="638" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -51280,8 +52578,10 @@
       <c r="BX638" s="7"/>
       <c r="BY638" s="7"/>
       <c r="BZ638" s="7"/>
-    </row>
-    <row r="639" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA638" s="7"/>
+      <c r="CB638" s="7"/>
+    </row>
+    <row r="639" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -51360,8 +52660,10 @@
       <c r="BX639" s="7"/>
       <c r="BY639" s="7"/>
       <c r="BZ639" s="7"/>
-    </row>
-    <row r="640" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA639" s="7"/>
+      <c r="CB639" s="7"/>
+    </row>
+    <row r="640" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -51440,8 +52742,10 @@
       <c r="BX640" s="7"/>
       <c r="BY640" s="7"/>
       <c r="BZ640" s="7"/>
-    </row>
-    <row r="641" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA640" s="7"/>
+      <c r="CB640" s="7"/>
+    </row>
+    <row r="641" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -51520,8 +52824,10 @@
       <c r="BX641" s="7"/>
       <c r="BY641" s="7"/>
       <c r="BZ641" s="7"/>
-    </row>
-    <row r="642" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA641" s="7"/>
+      <c r="CB641" s="7"/>
+    </row>
+    <row r="642" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -51600,8 +52906,10 @@
       <c r="BX642" s="7"/>
       <c r="BY642" s="7"/>
       <c r="BZ642" s="7"/>
-    </row>
-    <row r="643" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA642" s="7"/>
+      <c r="CB642" s="7"/>
+    </row>
+    <row r="643" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -51680,8 +52988,10 @@
       <c r="BX643" s="7"/>
       <c r="BY643" s="7"/>
       <c r="BZ643" s="7"/>
-    </row>
-    <row r="644" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA643" s="7"/>
+      <c r="CB643" s="7"/>
+    </row>
+    <row r="644" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -51760,8 +53070,10 @@
       <c r="BX644" s="7"/>
       <c r="BY644" s="7"/>
       <c r="BZ644" s="7"/>
-    </row>
-    <row r="645" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA644" s="7"/>
+      <c r="CB644" s="7"/>
+    </row>
+    <row r="645" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -51840,8 +53152,10 @@
       <c r="BX645" s="7"/>
       <c r="BY645" s="7"/>
       <c r="BZ645" s="7"/>
-    </row>
-    <row r="646" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA645" s="7"/>
+      <c r="CB645" s="7"/>
+    </row>
+    <row r="646" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -51920,8 +53234,10 @@
       <c r="BX646" s="7"/>
       <c r="BY646" s="7"/>
       <c r="BZ646" s="7"/>
-    </row>
-    <row r="647" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA646" s="7"/>
+      <c r="CB646" s="7"/>
+    </row>
+    <row r="647" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -52000,8 +53316,10 @@
       <c r="BX647" s="7"/>
       <c r="BY647" s="7"/>
       <c r="BZ647" s="7"/>
-    </row>
-    <row r="648" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="CA647" s="7"/>
+      <c r="CB647" s="7"/>
+    </row>
+    <row r="648" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -52080,6 +53398,8 @@
       <c r="BX648" s="7"/>
       <c r="BY648" s="7"/>
       <c r="BZ648" s="7"/>
+      <c r="CA648" s="7"/>
+      <c r="CB648" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -52092,7 +53412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -52200,7 +53520,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
